--- a/Data/Textbausteine_LENA_Maerz2021.xlsx
+++ b/Data/Textbausteine_LENA_Maerz2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="178">
   <si>
     <t>Text_ID</t>
   </si>
@@ -38,144 +38,342 @@
     <t>Intro_Ja</t>
   </si>
   <si>
+    <t>Die Gemeinde #Gemeinde_d hat die Burka-Initiative agenommen. Der Ja-Stimmen-Anteil beträgt #JaStimmenInProzent Prozent.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f acceptent l'initiative "pour l'interdiction de se dissimuler le visage" avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
     <t>Mehr Ja- als Nein-Stimmen</t>
   </si>
   <si>
+    <t>Ja zur Burka-Initiative in #Gemeinde_d: Mit #JaStimmenInProzent Prozent haben die Stimmbürgerinnen und Stimmbürger das Volksbegehren angenommen.</t>
+  </si>
+  <si>
+    <t>Die Gemeinde #Gemeinde_d will, dass an öffentlich zugänglichen Orten niemand sein Gesicht verhüllen darf. Die Stimmbevölkerung hat die Burka-Initiative mit #JaStimmenInProzent Prozent angenommen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung der Initiative "Ja zum Verhüllungsverbot" zugestimmt. Sie wurde mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent angenommen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#JaStimmenInProzent Prozent der Abstimmenden in der Gemeinde #Gemeinde_d haben Ja gesagt zur Burka-Initiative. </t>
+  </si>
+  <si>
+    <t>Ja zur Burka-Initiative in #Gemeinde_d. Die Gemeinde hat das Volksbegehren mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
+  </si>
+  <si>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d wollen, dass an öffentlich zugänglichen Orten niemand sein Gesicht verhüllen darf. Sie haben die Burka-Initiative mit #JaStimmenAbsolut Ja-Stimmen zu #NeinStimmenAbsolut Nein-Stimmen angenommen.</t>
+  </si>
+  <si>
     <t>Intro_kleineGemeinde_Ja</t>
   </si>
   <si>
+    <t>#Gemeinde_d will, dass an öffentlich zugänglichen Orten niemand sein Gesicht verhüllen darf: Mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein hat die Stimmbevölkerung die Burka-Initiative agenommen.</t>
+  </si>
+  <si>
     <t>Gemeinden mit weniger als 100 Stimmabgaben</t>
   </si>
   <si>
+    <t>Ja zur Burka-Initiative in #Gemeinde_d. Mit #JaStimmenAbsolut Ja-Stimmen zu #NeinStimmenAbsolut Nein-Stimmen ist das Volksbegehren "Ja zum Verhüllungsverbot" angenommen worden.</t>
+  </si>
+  <si>
     <t>Intro_Nein</t>
   </si>
   <si>
+    <t>In #Gemeinde_d hat die Burka-Initiative keine Mehrheit gefunden. Auf #NeinStimmenInProzent Prozent der abgegebenen Stimmzettel stand ein Nein.</t>
+  </si>
+  <si>
     <t>Mehr Nein- als Ja-Stimmen</t>
   </si>
   <si>
+    <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d sagen Nein zur Burka-Initiative. Sie haben das Volksbegehren mit #NeinStimmenAbsolut Ja-Stimmen zu #JaStimmenAbsolut Nein-Stimmen abgelehnt.</t>
+  </si>
+  <si>
+    <t>#NeinStimmenInProzent Prozent Nein zur Burka-Initiative in der Gemeinde #Gemeinde_d.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung die Burka-Initiative abgelehnt. Das Volksbegehren wurde mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent verworfen. </t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Burka-Initiative in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein-Stimmen zu #JaStimmenAbsolut Ja-Stimmen oder #NeinStimmenInProzent Prozent hat die Gemeinde das Volksbegehren verworfen.</t>
+  </si>
+  <si>
+    <t>Die Gemeinde #Gemeinde_d hat die Burka-Initiative abgelehnt.Der Nein-Stimmen-Anteil betrug #NeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
+    <t>Nein zur Burka-Initiative in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmbürgerinnen und Stimmbürger das Volksbegehren abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>Intro_kleineGemeinde_Nein</t>
   </si>
   <si>
+    <t>#Gemeinde_d will nichts von einem Verhüllungsverbot wissen: Mit #NeinStimmenAbsolut Nein zu #JaStimmenAbsolut Ja hat die Gemeinde die Burka-Initiative verworfen.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative "Ja zum Verhüllungsverbot" in #Gemeinde_d. Mit #JaStimmenAbsolut Ja-Stimmen zu #NeinStimmenAbsolut Nein-Stimmen ist das Volksbegehren gescheitert.</t>
+  </si>
+  <si>
     <t>Intro_Sonderfall</t>
   </si>
   <si>
+    <t>Unentschieden in #Gemeinde_d: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner der Burka-Initiative genau die Waage.</t>
+  </si>
+  <si>
     <t>Gleich viele Ja- wie Nein-Stimmen</t>
   </si>
   <si>
     <t>Intro_Unanimous_Ja</t>
   </si>
   <si>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Burka-Initiative zugestimmt.</t>
+  </si>
+  <si>
     <t>Einstimmiges Resultat Ja</t>
   </si>
   <si>
     <t>Intro_Unanimous_Nein</t>
   </si>
   <si>
+    <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Initiative "Ja zum Verhüllungsverbot" abgelehnt.</t>
+  </si>
+  <si>
     <t>Einstimmiges Resultat Nein</t>
   </si>
   <si>
     <t>Intro_Highest_Yes_CH</t>
   </si>
   <si>
+    <t>Die Gemeinde #Gemeinde_d hat am Abstimmungssonntag für einen Rekord gesorgt: Sie hat die sogenannte Burka-Initiative mit dem höchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem höchsten Ja-Anteil (schweizweit)</t>
   </si>
   <si>
     <t>Intro_2Highest_Yes_CH</t>
   </si>
   <si>
+    <t>Die Gemeinde #Gemeinde_d hat der Burka-Initiative mit dem zweithöchsten Ja-Anteil in der ganzen Schweiz zugestimmt: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem zweithöchsten Ja-Anteil</t>
   </si>
   <si>
     <t>Intro_3Highest_Yes_CH</t>
   </si>
   <si>
+    <t>Die Gemeinde #Gemeinde_d hat die Initiative "Ja zum Verhüllungsverbot"mit dem dritthöchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent befürworteten die Burka-Initiative.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem dritthöchsten Ja-Anteil</t>
   </si>
   <si>
     <t>Intro_Highest_No_CH</t>
   </si>
   <si>
+    <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die Burka-Initiative ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem höchsten Nein-Anteil (schweizweit)</t>
   </si>
   <si>
     <t>Intro_2Highest_No_CH</t>
   </si>
   <si>
+    <t>Die Gemeinde #Gemeinde_d hat die Burka-Initiative mit dem zweithöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem zweithöchsten Nein-Anteil</t>
   </si>
   <si>
     <t>Intro_3Highest_No_CH</t>
   </si>
   <si>
+    <t>Die Gemeinde #Gemeinde_d hat die Burka-Initiative mit dem dritthöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem dritthöchsten Nein-Anteil</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Ja_JaAnteilGestiegen</t>
   </si>
   <si>
+    <t>Damit hat in #Gemeinde_d die Skepsis gegenüber muslimischen religiösen Symbolen im Vergleich zur Abstimmung über die Minarett-Initiative im Novemeber 2009 noch einmal zugenommen. Damals betrug der Ja-Stimmen-Anteil #HistJaStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) Ja, Verhüllungsverbot deutlicher Ja</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Ja_JaAnteilGesunken</t>
   </si>
   <si>
+    <t>Damit ist in #Gemeinde_d die Skepsis gegenüber muslimischen religiösen Symbolen im Vergleich zur Abstimmung über das Minarett-Verbot im November 2009 gesunken. Damals betrug der Ja-Stimmen-Anteil noch #HistJaStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) Ja, Verhüllungsverbot weniger deutlich Ja</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Ja_JaAnteilÄhnlich</t>
   </si>
   <si>
+    <t>Damit ist in #Gemeinde_d die Einstellung zu muslimischen religiösen Symbolen im Vergleich zur Abstimmung über das Minarett-Verbot im Jahr 2009 ungefähr gleich geblieben. Damals betrug der Ja-Stimmen-Anteil #HistJaStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) und Verhüllungsverbot ähnlicher Ja-Anteil (+- 1%)</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Ja_JaAnteilUnverändert</t>
   </si>
   <si>
+    <t>Erstaunlicherweise ist damit der Ja-Anteil in #Gemeinde_d im Vergleich zur Abstimmung über die Minarett-Initiative im Jahr 2009 genau gleich geblieben.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) und Verhüllungsverbot gleicher Ja-Anteil</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Nein_NeinAnteilGestiegen</t>
   </si>
   <si>
+    <t>Damit hat in #Gemeinde_d im Vergleich zur Abstimmung über das Minarett-Verbot im Jahr 2009 die Skepsis gegenüber muslimischen religiösen Symbolen noch einmal zugenommen. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) Nein, Verhüllungsverbot deutlicher Nein</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Nein_NeinAnteilGesunken</t>
   </si>
   <si>
+    <t>Damit ist in #Gemeinde_d die Skepsis gegenüber muslimischen religiösen Symbolen weniger gross als bei der Abstimmung über das Minarett-Verbot 2009. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) Nein, Verhüllungsverbot weniger deutlich Nein</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Nein_NeinAnteilÄhnlich</t>
   </si>
   <si>
+    <t>Damit ist in #Gemeinde_d die Skepsis gegenüber muslimischen religiösen Symbolen seit der Abstimmung über das Minarett-Verbot 2009 ungefähr gleich geblieten. Damals betrug der Ja-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) und Verhüllungsverbot ähnlicher Nein-Anteil (+- 1%)</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Nein_NeinAnteilUnverändert</t>
   </si>
   <si>
+    <t>Erstaunlicherweise ist damit der Nein-Stimmen-Anteil in #Gemeinde_d im Vergleich zur Minarett-Abstimmung 2009 genau gleich geblieben.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) und Verhüllungsverbot gleicher Nein-Anteil</t>
   </si>
   <si>
     <t>HistoricPhrase_Nein_Ja</t>
   </si>
   <si>
+    <t>Damit hat in #Gemeinde_d seit der Abstimmung über das Minarett-Verbot 2009 ein Meinungsumschwung stattgefunden: Damals hatte noch eine Mehrheit von #HistNeinStimmenInProzent Prozent ein Nein in die Urne gelegt.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) Nein, Verhüllungsverbot Ja</t>
   </si>
   <si>
     <t>HistoricPhrase_Ja_Nein</t>
   </si>
   <si>
+    <t>Damit hat in #Gemeinde_d die Einstellung zu muslimischen religiösen Symbolen seit der Abstimmung über das Minarett-Verbot 2009 geändert: Damals hatte noch eine Mehrheit von #HistJaStimmenInProzent Prozent ein Ja in die Urne gelegt.</t>
+  </si>
+  <si>
     <t>Minarett-Initiative (2009) Ja, Verhüllungsverbot Nein</t>
   </si>
   <si>
     <t>HistoricPhrase_NichtMöglich</t>
   </si>
   <si>
+    <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Abstimmung über das Minarett-Verbot im Jahr 2009 in #Gemeinde_d nicht möglich. </t>
+  </si>
+  <si>
     <t>Vergleich nicht möglich</t>
   </si>
   <si>
+    <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja-Stimmen hat eine Mehrheit der Abstimmenden in #Gemeinde_d das E-ID-Gesetz angenommen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein hat sich #Gemeinde_d für das E-ID-Gesetz ausgesprochen. Das entspricht #JaStimmenInProzent Prozent.. </t>
+  </si>
+  <si>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für das E-ID-Gesetz ausgesprochen.</t>
+  </si>
+  <si>
+    <t>Das E-ID-Gesetz ist in #Gemeinde_d mit #JaStimmenInProzent Prozent der Stimmen angenommen worden.</t>
+  </si>
+  <si>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger in #Gemeinde_d haben Ja gesagt zum E-ID-Gesetz.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d ist für die Einführung einer elektronischen Identität. Die Gemeinde hat das E-ID-Gesetz mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein zugestimmt. Das entspricht einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent.</t>
+  </si>
+  <si>
+    <t>Ja zur elektronischen Identität in #Gemeinde_d. Die Gemeinde hat das E-ID-Gesetz mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d ist für die Einführung einer elektronischen Identität: Mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein hat die Stimmbevölkerung das E-ID-Gesetz agenommen.</t>
+  </si>
+  <si>
+    <t>Ja zur elektronischen Identität in #Gemeinde_d. Mit #JaStimmenAbsolut Ja-Stimmen zu #NeinStimmenAbsolut Nein-Stimmen ist das E-ID-Gesetz angenommen worden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Gemeinde_d ist gegen die Einführung einer elektronischen Identität: Die Gemeinde hat das E-ID-Gesetz mit #NeinStimmenInProzent Prozent Nein verworfen. </t>
+  </si>
+  <si>
+    <t>#NeinStimmenInProzent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben das E-ID-Gesetz zur Einführung einer elektronischen Identität abgelehnt.</t>
+  </si>
+  <si>
+    <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich gegen einen zweiwöchigen bezahlten Vaterschaftsurlaub ausgesprochen.</t>
+  </si>
+  <si>
+    <t>Mit #NeinStimmenAbsolut Nein zu #JaStimmenAbsolut Ja haben die Stimmbürgerinnen und Stimmbürger von #Gemeinde_d die Änderung das E-ID-Gesetz abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für eine elektronische Identität in #Gemeinde_d: Das E-ID-Gesetz ist mit #NeinStimmenInProzent Prozent gescheitert.</t>
+  </si>
+  <si>
+    <t>Nein zur elektronischen Identität: #Gemeinde_d hat das E-ID-Gesetz mit #NeinStimmenInProzent Prozent Nein-Stimmen verworfen.</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d hat das E-ID-Gesetz keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben die Einführung einer elektronischen Identität abgelehnt.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d will nichts von einer elektronischen Identität wissen: Mit #NeinStimmenAbsolut Nein zu #JaStimmenAbsolut Ja hat die Gemeinde das E-ID-Gesetz verworfen.</t>
+  </si>
+  <si>
+    <t>Nein zur elektronischen Identität in #Gemeinde_d. Mit #JaStimmenAbsolut Ja-Stimmen zu #NeinStimmenAbsolut Nein-Stimmen ist das E-ID-Gesetz gescheitert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger bei der Abstimmung über das E-ID-Gesetz ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
+  </si>
+  <si>
+    <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAbsolut Abstimmenden haben ein Ja zum E-ID-Gesetz in die Urne gelegt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden ein Nein zum E-ID-Gesetz in die Urne gelegt. </t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton #Kanton_d.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat schweizweit den zweithöchsten Ja-Anteil bei der Abstimmung über das E-ID-Gesetz erreicht: #JaStimmenInProzent Prozent sind für die Einführung einer elektronischen Identität.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat schweizweit den dritthöchsten Ja-Anteil bei der Abstimmung über die Einführung einer elektronischen Identität erreicht: #JaStimmenInProzent Prozent haben dem E-ID-Gesetz zugestimmt..</t>
+  </si>
+  <si>
+    <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die Einführung einer elektronischen Identität ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat schweizweit den zweithöchsten Nein-Anteil bei der Abstimmung über die Einführung einer elektronischen Identität: #NeinStimmenInProzent Prozent haben das E-ID-Gesetz abgelehnt.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat schweizweit den dritthöchsten Nein-Anteil bei der Abstimmung über die Einführung einer elektronischen Identität: #NeinStimmenInProzent Prozent haben das E-ID-Gesetz verworfen.</t>
+  </si>
+  <si>
     <t>KantonPhrase_Highest_Yes_Kant</t>
   </si>
   <si>
@@ -185,28 +383,43 @@
     <t>KantonPhrase_Highest_No_Kant</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton #Kanton_d.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem höchsten Nein-Anteil im Kanton (Ja-Anteil muss unter 50 liegen)</t>
   </si>
   <si>
     <t>KantonPhrase_Ja_Ja</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit gleich wie der Kanton #Kanton_d Ja gesagt zu dieser Vorlage.</t>
+  </si>
+  <si>
     <t>Gemeinde sagt wie der Kanton Ja</t>
   </si>
   <si>
     <t>KantonPhrase_Nein_Ja</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der Kanton #Kanton_d, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
     <t>Gemeinde sagt Nein, Kanton Ja</t>
   </si>
   <si>
     <t>KantonPhrase_Ja_Nein</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der Kanton #Kanton_d, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
     <t>Gemeinde sagt Ja, Kanton Nein</t>
   </si>
   <si>
     <t>KantonPhrase_Nein_Nein</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit gleich wie der Kanton #Kanton_d Nein gesagt zu dieser Vorlage.</t>
   </si>
   <si>
     <t>Gemeinde sagt wie der Kanton Nein</t>
@@ -361,11 +574,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font/>
     <font>
@@ -375,6 +588,7 @@
     </font>
     <font>
       <color rgb="FF980000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -439,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -461,23 +675,21 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -485,8 +697,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -494,14 +712,20 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -509,23 +733,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -541,9 +753,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,4193 +1036,4269 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5"/>
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5"/>
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5"/>
+      <c r="A18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="8"/>
+      <c r="A19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7"/>
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7"/>
+      <c r="A22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="17"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="17"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="17"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="17"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="17"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="17"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="17"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" ht="54.0" customHeight="1">
-      <c r="A39" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="5"/>
+      <c r="A39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="7"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
     </row>
     <row r="43">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
     </row>
     <row r="44">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
     </row>
     <row r="47">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
     </row>
     <row r="48">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
     </row>
     <row r="49">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
     </row>
     <row r="50">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
     </row>
     <row r="53">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
     </row>
     <row r="56">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
     </row>
     <row r="57">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
     </row>
     <row r="58">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
     </row>
     <row r="60">
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
     </row>
     <row r="61">
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
     </row>
     <row r="63">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
     </row>
     <row r="64">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="65">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
     </row>
     <row r="66">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67">
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
     </row>
     <row r="68">
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
     </row>
     <row r="69">
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
     </row>
     <row r="70">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72">
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
     </row>
     <row r="73">
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
     </row>
     <row r="74">
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
     </row>
     <row r="75">
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
     </row>
     <row r="76">
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
     </row>
     <row r="77">
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
     </row>
     <row r="78">
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
     </row>
     <row r="79">
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
     </row>
     <row r="80">
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
     </row>
     <row r="81">
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
     </row>
     <row r="82">
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
     </row>
     <row r="83">
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
     </row>
     <row r="84">
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
     </row>
     <row r="85">
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
     </row>
     <row r="86">
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
     </row>
     <row r="87">
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
     </row>
     <row r="88">
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
     </row>
     <row r="89">
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
     </row>
     <row r="90">
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
     </row>
     <row r="91">
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
     </row>
     <row r="92">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
     </row>
     <row r="93">
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
     </row>
     <row r="94">
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
     </row>
     <row r="95">
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
     </row>
     <row r="96">
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
     </row>
     <row r="97">
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
     </row>
     <row r="98">
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
     </row>
     <row r="99">
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
     </row>
     <row r="100">
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
     </row>
     <row r="101">
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102">
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
     </row>
     <row r="103">
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
     </row>
     <row r="104">
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
     </row>
     <row r="105">
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
     </row>
     <row r="106">
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
     </row>
     <row r="107">
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
     </row>
     <row r="108">
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
     </row>
     <row r="109">
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
     </row>
     <row r="110">
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
     </row>
     <row r="111">
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
     </row>
     <row r="112">
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
     </row>
     <row r="113">
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
     </row>
     <row r="114">
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
     </row>
     <row r="115">
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
     </row>
     <row r="116">
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
     </row>
     <row r="117">
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
     </row>
     <row r="118">
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
     </row>
     <row r="119">
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
     </row>
     <row r="120">
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
     </row>
     <row r="121">
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
     </row>
     <row r="122">
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
     </row>
     <row r="123">
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
     </row>
     <row r="124">
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
     </row>
     <row r="125">
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
     </row>
     <row r="126">
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
     </row>
     <row r="127">
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
     </row>
     <row r="128">
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
     </row>
     <row r="129">
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
     </row>
     <row r="130">
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
     </row>
     <row r="131">
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
     </row>
     <row r="132">
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
     </row>
     <row r="133">
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
     </row>
     <row r="134">
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
     </row>
     <row r="135">
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
     </row>
     <row r="136">
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
     </row>
     <row r="137">
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
     </row>
     <row r="138">
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
     </row>
     <row r="139">
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140">
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
     </row>
     <row r="141">
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
     </row>
     <row r="142">
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
     </row>
     <row r="143">
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
     </row>
     <row r="144">
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
     </row>
     <row r="145">
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
     </row>
     <row r="146">
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
     </row>
     <row r="147">
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
     </row>
     <row r="148">
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
     </row>
     <row r="149">
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
     </row>
     <row r="150">
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
     </row>
     <row r="151">
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
     </row>
     <row r="152">
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
     </row>
     <row r="153">
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
     </row>
     <row r="154">
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
     </row>
     <row r="155">
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
     </row>
     <row r="156">
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
     </row>
     <row r="157">
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
     </row>
     <row r="158">
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
     </row>
     <row r="159">
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
     </row>
     <row r="160">
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
     </row>
     <row r="161">
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
     </row>
     <row r="162">
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
     </row>
     <row r="163">
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
     </row>
     <row r="164">
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
     </row>
     <row r="165">
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
     </row>
     <row r="166">
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
     </row>
     <row r="167">
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
     </row>
     <row r="168">
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
     </row>
     <row r="169">
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
     </row>
     <row r="170">
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
     </row>
     <row r="171">
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
     </row>
     <row r="172">
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
     </row>
     <row r="173">
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
     </row>
     <row r="174">
-      <c r="B174" s="17"/>
-      <c r="C174" s="17"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
     </row>
     <row r="175">
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
     </row>
     <row r="176">
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
     </row>
     <row r="177">
-      <c r="B177" s="17"/>
-      <c r="C177" s="17"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178">
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
     </row>
     <row r="179">
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
     </row>
     <row r="180">
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
     </row>
     <row r="181">
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
     </row>
     <row r="182">
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
     </row>
     <row r="183">
-      <c r="B183" s="17"/>
-      <c r="C183" s="17"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
     </row>
     <row r="184">
-      <c r="B184" s="17"/>
-      <c r="C184" s="17"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
     </row>
     <row r="185">
-      <c r="B185" s="17"/>
-      <c r="C185" s="17"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
     </row>
     <row r="186">
-      <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
     </row>
     <row r="187">
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
     </row>
     <row r="188">
-      <c r="B188" s="17"/>
-      <c r="C188" s="17"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
     </row>
     <row r="189">
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
     </row>
     <row r="190">
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
     </row>
     <row r="191">
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
     </row>
     <row r="192">
-      <c r="B192" s="17"/>
-      <c r="C192" s="17"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
     </row>
     <row r="193">
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
     </row>
     <row r="194">
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
     </row>
     <row r="195">
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
     </row>
     <row r="196">
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
     </row>
     <row r="197">
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
     </row>
     <row r="198">
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
     </row>
     <row r="199">
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="19"/>
     </row>
     <row r="200">
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
+      <c r="B200" s="19"/>
+      <c r="C200" s="19"/>
     </row>
     <row r="201">
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
     </row>
     <row r="202">
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
     </row>
     <row r="203">
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
     </row>
     <row r="204">
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
     </row>
     <row r="205">
-      <c r="B205" s="17"/>
-      <c r="C205" s="17"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
     </row>
     <row r="206">
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
     </row>
     <row r="207">
-      <c r="B207" s="17"/>
-      <c r="C207" s="17"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
     </row>
     <row r="208">
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
     </row>
     <row r="209">
-      <c r="B209" s="17"/>
-      <c r="C209" s="17"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
     </row>
     <row r="210">
-      <c r="B210" s="17"/>
-      <c r="C210" s="17"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="19"/>
     </row>
     <row r="211">
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
     </row>
     <row r="212">
-      <c r="B212" s="17"/>
-      <c r="C212" s="17"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="19"/>
     </row>
     <row r="213">
-      <c r="B213" s="17"/>
-      <c r="C213" s="17"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
     </row>
     <row r="214">
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="19"/>
     </row>
     <row r="215">
-      <c r="B215" s="17"/>
-      <c r="C215" s="17"/>
+      <c r="B215" s="19"/>
+      <c r="C215" s="19"/>
     </row>
     <row r="216">
-      <c r="B216" s="17"/>
-      <c r="C216" s="17"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
     </row>
     <row r="217">
-      <c r="B217" s="17"/>
-      <c r="C217" s="17"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="19"/>
     </row>
     <row r="218">
-      <c r="B218" s="17"/>
-      <c r="C218" s="17"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="19"/>
     </row>
     <row r="219">
-      <c r="B219" s="17"/>
-      <c r="C219" s="17"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
     </row>
     <row r="220">
-      <c r="B220" s="17"/>
-      <c r="C220" s="17"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
     </row>
     <row r="221">
-      <c r="B221" s="17"/>
-      <c r="C221" s="17"/>
+      <c r="B221" s="19"/>
+      <c r="C221" s="19"/>
     </row>
     <row r="222">
-      <c r="B222" s="17"/>
-      <c r="C222" s="17"/>
+      <c r="B222" s="19"/>
+      <c r="C222" s="19"/>
     </row>
     <row r="223">
-      <c r="B223" s="17"/>
-      <c r="C223" s="17"/>
+      <c r="B223" s="19"/>
+      <c r="C223" s="19"/>
     </row>
     <row r="224">
-      <c r="B224" s="17"/>
-      <c r="C224" s="17"/>
+      <c r="B224" s="19"/>
+      <c r="C224" s="19"/>
     </row>
     <row r="225">
-      <c r="B225" s="17"/>
-      <c r="C225" s="17"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
     </row>
     <row r="226">
-      <c r="B226" s="17"/>
-      <c r="C226" s="17"/>
+      <c r="B226" s="19"/>
+      <c r="C226" s="19"/>
     </row>
     <row r="227">
-      <c r="B227" s="17"/>
-      <c r="C227" s="17"/>
+      <c r="B227" s="19"/>
+      <c r="C227" s="19"/>
     </row>
     <row r="228">
-      <c r="B228" s="17"/>
-      <c r="C228" s="17"/>
+      <c r="B228" s="19"/>
+      <c r="C228" s="19"/>
     </row>
     <row r="229">
-      <c r="B229" s="17"/>
-      <c r="C229" s="17"/>
+      <c r="B229" s="19"/>
+      <c r="C229" s="19"/>
     </row>
     <row r="230">
-      <c r="B230" s="17"/>
-      <c r="C230" s="17"/>
+      <c r="B230" s="19"/>
+      <c r="C230" s="19"/>
     </row>
     <row r="231">
-      <c r="B231" s="17"/>
-      <c r="C231" s="17"/>
+      <c r="B231" s="19"/>
+      <c r="C231" s="19"/>
     </row>
     <row r="232">
-      <c r="B232" s="17"/>
-      <c r="C232" s="17"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
     </row>
     <row r="233">
-      <c r="B233" s="17"/>
-      <c r="C233" s="17"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
     </row>
     <row r="234">
-      <c r="B234" s="17"/>
-      <c r="C234" s="17"/>
+      <c r="B234" s="19"/>
+      <c r="C234" s="19"/>
     </row>
     <row r="235">
-      <c r="B235" s="17"/>
-      <c r="C235" s="17"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
     </row>
     <row r="236">
-      <c r="B236" s="17"/>
-      <c r="C236" s="17"/>
+      <c r="B236" s="19"/>
+      <c r="C236" s="19"/>
     </row>
     <row r="237">
-      <c r="B237" s="17"/>
-      <c r="C237" s="17"/>
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
     </row>
     <row r="238">
-      <c r="B238" s="17"/>
-      <c r="C238" s="17"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239">
-      <c r="B239" s="17"/>
-      <c r="C239" s="17"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="19"/>
     </row>
     <row r="240">
-      <c r="B240" s="17"/>
-      <c r="C240" s="17"/>
+      <c r="B240" s="19"/>
+      <c r="C240" s="19"/>
     </row>
     <row r="241">
-      <c r="B241" s="17"/>
-      <c r="C241" s="17"/>
+      <c r="B241" s="19"/>
+      <c r="C241" s="19"/>
     </row>
     <row r="242">
-      <c r="B242" s="17"/>
-      <c r="C242" s="17"/>
+      <c r="B242" s="19"/>
+      <c r="C242" s="19"/>
     </row>
     <row r="243">
-      <c r="B243" s="17"/>
-      <c r="C243" s="17"/>
+      <c r="B243" s="19"/>
+      <c r="C243" s="19"/>
     </row>
     <row r="244">
-      <c r="B244" s="17"/>
-      <c r="C244" s="17"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
     </row>
     <row r="245">
-      <c r="B245" s="17"/>
-      <c r="C245" s="17"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
     </row>
     <row r="246">
-      <c r="B246" s="17"/>
-      <c r="C246" s="17"/>
+      <c r="B246" s="19"/>
+      <c r="C246" s="19"/>
     </row>
     <row r="247">
-      <c r="B247" s="17"/>
-      <c r="C247" s="17"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="19"/>
     </row>
     <row r="248">
-      <c r="B248" s="17"/>
-      <c r="C248" s="17"/>
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
     </row>
     <row r="249">
-      <c r="B249" s="17"/>
-      <c r="C249" s="17"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
     </row>
     <row r="250">
-      <c r="B250" s="17"/>
-      <c r="C250" s="17"/>
+      <c r="B250" s="19"/>
+      <c r="C250" s="19"/>
     </row>
     <row r="251">
-      <c r="B251" s="17"/>
-      <c r="C251" s="17"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="19"/>
     </row>
     <row r="252">
-      <c r="B252" s="17"/>
-      <c r="C252" s="17"/>
+      <c r="B252" s="19"/>
+      <c r="C252" s="19"/>
     </row>
     <row r="253">
-      <c r="B253" s="17"/>
-      <c r="C253" s="17"/>
+      <c r="B253" s="19"/>
+      <c r="C253" s="19"/>
     </row>
     <row r="254">
-      <c r="B254" s="17"/>
-      <c r="C254" s="17"/>
+      <c r="B254" s="19"/>
+      <c r="C254" s="19"/>
     </row>
     <row r="255">
-      <c r="B255" s="17"/>
-      <c r="C255" s="17"/>
+      <c r="B255" s="19"/>
+      <c r="C255" s="19"/>
     </row>
     <row r="256">
-      <c r="B256" s="17"/>
-      <c r="C256" s="17"/>
+      <c r="B256" s="19"/>
+      <c r="C256" s="19"/>
     </row>
     <row r="257">
-      <c r="B257" s="17"/>
-      <c r="C257" s="17"/>
+      <c r="B257" s="19"/>
+      <c r="C257" s="19"/>
     </row>
     <row r="258">
-      <c r="B258" s="17"/>
-      <c r="C258" s="17"/>
+      <c r="B258" s="19"/>
+      <c r="C258" s="19"/>
     </row>
     <row r="259">
-      <c r="B259" s="17"/>
-      <c r="C259" s="17"/>
+      <c r="B259" s="19"/>
+      <c r="C259" s="19"/>
     </row>
     <row r="260">
-      <c r="B260" s="17"/>
-      <c r="C260" s="17"/>
+      <c r="B260" s="19"/>
+      <c r="C260" s="19"/>
     </row>
     <row r="261">
-      <c r="B261" s="17"/>
-      <c r="C261" s="17"/>
+      <c r="B261" s="19"/>
+      <c r="C261" s="19"/>
     </row>
     <row r="262">
-      <c r="B262" s="17"/>
-      <c r="C262" s="17"/>
+      <c r="B262" s="19"/>
+      <c r="C262" s="19"/>
     </row>
     <row r="263">
-      <c r="B263" s="17"/>
-      <c r="C263" s="17"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="19"/>
     </row>
     <row r="264">
-      <c r="B264" s="17"/>
-      <c r="C264" s="17"/>
+      <c r="B264" s="19"/>
+      <c r="C264" s="19"/>
     </row>
     <row r="265">
-      <c r="B265" s="17"/>
-      <c r="C265" s="17"/>
+      <c r="B265" s="19"/>
+      <c r="C265" s="19"/>
     </row>
     <row r="266">
-      <c r="B266" s="17"/>
-      <c r="C266" s="17"/>
+      <c r="B266" s="19"/>
+      <c r="C266" s="19"/>
     </row>
     <row r="267">
-      <c r="B267" s="17"/>
-      <c r="C267" s="17"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="19"/>
     </row>
     <row r="268">
-      <c r="B268" s="17"/>
-      <c r="C268" s="17"/>
+      <c r="B268" s="19"/>
+      <c r="C268" s="19"/>
     </row>
     <row r="269">
-      <c r="B269" s="17"/>
-      <c r="C269" s="17"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="19"/>
     </row>
     <row r="270">
-      <c r="B270" s="17"/>
-      <c r="C270" s="17"/>
+      <c r="B270" s="19"/>
+      <c r="C270" s="19"/>
     </row>
     <row r="271">
-      <c r="B271" s="17"/>
-      <c r="C271" s="17"/>
+      <c r="B271" s="19"/>
+      <c r="C271" s="19"/>
     </row>
     <row r="272">
-      <c r="B272" s="17"/>
-      <c r="C272" s="17"/>
+      <c r="B272" s="19"/>
+      <c r="C272" s="19"/>
     </row>
     <row r="273">
-      <c r="B273" s="17"/>
-      <c r="C273" s="17"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
     </row>
     <row r="274">
-      <c r="B274" s="17"/>
-      <c r="C274" s="17"/>
+      <c r="B274" s="19"/>
+      <c r="C274" s="19"/>
     </row>
     <row r="275">
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+      <c r="B275" s="19"/>
+      <c r="C275" s="19"/>
     </row>
     <row r="276">
-      <c r="B276" s="17"/>
-      <c r="C276" s="17"/>
+      <c r="B276" s="19"/>
+      <c r="C276" s="19"/>
     </row>
     <row r="277">
-      <c r="B277" s="17"/>
-      <c r="C277" s="17"/>
+      <c r="B277" s="19"/>
+      <c r="C277" s="19"/>
     </row>
     <row r="278">
-      <c r="B278" s="17"/>
-      <c r="C278" s="17"/>
+      <c r="B278" s="19"/>
+      <c r="C278" s="19"/>
     </row>
     <row r="279">
-      <c r="B279" s="17"/>
-      <c r="C279" s="17"/>
+      <c r="B279" s="19"/>
+      <c r="C279" s="19"/>
     </row>
     <row r="280">
-      <c r="B280" s="17"/>
-      <c r="C280" s="17"/>
+      <c r="B280" s="19"/>
+      <c r="C280" s="19"/>
     </row>
     <row r="281">
-      <c r="B281" s="17"/>
-      <c r="C281" s="17"/>
+      <c r="B281" s="19"/>
+      <c r="C281" s="19"/>
     </row>
     <row r="282">
-      <c r="B282" s="17"/>
-      <c r="C282" s="17"/>
+      <c r="B282" s="19"/>
+      <c r="C282" s="19"/>
     </row>
     <row r="283">
-      <c r="B283" s="17"/>
-      <c r="C283" s="17"/>
+      <c r="B283" s="19"/>
+      <c r="C283" s="19"/>
     </row>
     <row r="284">
-      <c r="B284" s="17"/>
-      <c r="C284" s="17"/>
+      <c r="B284" s="19"/>
+      <c r="C284" s="19"/>
     </row>
     <row r="285">
-      <c r="B285" s="17"/>
-      <c r="C285" s="17"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="19"/>
     </row>
     <row r="286">
-      <c r="B286" s="17"/>
-      <c r="C286" s="17"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="19"/>
     </row>
     <row r="287">
-      <c r="B287" s="17"/>
-      <c r="C287" s="17"/>
+      <c r="B287" s="19"/>
+      <c r="C287" s="19"/>
     </row>
     <row r="288">
-      <c r="B288" s="17"/>
-      <c r="C288" s="17"/>
+      <c r="B288" s="19"/>
+      <c r="C288" s="19"/>
     </row>
     <row r="289">
-      <c r="B289" s="17"/>
-      <c r="C289" s="17"/>
+      <c r="B289" s="19"/>
+      <c r="C289" s="19"/>
     </row>
     <row r="290">
-      <c r="B290" s="17"/>
-      <c r="C290" s="17"/>
+      <c r="B290" s="19"/>
+      <c r="C290" s="19"/>
     </row>
     <row r="291">
-      <c r="B291" s="17"/>
-      <c r="C291" s="17"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="19"/>
     </row>
     <row r="292">
-      <c r="B292" s="17"/>
-      <c r="C292" s="17"/>
+      <c r="B292" s="19"/>
+      <c r="C292" s="19"/>
     </row>
     <row r="293">
-      <c r="B293" s="17"/>
-      <c r="C293" s="17"/>
+      <c r="B293" s="19"/>
+      <c r="C293" s="19"/>
     </row>
     <row r="294">
-      <c r="B294" s="17"/>
-      <c r="C294" s="17"/>
+      <c r="B294" s="19"/>
+      <c r="C294" s="19"/>
     </row>
     <row r="295">
-      <c r="B295" s="17"/>
-      <c r="C295" s="17"/>
+      <c r="B295" s="19"/>
+      <c r="C295" s="19"/>
     </row>
     <row r="296">
-      <c r="B296" s="17"/>
-      <c r="C296" s="17"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297">
-      <c r="B297" s="17"/>
-      <c r="C297" s="17"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="19"/>
     </row>
     <row r="298">
-      <c r="B298" s="17"/>
-      <c r="C298" s="17"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="19"/>
     </row>
     <row r="299">
-      <c r="B299" s="17"/>
-      <c r="C299" s="17"/>
+      <c r="B299" s="19"/>
+      <c r="C299" s="19"/>
     </row>
     <row r="300">
-      <c r="B300" s="17"/>
-      <c r="C300" s="17"/>
+      <c r="B300" s="19"/>
+      <c r="C300" s="19"/>
     </row>
     <row r="301">
-      <c r="B301" s="17"/>
-      <c r="C301" s="17"/>
+      <c r="B301" s="19"/>
+      <c r="C301" s="19"/>
     </row>
     <row r="302">
-      <c r="B302" s="17"/>
-      <c r="C302" s="17"/>
+      <c r="B302" s="19"/>
+      <c r="C302" s="19"/>
     </row>
     <row r="303">
-      <c r="B303" s="17"/>
-      <c r="C303" s="17"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="19"/>
     </row>
     <row r="304">
-      <c r="B304" s="17"/>
-      <c r="C304" s="17"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="19"/>
     </row>
     <row r="305">
-      <c r="B305" s="17"/>
-      <c r="C305" s="17"/>
+      <c r="B305" s="19"/>
+      <c r="C305" s="19"/>
     </row>
     <row r="306">
-      <c r="B306" s="17"/>
-      <c r="C306" s="17"/>
+      <c r="B306" s="19"/>
+      <c r="C306" s="19"/>
     </row>
     <row r="307">
-      <c r="B307" s="17"/>
-      <c r="C307" s="17"/>
+      <c r="B307" s="19"/>
+      <c r="C307" s="19"/>
     </row>
     <row r="308">
-      <c r="B308" s="17"/>
-      <c r="C308" s="17"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="19"/>
     </row>
     <row r="309">
-      <c r="B309" s="17"/>
-      <c r="C309" s="17"/>
+      <c r="B309" s="19"/>
+      <c r="C309" s="19"/>
     </row>
     <row r="310">
-      <c r="B310" s="17"/>
-      <c r="C310" s="17"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="19"/>
     </row>
     <row r="311">
-      <c r="B311" s="17"/>
-      <c r="C311" s="17"/>
+      <c r="B311" s="19"/>
+      <c r="C311" s="19"/>
     </row>
     <row r="312">
-      <c r="B312" s="17"/>
-      <c r="C312" s="17"/>
+      <c r="B312" s="19"/>
+      <c r="C312" s="19"/>
     </row>
     <row r="313">
-      <c r="B313" s="17"/>
-      <c r="C313" s="17"/>
+      <c r="B313" s="19"/>
+      <c r="C313" s="19"/>
     </row>
     <row r="314">
-      <c r="B314" s="17"/>
-      <c r="C314" s="17"/>
+      <c r="B314" s="19"/>
+      <c r="C314" s="19"/>
     </row>
     <row r="315">
-      <c r="B315" s="17"/>
-      <c r="C315" s="17"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="19"/>
     </row>
     <row r="316">
-      <c r="B316" s="17"/>
-      <c r="C316" s="17"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="19"/>
     </row>
     <row r="317">
-      <c r="B317" s="17"/>
-      <c r="C317" s="17"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="19"/>
     </row>
     <row r="318">
-      <c r="B318" s="17"/>
-      <c r="C318" s="17"/>
+      <c r="B318" s="19"/>
+      <c r="C318" s="19"/>
     </row>
     <row r="319">
-      <c r="B319" s="17"/>
-      <c r="C319" s="17"/>
+      <c r="B319" s="19"/>
+      <c r="C319" s="19"/>
     </row>
     <row r="320">
-      <c r="B320" s="17"/>
-      <c r="C320" s="17"/>
+      <c r="B320" s="19"/>
+      <c r="C320" s="19"/>
     </row>
     <row r="321">
-      <c r="B321" s="17"/>
-      <c r="C321" s="17"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="19"/>
     </row>
     <row r="322">
-      <c r="B322" s="17"/>
-      <c r="C322" s="17"/>
+      <c r="B322" s="19"/>
+      <c r="C322" s="19"/>
     </row>
     <row r="323">
-      <c r="B323" s="17"/>
-      <c r="C323" s="17"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="19"/>
     </row>
     <row r="324">
-      <c r="B324" s="17"/>
-      <c r="C324" s="17"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="19"/>
     </row>
     <row r="325">
-      <c r="B325" s="17"/>
-      <c r="C325" s="17"/>
+      <c r="B325" s="19"/>
+      <c r="C325" s="19"/>
     </row>
     <row r="326">
-      <c r="B326" s="17"/>
-      <c r="C326" s="17"/>
+      <c r="B326" s="19"/>
+      <c r="C326" s="19"/>
     </row>
     <row r="327">
-      <c r="B327" s="17"/>
-      <c r="C327" s="17"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="19"/>
     </row>
     <row r="328">
-      <c r="B328" s="17"/>
-      <c r="C328" s="17"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="19"/>
     </row>
     <row r="329">
-      <c r="B329" s="17"/>
-      <c r="C329" s="17"/>
+      <c r="B329" s="19"/>
+      <c r="C329" s="19"/>
     </row>
     <row r="330">
-      <c r="B330" s="17"/>
-      <c r="C330" s="17"/>
+      <c r="B330" s="19"/>
+      <c r="C330" s="19"/>
     </row>
     <row r="331">
-      <c r="B331" s="17"/>
-      <c r="C331" s="17"/>
+      <c r="B331" s="19"/>
+      <c r="C331" s="19"/>
     </row>
     <row r="332">
-      <c r="B332" s="17"/>
-      <c r="C332" s="17"/>
+      <c r="B332" s="19"/>
+      <c r="C332" s="19"/>
     </row>
     <row r="333">
-      <c r="B333" s="17"/>
-      <c r="C333" s="17"/>
+      <c r="B333" s="19"/>
+      <c r="C333" s="19"/>
     </row>
     <row r="334">
-      <c r="B334" s="17"/>
-      <c r="C334" s="17"/>
+      <c r="B334" s="19"/>
+      <c r="C334" s="19"/>
     </row>
     <row r="335">
-      <c r="B335" s="17"/>
-      <c r="C335" s="17"/>
+      <c r="B335" s="19"/>
+      <c r="C335" s="19"/>
     </row>
     <row r="336">
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
+      <c r="B336" s="19"/>
+      <c r="C336" s="19"/>
     </row>
     <row r="337">
-      <c r="B337" s="17"/>
-      <c r="C337" s="17"/>
+      <c r="B337" s="19"/>
+      <c r="C337" s="19"/>
     </row>
     <row r="338">
-      <c r="B338" s="17"/>
-      <c r="C338" s="17"/>
+      <c r="B338" s="19"/>
+      <c r="C338" s="19"/>
     </row>
     <row r="339">
-      <c r="B339" s="17"/>
-      <c r="C339" s="17"/>
+      <c r="B339" s="19"/>
+      <c r="C339" s="19"/>
     </row>
     <row r="340">
-      <c r="B340" s="17"/>
-      <c r="C340" s="17"/>
+      <c r="B340" s="19"/>
+      <c r="C340" s="19"/>
     </row>
     <row r="341">
-      <c r="B341" s="17"/>
-      <c r="C341" s="17"/>
+      <c r="B341" s="19"/>
+      <c r="C341" s="19"/>
     </row>
     <row r="342">
-      <c r="B342" s="17"/>
-      <c r="C342" s="17"/>
+      <c r="B342" s="19"/>
+      <c r="C342" s="19"/>
     </row>
     <row r="343">
-      <c r="B343" s="17"/>
-      <c r="C343" s="17"/>
+      <c r="B343" s="19"/>
+      <c r="C343" s="19"/>
     </row>
     <row r="344">
-      <c r="B344" s="17"/>
-      <c r="C344" s="17"/>
+      <c r="B344" s="19"/>
+      <c r="C344" s="19"/>
     </row>
     <row r="345">
-      <c r="B345" s="17"/>
-      <c r="C345" s="17"/>
+      <c r="B345" s="19"/>
+      <c r="C345" s="19"/>
     </row>
     <row r="346">
-      <c r="B346" s="17"/>
-      <c r="C346" s="17"/>
+      <c r="B346" s="19"/>
+      <c r="C346" s="19"/>
     </row>
     <row r="347">
-      <c r="B347" s="17"/>
-      <c r="C347" s="17"/>
+      <c r="B347" s="19"/>
+      <c r="C347" s="19"/>
     </row>
     <row r="348">
-      <c r="B348" s="17"/>
-      <c r="C348" s="17"/>
+      <c r="B348" s="19"/>
+      <c r="C348" s="19"/>
     </row>
     <row r="349">
-      <c r="B349" s="17"/>
-      <c r="C349" s="17"/>
+      <c r="B349" s="19"/>
+      <c r="C349" s="19"/>
     </row>
     <row r="350">
-      <c r="B350" s="17"/>
-      <c r="C350" s="17"/>
+      <c r="B350" s="19"/>
+      <c r="C350" s="19"/>
     </row>
     <row r="351">
-      <c r="B351" s="17"/>
-      <c r="C351" s="17"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="19"/>
     </row>
     <row r="352">
-      <c r="B352" s="17"/>
-      <c r="C352" s="17"/>
+      <c r="B352" s="19"/>
+      <c r="C352" s="19"/>
     </row>
     <row r="353">
-      <c r="B353" s="17"/>
-      <c r="C353" s="17"/>
+      <c r="B353" s="19"/>
+      <c r="C353" s="19"/>
     </row>
     <row r="354">
-      <c r="B354" s="17"/>
-      <c r="C354" s="17"/>
+      <c r="B354" s="19"/>
+      <c r="C354" s="19"/>
     </row>
     <row r="355">
-      <c r="B355" s="17"/>
-      <c r="C355" s="17"/>
+      <c r="B355" s="19"/>
+      <c r="C355" s="19"/>
     </row>
     <row r="356">
-      <c r="B356" s="17"/>
-      <c r="C356" s="17"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357">
-      <c r="B357" s="17"/>
-      <c r="C357" s="17"/>
+      <c r="B357" s="19"/>
+      <c r="C357" s="19"/>
     </row>
     <row r="358">
-      <c r="B358" s="17"/>
-      <c r="C358" s="17"/>
+      <c r="B358" s="19"/>
+      <c r="C358" s="19"/>
     </row>
     <row r="359">
-      <c r="B359" s="17"/>
-      <c r="C359" s="17"/>
+      <c r="B359" s="19"/>
+      <c r="C359" s="19"/>
     </row>
     <row r="360">
-      <c r="B360" s="17"/>
-      <c r="C360" s="17"/>
+      <c r="B360" s="19"/>
+      <c r="C360" s="19"/>
     </row>
     <row r="361">
-      <c r="B361" s="17"/>
-      <c r="C361" s="17"/>
+      <c r="B361" s="19"/>
+      <c r="C361" s="19"/>
     </row>
     <row r="362">
-      <c r="B362" s="17"/>
-      <c r="C362" s="17"/>
+      <c r="B362" s="19"/>
+      <c r="C362" s="19"/>
     </row>
     <row r="363">
-      <c r="B363" s="17"/>
-      <c r="C363" s="17"/>
+      <c r="B363" s="19"/>
+      <c r="C363" s="19"/>
     </row>
     <row r="364">
-      <c r="B364" s="17"/>
-      <c r="C364" s="17"/>
+      <c r="B364" s="19"/>
+      <c r="C364" s="19"/>
     </row>
     <row r="365">
-      <c r="B365" s="17"/>
-      <c r="C365" s="17"/>
+      <c r="B365" s="19"/>
+      <c r="C365" s="19"/>
     </row>
     <row r="366">
-      <c r="B366" s="17"/>
-      <c r="C366" s="17"/>
+      <c r="B366" s="19"/>
+      <c r="C366" s="19"/>
     </row>
     <row r="367">
-      <c r="B367" s="17"/>
-      <c r="C367" s="17"/>
+      <c r="B367" s="19"/>
+      <c r="C367" s="19"/>
     </row>
     <row r="368">
-      <c r="B368" s="17"/>
-      <c r="C368" s="17"/>
+      <c r="B368" s="19"/>
+      <c r="C368" s="19"/>
     </row>
     <row r="369">
-      <c r="B369" s="17"/>
-      <c r="C369" s="17"/>
+      <c r="B369" s="19"/>
+      <c r="C369" s="19"/>
     </row>
     <row r="370">
-      <c r="B370" s="17"/>
-      <c r="C370" s="17"/>
+      <c r="B370" s="19"/>
+      <c r="C370" s="19"/>
     </row>
     <row r="371">
-      <c r="B371" s="17"/>
-      <c r="C371" s="17"/>
+      <c r="B371" s="19"/>
+      <c r="C371" s="19"/>
     </row>
     <row r="372">
-      <c r="B372" s="17"/>
-      <c r="C372" s="17"/>
+      <c r="B372" s="19"/>
+      <c r="C372" s="19"/>
     </row>
     <row r="373">
-      <c r="B373" s="17"/>
-      <c r="C373" s="17"/>
+      <c r="B373" s="19"/>
+      <c r="C373" s="19"/>
     </row>
     <row r="374">
-      <c r="B374" s="17"/>
-      <c r="C374" s="17"/>
+      <c r="B374" s="19"/>
+      <c r="C374" s="19"/>
     </row>
     <row r="375">
-      <c r="B375" s="17"/>
-      <c r="C375" s="17"/>
+      <c r="B375" s="19"/>
+      <c r="C375" s="19"/>
     </row>
     <row r="376">
-      <c r="B376" s="17"/>
-      <c r="C376" s="17"/>
+      <c r="B376" s="19"/>
+      <c r="C376" s="19"/>
     </row>
     <row r="377">
-      <c r="B377" s="17"/>
-      <c r="C377" s="17"/>
+      <c r="B377" s="19"/>
+      <c r="C377" s="19"/>
     </row>
     <row r="378">
-      <c r="B378" s="17"/>
-      <c r="C378" s="17"/>
+      <c r="B378" s="19"/>
+      <c r="C378" s="19"/>
     </row>
     <row r="379">
-      <c r="B379" s="17"/>
-      <c r="C379" s="17"/>
+      <c r="B379" s="19"/>
+      <c r="C379" s="19"/>
     </row>
     <row r="380">
-      <c r="B380" s="17"/>
-      <c r="C380" s="17"/>
+      <c r="B380" s="19"/>
+      <c r="C380" s="19"/>
     </row>
     <row r="381">
-      <c r="B381" s="17"/>
-      <c r="C381" s="17"/>
+      <c r="B381" s="19"/>
+      <c r="C381" s="19"/>
     </row>
     <row r="382">
-      <c r="B382" s="17"/>
-      <c r="C382" s="17"/>
+      <c r="B382" s="19"/>
+      <c r="C382" s="19"/>
     </row>
     <row r="383">
-      <c r="B383" s="17"/>
-      <c r="C383" s="17"/>
+      <c r="B383" s="19"/>
+      <c r="C383" s="19"/>
     </row>
     <row r="384">
-      <c r="B384" s="17"/>
-      <c r="C384" s="17"/>
+      <c r="B384" s="19"/>
+      <c r="C384" s="19"/>
     </row>
     <row r="385">
-      <c r="B385" s="17"/>
-      <c r="C385" s="17"/>
+      <c r="B385" s="19"/>
+      <c r="C385" s="19"/>
     </row>
     <row r="386">
-      <c r="B386" s="17"/>
-      <c r="C386" s="17"/>
+      <c r="B386" s="19"/>
+      <c r="C386" s="19"/>
     </row>
     <row r="387">
-      <c r="B387" s="17"/>
-      <c r="C387" s="17"/>
+      <c r="B387" s="19"/>
+      <c r="C387" s="19"/>
     </row>
     <row r="388">
-      <c r="B388" s="17"/>
-      <c r="C388" s="17"/>
+      <c r="B388" s="19"/>
+      <c r="C388" s="19"/>
     </row>
     <row r="389">
-      <c r="B389" s="17"/>
-      <c r="C389" s="17"/>
+      <c r="B389" s="19"/>
+      <c r="C389" s="19"/>
     </row>
     <row r="390">
-      <c r="B390" s="17"/>
-      <c r="C390" s="17"/>
+      <c r="B390" s="19"/>
+      <c r="C390" s="19"/>
     </row>
     <row r="391">
-      <c r="B391" s="17"/>
-      <c r="C391" s="17"/>
+      <c r="B391" s="19"/>
+      <c r="C391" s="19"/>
     </row>
     <row r="392">
-      <c r="B392" s="17"/>
-      <c r="C392" s="17"/>
+      <c r="B392" s="19"/>
+      <c r="C392" s="19"/>
     </row>
     <row r="393">
-      <c r="B393" s="17"/>
-      <c r="C393" s="17"/>
+      <c r="B393" s="19"/>
+      <c r="C393" s="19"/>
     </row>
     <row r="394">
-      <c r="B394" s="17"/>
-      <c r="C394" s="17"/>
+      <c r="B394" s="19"/>
+      <c r="C394" s="19"/>
     </row>
     <row r="395">
-      <c r="B395" s="17"/>
-      <c r="C395" s="17"/>
+      <c r="B395" s="19"/>
+      <c r="C395" s="19"/>
     </row>
     <row r="396">
-      <c r="B396" s="17"/>
-      <c r="C396" s="17"/>
+      <c r="B396" s="19"/>
+      <c r="C396" s="19"/>
     </row>
     <row r="397">
-      <c r="B397" s="17"/>
-      <c r="C397" s="17"/>
+      <c r="B397" s="19"/>
+      <c r="C397" s="19"/>
     </row>
     <row r="398">
-      <c r="B398" s="17"/>
-      <c r="C398" s="17"/>
+      <c r="B398" s="19"/>
+      <c r="C398" s="19"/>
     </row>
     <row r="399">
-      <c r="B399" s="17"/>
-      <c r="C399" s="17"/>
+      <c r="B399" s="19"/>
+      <c r="C399" s="19"/>
     </row>
     <row r="400">
-      <c r="B400" s="17"/>
-      <c r="C400" s="17"/>
+      <c r="B400" s="19"/>
+      <c r="C400" s="19"/>
     </row>
     <row r="401">
-      <c r="B401" s="17"/>
-      <c r="C401" s="17"/>
+      <c r="B401" s="19"/>
+      <c r="C401" s="19"/>
     </row>
     <row r="402">
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
+      <c r="B402" s="19"/>
+      <c r="C402" s="19"/>
     </row>
     <row r="403">
-      <c r="B403" s="17"/>
-      <c r="C403" s="17"/>
+      <c r="B403" s="19"/>
+      <c r="C403" s="19"/>
     </row>
     <row r="404">
-      <c r="B404" s="17"/>
-      <c r="C404" s="17"/>
+      <c r="B404" s="19"/>
+      <c r="C404" s="19"/>
     </row>
     <row r="405">
-      <c r="B405" s="17"/>
-      <c r="C405" s="17"/>
+      <c r="B405" s="19"/>
+      <c r="C405" s="19"/>
     </row>
     <row r="406">
-      <c r="B406" s="17"/>
-      <c r="C406" s="17"/>
+      <c r="B406" s="19"/>
+      <c r="C406" s="19"/>
     </row>
     <row r="407">
-      <c r="B407" s="17"/>
-      <c r="C407" s="17"/>
+      <c r="B407" s="19"/>
+      <c r="C407" s="19"/>
     </row>
     <row r="408">
-      <c r="B408" s="17"/>
-      <c r="C408" s="17"/>
+      <c r="B408" s="19"/>
+      <c r="C408" s="19"/>
     </row>
     <row r="409">
-      <c r="B409" s="17"/>
-      <c r="C409" s="17"/>
+      <c r="B409" s="19"/>
+      <c r="C409" s="19"/>
     </row>
     <row r="410">
-      <c r="B410" s="17"/>
-      <c r="C410" s="17"/>
+      <c r="B410" s="19"/>
+      <c r="C410" s="19"/>
     </row>
     <row r="411">
-      <c r="B411" s="17"/>
-      <c r="C411" s="17"/>
+      <c r="B411" s="19"/>
+      <c r="C411" s="19"/>
     </row>
     <row r="412">
-      <c r="B412" s="17"/>
-      <c r="C412" s="17"/>
+      <c r="B412" s="19"/>
+      <c r="C412" s="19"/>
     </row>
     <row r="413">
-      <c r="B413" s="17"/>
-      <c r="C413" s="17"/>
+      <c r="B413" s="19"/>
+      <c r="C413" s="19"/>
     </row>
     <row r="414">
-      <c r="B414" s="17"/>
-      <c r="C414" s="17"/>
+      <c r="B414" s="19"/>
+      <c r="C414" s="19"/>
     </row>
     <row r="415">
-      <c r="B415" s="17"/>
-      <c r="C415" s="17"/>
+      <c r="B415" s="19"/>
+      <c r="C415" s="19"/>
     </row>
     <row r="416">
-      <c r="B416" s="17"/>
-      <c r="C416" s="17"/>
+      <c r="B416" s="19"/>
+      <c r="C416" s="19"/>
     </row>
     <row r="417">
-      <c r="B417" s="17"/>
-      <c r="C417" s="17"/>
+      <c r="B417" s="19"/>
+      <c r="C417" s="19"/>
     </row>
     <row r="418">
-      <c r="B418" s="17"/>
-      <c r="C418" s="17"/>
+      <c r="B418" s="19"/>
+      <c r="C418" s="19"/>
     </row>
     <row r="419">
-      <c r="B419" s="17"/>
-      <c r="C419" s="17"/>
+      <c r="B419" s="19"/>
+      <c r="C419" s="19"/>
     </row>
     <row r="420">
-      <c r="B420" s="17"/>
-      <c r="C420" s="17"/>
+      <c r="B420" s="19"/>
+      <c r="C420" s="19"/>
     </row>
     <row r="421">
-      <c r="B421" s="17"/>
-      <c r="C421" s="17"/>
+      <c r="B421" s="19"/>
+      <c r="C421" s="19"/>
     </row>
     <row r="422">
-      <c r="B422" s="17"/>
-      <c r="C422" s="17"/>
+      <c r="B422" s="19"/>
+      <c r="C422" s="19"/>
     </row>
     <row r="423">
-      <c r="B423" s="17"/>
-      <c r="C423" s="17"/>
+      <c r="B423" s="19"/>
+      <c r="C423" s="19"/>
     </row>
     <row r="424">
-      <c r="B424" s="17"/>
-      <c r="C424" s="17"/>
+      <c r="B424" s="19"/>
+      <c r="C424" s="19"/>
     </row>
     <row r="425">
-      <c r="B425" s="17"/>
-      <c r="C425" s="17"/>
+      <c r="B425" s="19"/>
+      <c r="C425" s="19"/>
     </row>
     <row r="426">
-      <c r="B426" s="17"/>
-      <c r="C426" s="17"/>
+      <c r="B426" s="19"/>
+      <c r="C426" s="19"/>
     </row>
     <row r="427">
-      <c r="B427" s="17"/>
-      <c r="C427" s="17"/>
+      <c r="B427" s="19"/>
+      <c r="C427" s="19"/>
     </row>
     <row r="428">
-      <c r="B428" s="17"/>
-      <c r="C428" s="17"/>
+      <c r="B428" s="19"/>
+      <c r="C428" s="19"/>
     </row>
     <row r="429">
-      <c r="B429" s="17"/>
-      <c r="C429" s="17"/>
+      <c r="B429" s="19"/>
+      <c r="C429" s="19"/>
     </row>
     <row r="430">
-      <c r="B430" s="17"/>
-      <c r="C430" s="17"/>
+      <c r="B430" s="19"/>
+      <c r="C430" s="19"/>
     </row>
     <row r="431">
-      <c r="B431" s="17"/>
-      <c r="C431" s="17"/>
+      <c r="B431" s="19"/>
+      <c r="C431" s="19"/>
     </row>
     <row r="432">
-      <c r="B432" s="17"/>
-      <c r="C432" s="17"/>
+      <c r="B432" s="19"/>
+      <c r="C432" s="19"/>
     </row>
     <row r="433">
-      <c r="B433" s="17"/>
-      <c r="C433" s="17"/>
+      <c r="B433" s="19"/>
+      <c r="C433" s="19"/>
     </row>
     <row r="434">
-      <c r="B434" s="17"/>
-      <c r="C434" s="17"/>
+      <c r="B434" s="19"/>
+      <c r="C434" s="19"/>
     </row>
     <row r="435">
-      <c r="B435" s="17"/>
-      <c r="C435" s="17"/>
+      <c r="B435" s="19"/>
+      <c r="C435" s="19"/>
     </row>
     <row r="436">
-      <c r="B436" s="17"/>
-      <c r="C436" s="17"/>
+      <c r="B436" s="19"/>
+      <c r="C436" s="19"/>
     </row>
     <row r="437">
-      <c r="B437" s="17"/>
-      <c r="C437" s="17"/>
+      <c r="B437" s="19"/>
+      <c r="C437" s="19"/>
     </row>
     <row r="438">
-      <c r="B438" s="17"/>
-      <c r="C438" s="17"/>
+      <c r="B438" s="19"/>
+      <c r="C438" s="19"/>
     </row>
     <row r="439">
-      <c r="B439" s="17"/>
-      <c r="C439" s="17"/>
+      <c r="B439" s="19"/>
+      <c r="C439" s="19"/>
     </row>
     <row r="440">
-      <c r="B440" s="17"/>
-      <c r="C440" s="17"/>
+      <c r="B440" s="19"/>
+      <c r="C440" s="19"/>
     </row>
     <row r="441">
-      <c r="B441" s="17"/>
-      <c r="C441" s="17"/>
+      <c r="B441" s="19"/>
+      <c r="C441" s="19"/>
     </row>
     <row r="442">
-      <c r="B442" s="17"/>
-      <c r="C442" s="17"/>
+      <c r="B442" s="19"/>
+      <c r="C442" s="19"/>
     </row>
     <row r="443">
-      <c r="B443" s="17"/>
-      <c r="C443" s="17"/>
+      <c r="B443" s="19"/>
+      <c r="C443" s="19"/>
     </row>
     <row r="444">
-      <c r="B444" s="17"/>
-      <c r="C444" s="17"/>
+      <c r="B444" s="19"/>
+      <c r="C444" s="19"/>
     </row>
     <row r="445">
-      <c r="B445" s="17"/>
-      <c r="C445" s="17"/>
+      <c r="B445" s="19"/>
+      <c r="C445" s="19"/>
     </row>
     <row r="446">
-      <c r="B446" s="17"/>
-      <c r="C446" s="17"/>
+      <c r="B446" s="19"/>
+      <c r="C446" s="19"/>
     </row>
     <row r="447">
-      <c r="B447" s="17"/>
-      <c r="C447" s="17"/>
+      <c r="B447" s="19"/>
+      <c r="C447" s="19"/>
     </row>
     <row r="448">
-      <c r="B448" s="17"/>
-      <c r="C448" s="17"/>
+      <c r="B448" s="19"/>
+      <c r="C448" s="19"/>
     </row>
     <row r="449">
-      <c r="B449" s="17"/>
-      <c r="C449" s="17"/>
+      <c r="B449" s="19"/>
+      <c r="C449" s="19"/>
     </row>
     <row r="450">
-      <c r="B450" s="17"/>
-      <c r="C450" s="17"/>
+      <c r="B450" s="19"/>
+      <c r="C450" s="19"/>
     </row>
     <row r="451">
-      <c r="B451" s="17"/>
-      <c r="C451" s="17"/>
+      <c r="B451" s="19"/>
+      <c r="C451" s="19"/>
     </row>
     <row r="452">
-      <c r="B452" s="17"/>
-      <c r="C452" s="17"/>
+      <c r="B452" s="19"/>
+      <c r="C452" s="19"/>
     </row>
     <row r="453">
-      <c r="B453" s="17"/>
-      <c r="C453" s="17"/>
+      <c r="B453" s="19"/>
+      <c r="C453" s="19"/>
     </row>
     <row r="454">
-      <c r="B454" s="17"/>
-      <c r="C454" s="17"/>
+      <c r="B454" s="19"/>
+      <c r="C454" s="19"/>
     </row>
     <row r="455">
-      <c r="B455" s="17"/>
-      <c r="C455" s="17"/>
+      <c r="B455" s="19"/>
+      <c r="C455" s="19"/>
     </row>
     <row r="456">
-      <c r="B456" s="17"/>
-      <c r="C456" s="17"/>
+      <c r="B456" s="19"/>
+      <c r="C456" s="19"/>
     </row>
     <row r="457">
-      <c r="B457" s="17"/>
-      <c r="C457" s="17"/>
+      <c r="B457" s="19"/>
+      <c r="C457" s="19"/>
     </row>
     <row r="458">
-      <c r="B458" s="17"/>
-      <c r="C458" s="17"/>
+      <c r="B458" s="19"/>
+      <c r="C458" s="19"/>
     </row>
     <row r="459">
-      <c r="B459" s="17"/>
-      <c r="C459" s="17"/>
+      <c r="B459" s="19"/>
+      <c r="C459" s="19"/>
     </row>
     <row r="460">
-      <c r="B460" s="17"/>
-      <c r="C460" s="17"/>
+      <c r="B460" s="19"/>
+      <c r="C460" s="19"/>
     </row>
     <row r="461">
-      <c r="B461" s="17"/>
-      <c r="C461" s="17"/>
+      <c r="B461" s="19"/>
+      <c r="C461" s="19"/>
     </row>
     <row r="462">
-      <c r="B462" s="17"/>
-      <c r="C462" s="17"/>
+      <c r="B462" s="19"/>
+      <c r="C462" s="19"/>
     </row>
     <row r="463">
-      <c r="B463" s="17"/>
-      <c r="C463" s="17"/>
+      <c r="B463" s="19"/>
+      <c r="C463" s="19"/>
     </row>
     <row r="464">
-      <c r="B464" s="17"/>
-      <c r="C464" s="17"/>
+      <c r="B464" s="19"/>
+      <c r="C464" s="19"/>
     </row>
     <row r="465">
-      <c r="B465" s="17"/>
-      <c r="C465" s="17"/>
+      <c r="B465" s="19"/>
+      <c r="C465" s="19"/>
     </row>
     <row r="466">
-      <c r="B466" s="17"/>
-      <c r="C466" s="17"/>
+      <c r="B466" s="19"/>
+      <c r="C466" s="19"/>
     </row>
     <row r="467">
-      <c r="B467" s="17"/>
-      <c r="C467" s="17"/>
+      <c r="B467" s="19"/>
+      <c r="C467" s="19"/>
     </row>
     <row r="468">
-      <c r="B468" s="17"/>
-      <c r="C468" s="17"/>
+      <c r="B468" s="19"/>
+      <c r="C468" s="19"/>
     </row>
     <row r="469">
-      <c r="B469" s="17"/>
-      <c r="C469" s="17"/>
+      <c r="B469" s="19"/>
+      <c r="C469" s="19"/>
     </row>
     <row r="470">
-      <c r="B470" s="17"/>
-      <c r="C470" s="17"/>
+      <c r="B470" s="19"/>
+      <c r="C470" s="19"/>
     </row>
     <row r="471">
-      <c r="B471" s="17"/>
-      <c r="C471" s="17"/>
+      <c r="B471" s="19"/>
+      <c r="C471" s="19"/>
     </row>
     <row r="472">
-      <c r="B472" s="17"/>
-      <c r="C472" s="17"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473">
-      <c r="B473" s="17"/>
-      <c r="C473" s="17"/>
+      <c r="B473" s="19"/>
+      <c r="C473" s="19"/>
     </row>
     <row r="474">
-      <c r="B474" s="17"/>
-      <c r="C474" s="17"/>
+      <c r="B474" s="19"/>
+      <c r="C474" s="19"/>
     </row>
     <row r="475">
-      <c r="B475" s="17"/>
-      <c r="C475" s="17"/>
+      <c r="B475" s="19"/>
+      <c r="C475" s="19"/>
     </row>
     <row r="476">
-      <c r="B476" s="17"/>
-      <c r="C476" s="17"/>
+      <c r="B476" s="19"/>
+      <c r="C476" s="19"/>
     </row>
     <row r="477">
-      <c r="B477" s="17"/>
-      <c r="C477" s="17"/>
+      <c r="B477" s="19"/>
+      <c r="C477" s="19"/>
     </row>
     <row r="478">
-      <c r="B478" s="17"/>
-      <c r="C478" s="17"/>
+      <c r="B478" s="19"/>
+      <c r="C478" s="19"/>
     </row>
     <row r="479">
-      <c r="B479" s="17"/>
-      <c r="C479" s="17"/>
+      <c r="B479" s="19"/>
+      <c r="C479" s="19"/>
     </row>
     <row r="480">
-      <c r="B480" s="17"/>
-      <c r="C480" s="17"/>
+      <c r="B480" s="19"/>
+      <c r="C480" s="19"/>
     </row>
     <row r="481">
-      <c r="B481" s="17"/>
-      <c r="C481" s="17"/>
+      <c r="B481" s="19"/>
+      <c r="C481" s="19"/>
     </row>
     <row r="482">
-      <c r="B482" s="17"/>
-      <c r="C482" s="17"/>
+      <c r="B482" s="19"/>
+      <c r="C482" s="19"/>
     </row>
     <row r="483">
-      <c r="B483" s="17"/>
-      <c r="C483" s="17"/>
+      <c r="B483" s="19"/>
+      <c r="C483" s="19"/>
     </row>
     <row r="484">
-      <c r="B484" s="17"/>
-      <c r="C484" s="17"/>
+      <c r="B484" s="19"/>
+      <c r="C484" s="19"/>
     </row>
     <row r="485">
-      <c r="B485" s="17"/>
-      <c r="C485" s="17"/>
+      <c r="B485" s="19"/>
+      <c r="C485" s="19"/>
     </row>
     <row r="486">
-      <c r="B486" s="17"/>
-      <c r="C486" s="17"/>
+      <c r="B486" s="19"/>
+      <c r="C486" s="19"/>
     </row>
     <row r="487">
-      <c r="B487" s="17"/>
-      <c r="C487" s="17"/>
+      <c r="B487" s="19"/>
+      <c r="C487" s="19"/>
     </row>
     <row r="488">
-      <c r="B488" s="17"/>
-      <c r="C488" s="17"/>
+      <c r="B488" s="19"/>
+      <c r="C488" s="19"/>
     </row>
     <row r="489">
-      <c r="B489" s="17"/>
-      <c r="C489" s="17"/>
+      <c r="B489" s="19"/>
+      <c r="C489" s="19"/>
     </row>
     <row r="490">
-      <c r="B490" s="17"/>
-      <c r="C490" s="17"/>
+      <c r="B490" s="19"/>
+      <c r="C490" s="19"/>
     </row>
     <row r="491">
-      <c r="B491" s="17"/>
-      <c r="C491" s="17"/>
+      <c r="B491" s="19"/>
+      <c r="C491" s="19"/>
     </row>
     <row r="492">
-      <c r="B492" s="17"/>
-      <c r="C492" s="17"/>
+      <c r="B492" s="19"/>
+      <c r="C492" s="19"/>
     </row>
     <row r="493">
-      <c r="B493" s="17"/>
-      <c r="C493" s="17"/>
+      <c r="B493" s="19"/>
+      <c r="C493" s="19"/>
     </row>
     <row r="494">
-      <c r="B494" s="17"/>
-      <c r="C494" s="17"/>
+      <c r="B494" s="19"/>
+      <c r="C494" s="19"/>
     </row>
     <row r="495">
-      <c r="B495" s="17"/>
-      <c r="C495" s="17"/>
+      <c r="B495" s="19"/>
+      <c r="C495" s="19"/>
     </row>
     <row r="496">
-      <c r="B496" s="17"/>
-      <c r="C496" s="17"/>
+      <c r="B496" s="19"/>
+      <c r="C496" s="19"/>
     </row>
     <row r="497">
-      <c r="B497" s="17"/>
-      <c r="C497" s="17"/>
+      <c r="B497" s="19"/>
+      <c r="C497" s="19"/>
     </row>
     <row r="498">
-      <c r="B498" s="17"/>
-      <c r="C498" s="17"/>
+      <c r="B498" s="19"/>
+      <c r="C498" s="19"/>
     </row>
     <row r="499">
-      <c r="B499" s="17"/>
-      <c r="C499" s="17"/>
+      <c r="B499" s="19"/>
+      <c r="C499" s="19"/>
     </row>
     <row r="500">
-      <c r="B500" s="17"/>
-      <c r="C500" s="17"/>
+      <c r="B500" s="19"/>
+      <c r="C500" s="19"/>
     </row>
     <row r="501">
-      <c r="B501" s="17"/>
-      <c r="C501" s="17"/>
+      <c r="B501" s="19"/>
+      <c r="C501" s="19"/>
     </row>
     <row r="502">
-      <c r="B502" s="17"/>
-      <c r="C502" s="17"/>
+      <c r="B502" s="19"/>
+      <c r="C502" s="19"/>
     </row>
     <row r="503">
-      <c r="B503" s="17"/>
-      <c r="C503" s="17"/>
+      <c r="B503" s="19"/>
+      <c r="C503" s="19"/>
     </row>
     <row r="504">
-      <c r="B504" s="17"/>
-      <c r="C504" s="17"/>
+      <c r="B504" s="19"/>
+      <c r="C504" s="19"/>
     </row>
     <row r="505">
-      <c r="B505" s="17"/>
-      <c r="C505" s="17"/>
+      <c r="B505" s="19"/>
+      <c r="C505" s="19"/>
     </row>
     <row r="506">
-      <c r="B506" s="17"/>
-      <c r="C506" s="17"/>
+      <c r="B506" s="19"/>
+      <c r="C506" s="19"/>
     </row>
     <row r="507">
-      <c r="B507" s="17"/>
-      <c r="C507" s="17"/>
+      <c r="B507" s="19"/>
+      <c r="C507" s="19"/>
     </row>
     <row r="508">
-      <c r="B508" s="17"/>
-      <c r="C508" s="17"/>
+      <c r="B508" s="19"/>
+      <c r="C508" s="19"/>
     </row>
     <row r="509">
-      <c r="B509" s="17"/>
-      <c r="C509" s="17"/>
+      <c r="B509" s="19"/>
+      <c r="C509" s="19"/>
     </row>
     <row r="510">
-      <c r="B510" s="17"/>
-      <c r="C510" s="17"/>
+      <c r="B510" s="19"/>
+      <c r="C510" s="19"/>
     </row>
     <row r="511">
-      <c r="B511" s="17"/>
-      <c r="C511" s="17"/>
+      <c r="B511" s="19"/>
+      <c r="C511" s="19"/>
     </row>
     <row r="512">
-      <c r="B512" s="17"/>
-      <c r="C512" s="17"/>
+      <c r="B512" s="19"/>
+      <c r="C512" s="19"/>
     </row>
     <row r="513">
-      <c r="B513" s="17"/>
-      <c r="C513" s="17"/>
+      <c r="B513" s="19"/>
+      <c r="C513" s="19"/>
     </row>
     <row r="514">
-      <c r="B514" s="17"/>
-      <c r="C514" s="17"/>
+      <c r="B514" s="19"/>
+      <c r="C514" s="19"/>
     </row>
     <row r="515">
-      <c r="B515" s="17"/>
-      <c r="C515" s="17"/>
+      <c r="B515" s="19"/>
+      <c r="C515" s="19"/>
     </row>
     <row r="516">
-      <c r="B516" s="17"/>
-      <c r="C516" s="17"/>
+      <c r="B516" s="19"/>
+      <c r="C516" s="19"/>
     </row>
     <row r="517">
-      <c r="B517" s="17"/>
-      <c r="C517" s="17"/>
+      <c r="B517" s="19"/>
+      <c r="C517" s="19"/>
     </row>
     <row r="518">
-      <c r="B518" s="17"/>
-      <c r="C518" s="17"/>
+      <c r="B518" s="19"/>
+      <c r="C518" s="19"/>
     </row>
     <row r="519">
-      <c r="B519" s="17"/>
-      <c r="C519" s="17"/>
+      <c r="B519" s="19"/>
+      <c r="C519" s="19"/>
     </row>
     <row r="520">
-      <c r="B520" s="17"/>
-      <c r="C520" s="17"/>
+      <c r="B520" s="19"/>
+      <c r="C520" s="19"/>
     </row>
     <row r="521">
-      <c r="B521" s="17"/>
-      <c r="C521" s="17"/>
+      <c r="B521" s="19"/>
+      <c r="C521" s="19"/>
     </row>
     <row r="522">
-      <c r="B522" s="17"/>
-      <c r="C522" s="17"/>
+      <c r="B522" s="19"/>
+      <c r="C522" s="19"/>
     </row>
     <row r="523">
-      <c r="B523" s="17"/>
-      <c r="C523" s="17"/>
+      <c r="B523" s="19"/>
+      <c r="C523" s="19"/>
     </row>
     <row r="524">
-      <c r="B524" s="17"/>
-      <c r="C524" s="17"/>
+      <c r="B524" s="19"/>
+      <c r="C524" s="19"/>
     </row>
     <row r="525">
-      <c r="B525" s="17"/>
-      <c r="C525" s="17"/>
+      <c r="B525" s="19"/>
+      <c r="C525" s="19"/>
     </row>
     <row r="526">
-      <c r="B526" s="17"/>
-      <c r="C526" s="17"/>
+      <c r="B526" s="19"/>
+      <c r="C526" s="19"/>
     </row>
     <row r="527">
-      <c r="B527" s="17"/>
-      <c r="C527" s="17"/>
+      <c r="B527" s="19"/>
+      <c r="C527" s="19"/>
     </row>
     <row r="528">
-      <c r="B528" s="17"/>
-      <c r="C528" s="17"/>
+      <c r="B528" s="19"/>
+      <c r="C528" s="19"/>
     </row>
     <row r="529">
-      <c r="B529" s="17"/>
-      <c r="C529" s="17"/>
+      <c r="B529" s="19"/>
+      <c r="C529" s="19"/>
     </row>
     <row r="530">
-      <c r="B530" s="17"/>
-      <c r="C530" s="17"/>
+      <c r="B530" s="19"/>
+      <c r="C530" s="19"/>
     </row>
     <row r="531">
-      <c r="B531" s="17"/>
-      <c r="C531" s="17"/>
+      <c r="B531" s="19"/>
+      <c r="C531" s="19"/>
     </row>
     <row r="532">
-      <c r="B532" s="17"/>
-      <c r="C532" s="17"/>
+      <c r="B532" s="19"/>
+      <c r="C532" s="19"/>
     </row>
     <row r="533">
-      <c r="B533" s="17"/>
-      <c r="C533" s="17"/>
+      <c r="B533" s="19"/>
+      <c r="C533" s="19"/>
     </row>
     <row r="534">
-      <c r="B534" s="17"/>
-      <c r="C534" s="17"/>
+      <c r="B534" s="19"/>
+      <c r="C534" s="19"/>
     </row>
     <row r="535">
-      <c r="B535" s="17"/>
-      <c r="C535" s="17"/>
+      <c r="B535" s="19"/>
+      <c r="C535" s="19"/>
     </row>
     <row r="536">
-      <c r="B536" s="17"/>
-      <c r="C536" s="17"/>
+      <c r="B536" s="19"/>
+      <c r="C536" s="19"/>
     </row>
     <row r="537">
-      <c r="B537" s="17"/>
-      <c r="C537" s="17"/>
+      <c r="B537" s="19"/>
+      <c r="C537" s="19"/>
     </row>
     <row r="538">
-      <c r="B538" s="17"/>
-      <c r="C538" s="17"/>
+      <c r="B538" s="19"/>
+      <c r="C538" s="19"/>
     </row>
     <row r="539">
-      <c r="B539" s="17"/>
-      <c r="C539" s="17"/>
+      <c r="B539" s="19"/>
+      <c r="C539" s="19"/>
     </row>
     <row r="540">
-      <c r="B540" s="17"/>
-      <c r="C540" s="17"/>
+      <c r="B540" s="19"/>
+      <c r="C540" s="19"/>
     </row>
     <row r="541">
-      <c r="B541" s="17"/>
-      <c r="C541" s="17"/>
+      <c r="B541" s="19"/>
+      <c r="C541" s="19"/>
     </row>
     <row r="542">
-      <c r="B542" s="17"/>
-      <c r="C542" s="17"/>
+      <c r="B542" s="19"/>
+      <c r="C542" s="19"/>
     </row>
     <row r="543">
-      <c r="B543" s="17"/>
-      <c r="C543" s="17"/>
+      <c r="B543" s="19"/>
+      <c r="C543" s="19"/>
     </row>
     <row r="544">
-      <c r="B544" s="17"/>
-      <c r="C544" s="17"/>
+      <c r="B544" s="19"/>
+      <c r="C544" s="19"/>
     </row>
     <row r="545">
-      <c r="B545" s="17"/>
-      <c r="C545" s="17"/>
+      <c r="B545" s="19"/>
+      <c r="C545" s="19"/>
     </row>
     <row r="546">
-      <c r="B546" s="17"/>
-      <c r="C546" s="17"/>
+      <c r="B546" s="19"/>
+      <c r="C546" s="19"/>
     </row>
     <row r="547">
-      <c r="B547" s="17"/>
-      <c r="C547" s="17"/>
+      <c r="B547" s="19"/>
+      <c r="C547" s="19"/>
     </row>
     <row r="548">
-      <c r="B548" s="17"/>
-      <c r="C548" s="17"/>
+      <c r="B548" s="19"/>
+      <c r="C548" s="19"/>
     </row>
     <row r="549">
-      <c r="B549" s="17"/>
-      <c r="C549" s="17"/>
+      <c r="B549" s="19"/>
+      <c r="C549" s="19"/>
     </row>
     <row r="550">
-      <c r="B550" s="17"/>
-      <c r="C550" s="17"/>
+      <c r="B550" s="19"/>
+      <c r="C550" s="19"/>
     </row>
     <row r="551">
-      <c r="B551" s="17"/>
-      <c r="C551" s="17"/>
+      <c r="B551" s="19"/>
+      <c r="C551" s="19"/>
     </row>
     <row r="552">
-      <c r="B552" s="17"/>
-      <c r="C552" s="17"/>
+      <c r="B552" s="19"/>
+      <c r="C552" s="19"/>
     </row>
     <row r="553">
-      <c r="B553" s="17"/>
-      <c r="C553" s="17"/>
+      <c r="B553" s="19"/>
+      <c r="C553" s="19"/>
     </row>
     <row r="554">
-      <c r="B554" s="17"/>
-      <c r="C554" s="17"/>
+      <c r="B554" s="19"/>
+      <c r="C554" s="19"/>
     </row>
     <row r="555">
-      <c r="B555" s="17"/>
-      <c r="C555" s="17"/>
+      <c r="B555" s="19"/>
+      <c r="C555" s="19"/>
     </row>
     <row r="556">
-      <c r="B556" s="17"/>
-      <c r="C556" s="17"/>
+      <c r="B556" s="19"/>
+      <c r="C556" s="19"/>
     </row>
     <row r="557">
-      <c r="B557" s="17"/>
-      <c r="C557" s="17"/>
+      <c r="B557" s="19"/>
+      <c r="C557" s="19"/>
     </row>
     <row r="558">
-      <c r="B558" s="17"/>
-      <c r="C558" s="17"/>
+      <c r="B558" s="19"/>
+      <c r="C558" s="19"/>
     </row>
     <row r="559">
-      <c r="B559" s="17"/>
-      <c r="C559" s="17"/>
+      <c r="B559" s="19"/>
+      <c r="C559" s="19"/>
     </row>
     <row r="560">
-      <c r="B560" s="17"/>
-      <c r="C560" s="17"/>
+      <c r="B560" s="19"/>
+      <c r="C560" s="19"/>
     </row>
     <row r="561">
-      <c r="B561" s="17"/>
-      <c r="C561" s="17"/>
+      <c r="B561" s="19"/>
+      <c r="C561" s="19"/>
     </row>
     <row r="562">
-      <c r="B562" s="17"/>
-      <c r="C562" s="17"/>
+      <c r="B562" s="19"/>
+      <c r="C562" s="19"/>
     </row>
     <row r="563">
-      <c r="B563" s="17"/>
-      <c r="C563" s="17"/>
+      <c r="B563" s="19"/>
+      <c r="C563" s="19"/>
     </row>
     <row r="564">
-      <c r="B564" s="17"/>
-      <c r="C564" s="17"/>
+      <c r="B564" s="19"/>
+      <c r="C564" s="19"/>
     </row>
     <row r="565">
-      <c r="B565" s="17"/>
-      <c r="C565" s="17"/>
+      <c r="B565" s="19"/>
+      <c r="C565" s="19"/>
     </row>
     <row r="566">
-      <c r="B566" s="17"/>
-      <c r="C566" s="17"/>
+      <c r="B566" s="19"/>
+      <c r="C566" s="19"/>
     </row>
     <row r="567">
-      <c r="B567" s="17"/>
-      <c r="C567" s="17"/>
+      <c r="B567" s="19"/>
+      <c r="C567" s="19"/>
     </row>
     <row r="568">
-      <c r="B568" s="17"/>
-      <c r="C568" s="17"/>
+      <c r="B568" s="19"/>
+      <c r="C568" s="19"/>
     </row>
     <row r="569">
-      <c r="B569" s="17"/>
-      <c r="C569" s="17"/>
+      <c r="B569" s="19"/>
+      <c r="C569" s="19"/>
     </row>
     <row r="570">
-      <c r="B570" s="17"/>
-      <c r="C570" s="17"/>
+      <c r="B570" s="19"/>
+      <c r="C570" s="19"/>
     </row>
     <row r="571">
-      <c r="B571" s="17"/>
-      <c r="C571" s="17"/>
+      <c r="B571" s="19"/>
+      <c r="C571" s="19"/>
     </row>
     <row r="572">
-      <c r="B572" s="17"/>
-      <c r="C572" s="17"/>
+      <c r="B572" s="19"/>
+      <c r="C572" s="19"/>
     </row>
     <row r="573">
-      <c r="B573" s="17"/>
-      <c r="C573" s="17"/>
+      <c r="B573" s="19"/>
+      <c r="C573" s="19"/>
     </row>
     <row r="574">
-      <c r="B574" s="17"/>
-      <c r="C574" s="17"/>
+      <c r="B574" s="19"/>
+      <c r="C574" s="19"/>
     </row>
     <row r="575">
-      <c r="B575" s="17"/>
-      <c r="C575" s="17"/>
+      <c r="B575" s="19"/>
+      <c r="C575" s="19"/>
     </row>
     <row r="576">
-      <c r="B576" s="17"/>
-      <c r="C576" s="17"/>
+      <c r="B576" s="19"/>
+      <c r="C576" s="19"/>
     </row>
     <row r="577">
-      <c r="B577" s="17"/>
-      <c r="C577" s="17"/>
+      <c r="B577" s="19"/>
+      <c r="C577" s="19"/>
     </row>
     <row r="578">
-      <c r="B578" s="17"/>
-      <c r="C578" s="17"/>
+      <c r="B578" s="19"/>
+      <c r="C578" s="19"/>
     </row>
     <row r="579">
-      <c r="B579" s="17"/>
-      <c r="C579" s="17"/>
+      <c r="B579" s="19"/>
+      <c r="C579" s="19"/>
     </row>
     <row r="580">
-      <c r="B580" s="17"/>
-      <c r="C580" s="17"/>
+      <c r="B580" s="19"/>
+      <c r="C580" s="19"/>
     </row>
     <row r="581">
-      <c r="B581" s="17"/>
-      <c r="C581" s="17"/>
+      <c r="B581" s="19"/>
+      <c r="C581" s="19"/>
     </row>
     <row r="582">
-      <c r="B582" s="17"/>
-      <c r="C582" s="17"/>
+      <c r="B582" s="19"/>
+      <c r="C582" s="19"/>
     </row>
     <row r="583">
-      <c r="B583" s="17"/>
-      <c r="C583" s="17"/>
+      <c r="B583" s="19"/>
+      <c r="C583" s="19"/>
     </row>
     <row r="584">
-      <c r="B584" s="17"/>
-      <c r="C584" s="17"/>
+      <c r="B584" s="19"/>
+      <c r="C584" s="19"/>
     </row>
     <row r="585">
-      <c r="B585" s="17"/>
-      <c r="C585" s="17"/>
+      <c r="B585" s="19"/>
+      <c r="C585" s="19"/>
     </row>
     <row r="586">
-      <c r="B586" s="17"/>
-      <c r="C586" s="17"/>
+      <c r="B586" s="19"/>
+      <c r="C586" s="19"/>
     </row>
     <row r="587">
-      <c r="B587" s="17"/>
-      <c r="C587" s="17"/>
+      <c r="B587" s="19"/>
+      <c r="C587" s="19"/>
     </row>
     <row r="588">
-      <c r="B588" s="17"/>
-      <c r="C588" s="17"/>
+      <c r="B588" s="19"/>
+      <c r="C588" s="19"/>
     </row>
     <row r="589">
-      <c r="B589" s="17"/>
-      <c r="C589" s="17"/>
+      <c r="B589" s="19"/>
+      <c r="C589" s="19"/>
     </row>
     <row r="590">
-      <c r="B590" s="17"/>
-      <c r="C590" s="17"/>
+      <c r="B590" s="19"/>
+      <c r="C590" s="19"/>
     </row>
     <row r="591">
-      <c r="B591" s="17"/>
-      <c r="C591" s="17"/>
+      <c r="B591" s="19"/>
+      <c r="C591" s="19"/>
     </row>
     <row r="592">
-      <c r="B592" s="17"/>
-      <c r="C592" s="17"/>
+      <c r="B592" s="19"/>
+      <c r="C592" s="19"/>
     </row>
     <row r="593">
-      <c r="B593" s="17"/>
-      <c r="C593" s="17"/>
+      <c r="B593" s="19"/>
+      <c r="C593" s="19"/>
     </row>
     <row r="594">
-      <c r="B594" s="17"/>
-      <c r="C594" s="17"/>
+      <c r="B594" s="19"/>
+      <c r="C594" s="19"/>
     </row>
     <row r="595">
-      <c r="B595" s="17"/>
-      <c r="C595" s="17"/>
+      <c r="B595" s="19"/>
+      <c r="C595" s="19"/>
     </row>
     <row r="596">
-      <c r="B596" s="17"/>
-      <c r="C596" s="17"/>
+      <c r="B596" s="19"/>
+      <c r="C596" s="19"/>
     </row>
     <row r="597">
-      <c r="B597" s="17"/>
-      <c r="C597" s="17"/>
+      <c r="B597" s="19"/>
+      <c r="C597" s="19"/>
     </row>
     <row r="598">
-      <c r="B598" s="17"/>
-      <c r="C598" s="17"/>
+      <c r="B598" s="19"/>
+      <c r="C598" s="19"/>
     </row>
     <row r="599">
-      <c r="B599" s="17"/>
-      <c r="C599" s="17"/>
+      <c r="B599" s="19"/>
+      <c r="C599" s="19"/>
     </row>
     <row r="600">
-      <c r="B600" s="17"/>
-      <c r="C600" s="17"/>
+      <c r="B600" s="19"/>
+      <c r="C600" s="19"/>
     </row>
     <row r="601">
-      <c r="B601" s="17"/>
-      <c r="C601" s="17"/>
+      <c r="B601" s="19"/>
+      <c r="C601" s="19"/>
     </row>
     <row r="602">
-      <c r="B602" s="17"/>
-      <c r="C602" s="17"/>
+      <c r="B602" s="19"/>
+      <c r="C602" s="19"/>
     </row>
     <row r="603">
-      <c r="B603" s="17"/>
-      <c r="C603" s="17"/>
+      <c r="B603" s="19"/>
+      <c r="C603" s="19"/>
     </row>
     <row r="604">
-      <c r="B604" s="17"/>
-      <c r="C604" s="17"/>
+      <c r="B604" s="19"/>
+      <c r="C604" s="19"/>
     </row>
     <row r="605">
-      <c r="B605" s="17"/>
-      <c r="C605" s="17"/>
+      <c r="B605" s="19"/>
+      <c r="C605" s="19"/>
     </row>
     <row r="606">
-      <c r="B606" s="17"/>
-      <c r="C606" s="17"/>
+      <c r="B606" s="19"/>
+      <c r="C606" s="19"/>
     </row>
     <row r="607">
-      <c r="B607" s="17"/>
-      <c r="C607" s="17"/>
+      <c r="B607" s="19"/>
+      <c r="C607" s="19"/>
     </row>
     <row r="608">
-      <c r="B608" s="17"/>
-      <c r="C608" s="17"/>
+      <c r="B608" s="19"/>
+      <c r="C608" s="19"/>
     </row>
     <row r="609">
-      <c r="B609" s="17"/>
-      <c r="C609" s="17"/>
+      <c r="B609" s="19"/>
+      <c r="C609" s="19"/>
     </row>
     <row r="610">
-      <c r="B610" s="17"/>
-      <c r="C610" s="17"/>
+      <c r="B610" s="19"/>
+      <c r="C610" s="19"/>
     </row>
     <row r="611">
-      <c r="B611" s="17"/>
-      <c r="C611" s="17"/>
+      <c r="B611" s="19"/>
+      <c r="C611" s="19"/>
     </row>
     <row r="612">
-      <c r="B612" s="17"/>
-      <c r="C612" s="17"/>
+      <c r="B612" s="19"/>
+      <c r="C612" s="19"/>
     </row>
     <row r="613">
-      <c r="B613" s="17"/>
-      <c r="C613" s="17"/>
+      <c r="B613" s="19"/>
+      <c r="C613" s="19"/>
     </row>
     <row r="614">
-      <c r="B614" s="17"/>
-      <c r="C614" s="17"/>
+      <c r="B614" s="19"/>
+      <c r="C614" s="19"/>
     </row>
     <row r="615">
-      <c r="B615" s="17"/>
-      <c r="C615" s="17"/>
+      <c r="B615" s="19"/>
+      <c r="C615" s="19"/>
     </row>
     <row r="616">
-      <c r="B616" s="17"/>
-      <c r="C616" s="17"/>
+      <c r="B616" s="19"/>
+      <c r="C616" s="19"/>
     </row>
     <row r="617">
-      <c r="B617" s="17"/>
-      <c r="C617" s="17"/>
+      <c r="B617" s="19"/>
+      <c r="C617" s="19"/>
     </row>
     <row r="618">
-      <c r="B618" s="17"/>
-      <c r="C618" s="17"/>
+      <c r="B618" s="19"/>
+      <c r="C618" s="19"/>
     </row>
     <row r="619">
-      <c r="B619" s="17"/>
-      <c r="C619" s="17"/>
+      <c r="B619" s="19"/>
+      <c r="C619" s="19"/>
     </row>
     <row r="620">
-      <c r="B620" s="17"/>
-      <c r="C620" s="17"/>
+      <c r="B620" s="19"/>
+      <c r="C620" s="19"/>
     </row>
     <row r="621">
-      <c r="B621" s="17"/>
-      <c r="C621" s="17"/>
+      <c r="B621" s="19"/>
+      <c r="C621" s="19"/>
     </row>
     <row r="622">
-      <c r="B622" s="17"/>
-      <c r="C622" s="17"/>
+      <c r="B622" s="19"/>
+      <c r="C622" s="19"/>
     </row>
     <row r="623">
-      <c r="B623" s="17"/>
-      <c r="C623" s="17"/>
+      <c r="B623" s="19"/>
+      <c r="C623" s="19"/>
     </row>
     <row r="624">
-      <c r="B624" s="17"/>
-      <c r="C624" s="17"/>
+      <c r="B624" s="19"/>
+      <c r="C624" s="19"/>
     </row>
     <row r="625">
-      <c r="B625" s="17"/>
-      <c r="C625" s="17"/>
+      <c r="B625" s="19"/>
+      <c r="C625" s="19"/>
     </row>
     <row r="626">
-      <c r="B626" s="17"/>
-      <c r="C626" s="17"/>
+      <c r="B626" s="19"/>
+      <c r="C626" s="19"/>
     </row>
     <row r="627">
-      <c r="B627" s="17"/>
-      <c r="C627" s="17"/>
+      <c r="B627" s="19"/>
+      <c r="C627" s="19"/>
     </row>
     <row r="628">
-      <c r="B628" s="17"/>
-      <c r="C628" s="17"/>
+      <c r="B628" s="19"/>
+      <c r="C628" s="19"/>
     </row>
     <row r="629">
-      <c r="B629" s="17"/>
-      <c r="C629" s="17"/>
+      <c r="B629" s="19"/>
+      <c r="C629" s="19"/>
     </row>
     <row r="630">
-      <c r="B630" s="17"/>
-      <c r="C630" s="17"/>
+      <c r="B630" s="19"/>
+      <c r="C630" s="19"/>
     </row>
     <row r="631">
-      <c r="B631" s="17"/>
-      <c r="C631" s="17"/>
+      <c r="B631" s="19"/>
+      <c r="C631" s="19"/>
     </row>
     <row r="632">
-      <c r="B632" s="17"/>
-      <c r="C632" s="17"/>
+      <c r="B632" s="19"/>
+      <c r="C632" s="19"/>
     </row>
     <row r="633">
-      <c r="B633" s="17"/>
-      <c r="C633" s="17"/>
+      <c r="B633" s="19"/>
+      <c r="C633" s="19"/>
     </row>
     <row r="634">
-      <c r="B634" s="17"/>
-      <c r="C634" s="17"/>
+      <c r="B634" s="19"/>
+      <c r="C634" s="19"/>
     </row>
     <row r="635">
-      <c r="B635" s="17"/>
-      <c r="C635" s="17"/>
+      <c r="B635" s="19"/>
+      <c r="C635" s="19"/>
     </row>
     <row r="636">
-      <c r="B636" s="17"/>
-      <c r="C636" s="17"/>
+      <c r="B636" s="19"/>
+      <c r="C636" s="19"/>
     </row>
     <row r="637">
-      <c r="B637" s="17"/>
-      <c r="C637" s="17"/>
+      <c r="B637" s="19"/>
+      <c r="C637" s="19"/>
     </row>
     <row r="638">
-      <c r="B638" s="17"/>
-      <c r="C638" s="17"/>
+      <c r="B638" s="19"/>
+      <c r="C638" s="19"/>
     </row>
     <row r="639">
-      <c r="B639" s="17"/>
-      <c r="C639" s="17"/>
+      <c r="B639" s="19"/>
+      <c r="C639" s="19"/>
     </row>
     <row r="640">
-      <c r="B640" s="17"/>
-      <c r="C640" s="17"/>
+      <c r="B640" s="19"/>
+      <c r="C640" s="19"/>
     </row>
     <row r="641">
-      <c r="B641" s="17"/>
-      <c r="C641" s="17"/>
+      <c r="B641" s="19"/>
+      <c r="C641" s="19"/>
     </row>
     <row r="642">
-      <c r="B642" s="17"/>
-      <c r="C642" s="17"/>
+      <c r="B642" s="19"/>
+      <c r="C642" s="19"/>
     </row>
     <row r="643">
-      <c r="B643" s="17"/>
-      <c r="C643" s="17"/>
+      <c r="B643" s="19"/>
+      <c r="C643" s="19"/>
     </row>
     <row r="644">
-      <c r="B644" s="17"/>
-      <c r="C644" s="17"/>
+      <c r="B644" s="19"/>
+      <c r="C644" s="19"/>
     </row>
     <row r="645">
-      <c r="B645" s="17"/>
-      <c r="C645" s="17"/>
+      <c r="B645" s="19"/>
+      <c r="C645" s="19"/>
     </row>
     <row r="646">
-      <c r="B646" s="17"/>
-      <c r="C646" s="17"/>
+      <c r="B646" s="19"/>
+      <c r="C646" s="19"/>
     </row>
     <row r="647">
-      <c r="B647" s="17"/>
-      <c r="C647" s="17"/>
+      <c r="B647" s="19"/>
+      <c r="C647" s="19"/>
     </row>
     <row r="648">
-      <c r="B648" s="17"/>
-      <c r="C648" s="17"/>
+      <c r="B648" s="19"/>
+      <c r="C648" s="19"/>
     </row>
     <row r="649">
-      <c r="B649" s="17"/>
-      <c r="C649" s="17"/>
+      <c r="B649" s="19"/>
+      <c r="C649" s="19"/>
     </row>
     <row r="650">
-      <c r="B650" s="17"/>
-      <c r="C650" s="17"/>
+      <c r="B650" s="19"/>
+      <c r="C650" s="19"/>
     </row>
     <row r="651">
-      <c r="B651" s="17"/>
-      <c r="C651" s="17"/>
+      <c r="B651" s="19"/>
+      <c r="C651" s="19"/>
     </row>
     <row r="652">
-      <c r="B652" s="17"/>
-      <c r="C652" s="17"/>
+      <c r="B652" s="19"/>
+      <c r="C652" s="19"/>
     </row>
     <row r="653">
-      <c r="B653" s="17"/>
-      <c r="C653" s="17"/>
+      <c r="B653" s="19"/>
+      <c r="C653" s="19"/>
     </row>
     <row r="654">
-      <c r="B654" s="17"/>
-      <c r="C654" s="17"/>
+      <c r="B654" s="19"/>
+      <c r="C654" s="19"/>
     </row>
     <row r="655">
-      <c r="B655" s="17"/>
-      <c r="C655" s="17"/>
+      <c r="B655" s="19"/>
+      <c r="C655" s="19"/>
     </row>
     <row r="656">
-      <c r="B656" s="17"/>
-      <c r="C656" s="17"/>
+      <c r="B656" s="19"/>
+      <c r="C656" s="19"/>
     </row>
     <row r="657">
-      <c r="B657" s="17"/>
-      <c r="C657" s="17"/>
+      <c r="B657" s="19"/>
+      <c r="C657" s="19"/>
     </row>
     <row r="658">
-      <c r="B658" s="17"/>
-      <c r="C658" s="17"/>
+      <c r="B658" s="19"/>
+      <c r="C658" s="19"/>
     </row>
     <row r="659">
-      <c r="B659" s="17"/>
-      <c r="C659" s="17"/>
+      <c r="B659" s="19"/>
+      <c r="C659" s="19"/>
     </row>
     <row r="660">
-      <c r="B660" s="17"/>
-      <c r="C660" s="17"/>
+      <c r="B660" s="19"/>
+      <c r="C660" s="19"/>
     </row>
     <row r="661">
-      <c r="B661" s="17"/>
-      <c r="C661" s="17"/>
+      <c r="B661" s="19"/>
+      <c r="C661" s="19"/>
     </row>
     <row r="662">
-      <c r="B662" s="17"/>
-      <c r="C662" s="17"/>
+      <c r="B662" s="19"/>
+      <c r="C662" s="19"/>
     </row>
     <row r="663">
-      <c r="B663" s="17"/>
-      <c r="C663" s="17"/>
+      <c r="B663" s="19"/>
+      <c r="C663" s="19"/>
     </row>
     <row r="664">
-      <c r="B664" s="17"/>
-      <c r="C664" s="17"/>
+      <c r="B664" s="19"/>
+      <c r="C664" s="19"/>
     </row>
     <row r="665">
-      <c r="B665" s="17"/>
-      <c r="C665" s="17"/>
+      <c r="B665" s="19"/>
+      <c r="C665" s="19"/>
     </row>
     <row r="666">
-      <c r="B666" s="17"/>
-      <c r="C666" s="17"/>
+      <c r="B666" s="19"/>
+      <c r="C666" s="19"/>
     </row>
     <row r="667">
-      <c r="B667" s="17"/>
-      <c r="C667" s="17"/>
+      <c r="B667" s="19"/>
+      <c r="C667" s="19"/>
     </row>
     <row r="668">
-      <c r="B668" s="17"/>
-      <c r="C668" s="17"/>
+      <c r="B668" s="19"/>
+      <c r="C668" s="19"/>
     </row>
     <row r="669">
-      <c r="B669" s="17"/>
-      <c r="C669" s="17"/>
+      <c r="B669" s="19"/>
+      <c r="C669" s="19"/>
     </row>
     <row r="670">
-      <c r="B670" s="17"/>
-      <c r="C670" s="17"/>
+      <c r="B670" s="19"/>
+      <c r="C670" s="19"/>
     </row>
     <row r="671">
-      <c r="B671" s="17"/>
-      <c r="C671" s="17"/>
+      <c r="B671" s="19"/>
+      <c r="C671" s="19"/>
     </row>
     <row r="672">
-      <c r="B672" s="17"/>
-      <c r="C672" s="17"/>
+      <c r="B672" s="19"/>
+      <c r="C672" s="19"/>
     </row>
     <row r="673">
-      <c r="B673" s="17"/>
-      <c r="C673" s="17"/>
+      <c r="B673" s="19"/>
+      <c r="C673" s="19"/>
     </row>
     <row r="674">
-      <c r="B674" s="17"/>
-      <c r="C674" s="17"/>
+      <c r="B674" s="19"/>
+      <c r="C674" s="19"/>
     </row>
     <row r="675">
-      <c r="B675" s="17"/>
-      <c r="C675" s="17"/>
+      <c r="B675" s="19"/>
+      <c r="C675" s="19"/>
     </row>
     <row r="676">
-      <c r="B676" s="17"/>
-      <c r="C676" s="17"/>
+      <c r="B676" s="19"/>
+      <c r="C676" s="19"/>
     </row>
     <row r="677">
-      <c r="B677" s="17"/>
-      <c r="C677" s="17"/>
+      <c r="B677" s="19"/>
+      <c r="C677" s="19"/>
     </row>
     <row r="678">
-      <c r="B678" s="17"/>
-      <c r="C678" s="17"/>
+      <c r="B678" s="19"/>
+      <c r="C678" s="19"/>
     </row>
     <row r="679">
-      <c r="B679" s="17"/>
-      <c r="C679" s="17"/>
+      <c r="B679" s="19"/>
+      <c r="C679" s="19"/>
     </row>
     <row r="680">
-      <c r="B680" s="17"/>
-      <c r="C680" s="17"/>
+      <c r="B680" s="19"/>
+      <c r="C680" s="19"/>
     </row>
     <row r="681">
-      <c r="B681" s="17"/>
-      <c r="C681" s="17"/>
+      <c r="B681" s="19"/>
+      <c r="C681" s="19"/>
     </row>
     <row r="682">
-      <c r="B682" s="17"/>
-      <c r="C682" s="17"/>
+      <c r="B682" s="19"/>
+      <c r="C682" s="19"/>
     </row>
     <row r="683">
-      <c r="B683" s="17"/>
-      <c r="C683" s="17"/>
+      <c r="B683" s="19"/>
+      <c r="C683" s="19"/>
     </row>
     <row r="684">
-      <c r="B684" s="17"/>
-      <c r="C684" s="17"/>
+      <c r="B684" s="19"/>
+      <c r="C684" s="19"/>
     </row>
     <row r="685">
-      <c r="B685" s="17"/>
-      <c r="C685" s="17"/>
+      <c r="B685" s="19"/>
+      <c r="C685" s="19"/>
     </row>
     <row r="686">
-      <c r="B686" s="17"/>
-      <c r="C686" s="17"/>
+      <c r="B686" s="19"/>
+      <c r="C686" s="19"/>
     </row>
     <row r="687">
-      <c r="B687" s="17"/>
-      <c r="C687" s="17"/>
+      <c r="B687" s="19"/>
+      <c r="C687" s="19"/>
     </row>
     <row r="688">
-      <c r="B688" s="17"/>
-      <c r="C688" s="17"/>
+      <c r="B688" s="19"/>
+      <c r="C688" s="19"/>
     </row>
     <row r="689">
-      <c r="B689" s="17"/>
-      <c r="C689" s="17"/>
+      <c r="B689" s="19"/>
+      <c r="C689" s="19"/>
     </row>
     <row r="690">
-      <c r="B690" s="17"/>
-      <c r="C690" s="17"/>
+      <c r="B690" s="19"/>
+      <c r="C690" s="19"/>
     </row>
     <row r="691">
-      <c r="B691" s="17"/>
-      <c r="C691" s="17"/>
+      <c r="B691" s="19"/>
+      <c r="C691" s="19"/>
     </row>
     <row r="692">
-      <c r="B692" s="17"/>
-      <c r="C692" s="17"/>
+      <c r="B692" s="19"/>
+      <c r="C692" s="19"/>
     </row>
     <row r="693">
-      <c r="B693" s="17"/>
-      <c r="C693" s="17"/>
+      <c r="B693" s="19"/>
+      <c r="C693" s="19"/>
     </row>
     <row r="694">
-      <c r="B694" s="17"/>
-      <c r="C694" s="17"/>
+      <c r="B694" s="19"/>
+      <c r="C694" s="19"/>
     </row>
     <row r="695">
-      <c r="B695" s="17"/>
-      <c r="C695" s="17"/>
+      <c r="B695" s="19"/>
+      <c r="C695" s="19"/>
     </row>
     <row r="696">
-      <c r="B696" s="17"/>
-      <c r="C696" s="17"/>
+      <c r="B696" s="19"/>
+      <c r="C696" s="19"/>
     </row>
     <row r="697">
-      <c r="B697" s="17"/>
-      <c r="C697" s="17"/>
+      <c r="B697" s="19"/>
+      <c r="C697" s="19"/>
     </row>
     <row r="698">
-      <c r="B698" s="17"/>
-      <c r="C698" s="17"/>
+      <c r="B698" s="19"/>
+      <c r="C698" s="19"/>
     </row>
     <row r="699">
-      <c r="B699" s="17"/>
-      <c r="C699" s="17"/>
+      <c r="B699" s="19"/>
+      <c r="C699" s="19"/>
     </row>
     <row r="700">
-      <c r="B700" s="17"/>
-      <c r="C700" s="17"/>
+      <c r="B700" s="19"/>
+      <c r="C700" s="19"/>
     </row>
     <row r="701">
-      <c r="B701" s="17"/>
-      <c r="C701" s="17"/>
+      <c r="B701" s="19"/>
+      <c r="C701" s="19"/>
     </row>
     <row r="702">
-      <c r="B702" s="17"/>
-      <c r="C702" s="17"/>
+      <c r="B702" s="19"/>
+      <c r="C702" s="19"/>
     </row>
     <row r="703">
-      <c r="B703" s="17"/>
-      <c r="C703" s="17"/>
+      <c r="B703" s="19"/>
+      <c r="C703" s="19"/>
     </row>
     <row r="704">
-      <c r="B704" s="17"/>
-      <c r="C704" s="17"/>
+      <c r="B704" s="19"/>
+      <c r="C704" s="19"/>
     </row>
     <row r="705">
-      <c r="B705" s="17"/>
-      <c r="C705" s="17"/>
+      <c r="B705" s="19"/>
+      <c r="C705" s="19"/>
     </row>
     <row r="706">
-      <c r="B706" s="17"/>
-      <c r="C706" s="17"/>
+      <c r="B706" s="19"/>
+      <c r="C706" s="19"/>
     </row>
     <row r="707">
-      <c r="B707" s="17"/>
-      <c r="C707" s="17"/>
+      <c r="B707" s="19"/>
+      <c r="C707" s="19"/>
     </row>
     <row r="708">
-      <c r="B708" s="17"/>
-      <c r="C708" s="17"/>
+      <c r="B708" s="19"/>
+      <c r="C708" s="19"/>
     </row>
     <row r="709">
-      <c r="B709" s="17"/>
-      <c r="C709" s="17"/>
+      <c r="B709" s="19"/>
+      <c r="C709" s="19"/>
     </row>
     <row r="710">
-      <c r="B710" s="17"/>
-      <c r="C710" s="17"/>
+      <c r="B710" s="19"/>
+      <c r="C710" s="19"/>
     </row>
     <row r="711">
-      <c r="B711" s="17"/>
-      <c r="C711" s="17"/>
+      <c r="B711" s="19"/>
+      <c r="C711" s="19"/>
     </row>
     <row r="712">
-      <c r="B712" s="17"/>
-      <c r="C712" s="17"/>
+      <c r="B712" s="19"/>
+      <c r="C712" s="19"/>
     </row>
     <row r="713">
-      <c r="B713" s="17"/>
-      <c r="C713" s="17"/>
+      <c r="B713" s="19"/>
+      <c r="C713" s="19"/>
     </row>
     <row r="714">
-      <c r="B714" s="17"/>
-      <c r="C714" s="17"/>
+      <c r="B714" s="19"/>
+      <c r="C714" s="19"/>
     </row>
     <row r="715">
-      <c r="B715" s="17"/>
-      <c r="C715" s="17"/>
+      <c r="B715" s="19"/>
+      <c r="C715" s="19"/>
     </row>
     <row r="716">
-      <c r="B716" s="17"/>
-      <c r="C716" s="17"/>
+      <c r="B716" s="19"/>
+      <c r="C716" s="19"/>
     </row>
     <row r="717">
-      <c r="B717" s="17"/>
-      <c r="C717" s="17"/>
+      <c r="B717" s="19"/>
+      <c r="C717" s="19"/>
     </row>
     <row r="718">
-      <c r="B718" s="17"/>
-      <c r="C718" s="17"/>
+      <c r="B718" s="19"/>
+      <c r="C718" s="19"/>
     </row>
     <row r="719">
-      <c r="B719" s="17"/>
-      <c r="C719" s="17"/>
+      <c r="B719" s="19"/>
+      <c r="C719" s="19"/>
     </row>
     <row r="720">
-      <c r="B720" s="17"/>
-      <c r="C720" s="17"/>
+      <c r="B720" s="19"/>
+      <c r="C720" s="19"/>
     </row>
     <row r="721">
-      <c r="B721" s="17"/>
-      <c r="C721" s="17"/>
+      <c r="B721" s="19"/>
+      <c r="C721" s="19"/>
     </row>
     <row r="722">
-      <c r="B722" s="17"/>
-      <c r="C722" s="17"/>
+      <c r="B722" s="19"/>
+      <c r="C722" s="19"/>
     </row>
     <row r="723">
-      <c r="B723" s="17"/>
-      <c r="C723" s="17"/>
+      <c r="B723" s="19"/>
+      <c r="C723" s="19"/>
     </row>
     <row r="724">
-      <c r="B724" s="17"/>
-      <c r="C724" s="17"/>
+      <c r="B724" s="19"/>
+      <c r="C724" s="19"/>
     </row>
     <row r="725">
-      <c r="B725" s="17"/>
-      <c r="C725" s="17"/>
+      <c r="B725" s="19"/>
+      <c r="C725" s="19"/>
     </row>
     <row r="726">
-      <c r="B726" s="17"/>
-      <c r="C726" s="17"/>
+      <c r="B726" s="19"/>
+      <c r="C726" s="19"/>
     </row>
     <row r="727">
-      <c r="B727" s="17"/>
-      <c r="C727" s="17"/>
+      <c r="B727" s="19"/>
+      <c r="C727" s="19"/>
     </row>
     <row r="728">
-      <c r="B728" s="17"/>
-      <c r="C728" s="17"/>
+      <c r="B728" s="19"/>
+      <c r="C728" s="19"/>
     </row>
     <row r="729">
-      <c r="B729" s="17"/>
-      <c r="C729" s="17"/>
+      <c r="B729" s="19"/>
+      <c r="C729" s="19"/>
     </row>
     <row r="730">
-      <c r="B730" s="17"/>
-      <c r="C730" s="17"/>
+      <c r="B730" s="19"/>
+      <c r="C730" s="19"/>
     </row>
     <row r="731">
-      <c r="B731" s="17"/>
-      <c r="C731" s="17"/>
+      <c r="B731" s="19"/>
+      <c r="C731" s="19"/>
     </row>
     <row r="732">
-      <c r="B732" s="17"/>
-      <c r="C732" s="17"/>
+      <c r="B732" s="19"/>
+      <c r="C732" s="19"/>
     </row>
     <row r="733">
-      <c r="B733" s="17"/>
-      <c r="C733" s="17"/>
+      <c r="B733" s="19"/>
+      <c r="C733" s="19"/>
     </row>
     <row r="734">
-      <c r="B734" s="17"/>
-      <c r="C734" s="17"/>
+      <c r="B734" s="19"/>
+      <c r="C734" s="19"/>
     </row>
     <row r="735">
-      <c r="B735" s="17"/>
-      <c r="C735" s="17"/>
+      <c r="B735" s="19"/>
+      <c r="C735" s="19"/>
     </row>
     <row r="736">
-      <c r="B736" s="17"/>
-      <c r="C736" s="17"/>
+      <c r="B736" s="19"/>
+      <c r="C736" s="19"/>
     </row>
     <row r="737">
-      <c r="B737" s="17"/>
-      <c r="C737" s="17"/>
+      <c r="B737" s="19"/>
+      <c r="C737" s="19"/>
     </row>
     <row r="738">
-      <c r="B738" s="17"/>
-      <c r="C738" s="17"/>
+      <c r="B738" s="19"/>
+      <c r="C738" s="19"/>
     </row>
     <row r="739">
-      <c r="B739" s="17"/>
-      <c r="C739" s="17"/>
+      <c r="B739" s="19"/>
+      <c r="C739" s="19"/>
     </row>
     <row r="740">
-      <c r="B740" s="17"/>
-      <c r="C740" s="17"/>
+      <c r="B740" s="19"/>
+      <c r="C740" s="19"/>
     </row>
     <row r="741">
-      <c r="B741" s="17"/>
-      <c r="C741" s="17"/>
+      <c r="B741" s="19"/>
+      <c r="C741" s="19"/>
     </row>
     <row r="742">
-      <c r="B742" s="17"/>
-      <c r="C742" s="17"/>
+      <c r="B742" s="19"/>
+      <c r="C742" s="19"/>
     </row>
     <row r="743">
-      <c r="B743" s="17"/>
-      <c r="C743" s="17"/>
+      <c r="B743" s="19"/>
+      <c r="C743" s="19"/>
     </row>
     <row r="744">
-      <c r="B744" s="17"/>
-      <c r="C744" s="17"/>
+      <c r="B744" s="19"/>
+      <c r="C744" s="19"/>
     </row>
     <row r="745">
-      <c r="B745" s="17"/>
-      <c r="C745" s="17"/>
+      <c r="B745" s="19"/>
+      <c r="C745" s="19"/>
     </row>
     <row r="746">
-      <c r="B746" s="17"/>
-      <c r="C746" s="17"/>
+      <c r="B746" s="19"/>
+      <c r="C746" s="19"/>
     </row>
     <row r="747">
-      <c r="B747" s="17"/>
-      <c r="C747" s="17"/>
+      <c r="B747" s="19"/>
+      <c r="C747" s="19"/>
     </row>
     <row r="748">
-      <c r="B748" s="17"/>
-      <c r="C748" s="17"/>
+      <c r="B748" s="19"/>
+      <c r="C748" s="19"/>
     </row>
     <row r="749">
-      <c r="B749" s="17"/>
-      <c r="C749" s="17"/>
+      <c r="B749" s="19"/>
+      <c r="C749" s="19"/>
     </row>
     <row r="750">
-      <c r="B750" s="17"/>
-      <c r="C750" s="17"/>
+      <c r="B750" s="19"/>
+      <c r="C750" s="19"/>
     </row>
     <row r="751">
-      <c r="B751" s="17"/>
-      <c r="C751" s="17"/>
+      <c r="B751" s="19"/>
+      <c r="C751" s="19"/>
     </row>
     <row r="752">
-      <c r="B752" s="17"/>
-      <c r="C752" s="17"/>
+      <c r="B752" s="19"/>
+      <c r="C752" s="19"/>
     </row>
     <row r="753">
-      <c r="B753" s="17"/>
-      <c r="C753" s="17"/>
+      <c r="B753" s="19"/>
+      <c r="C753" s="19"/>
     </row>
     <row r="754">
-      <c r="B754" s="17"/>
-      <c r="C754" s="17"/>
+      <c r="B754" s="19"/>
+      <c r="C754" s="19"/>
     </row>
     <row r="755">
-      <c r="B755" s="17"/>
-      <c r="C755" s="17"/>
+      <c r="B755" s="19"/>
+      <c r="C755" s="19"/>
     </row>
     <row r="756">
-      <c r="B756" s="17"/>
-      <c r="C756" s="17"/>
+      <c r="B756" s="19"/>
+      <c r="C756" s="19"/>
     </row>
     <row r="757">
-      <c r="B757" s="17"/>
-      <c r="C757" s="17"/>
+      <c r="B757" s="19"/>
+      <c r="C757" s="19"/>
     </row>
     <row r="758">
-      <c r="B758" s="17"/>
-      <c r="C758" s="17"/>
+      <c r="B758" s="19"/>
+      <c r="C758" s="19"/>
     </row>
     <row r="759">
-      <c r="B759" s="17"/>
-      <c r="C759" s="17"/>
+      <c r="B759" s="19"/>
+      <c r="C759" s="19"/>
     </row>
     <row r="760">
-      <c r="B760" s="17"/>
-      <c r="C760" s="17"/>
+      <c r="B760" s="19"/>
+      <c r="C760" s="19"/>
     </row>
     <row r="761">
-      <c r="B761" s="17"/>
-      <c r="C761" s="17"/>
+      <c r="B761" s="19"/>
+      <c r="C761" s="19"/>
     </row>
     <row r="762">
-      <c r="B762" s="17"/>
-      <c r="C762" s="17"/>
+      <c r="B762" s="19"/>
+      <c r="C762" s="19"/>
     </row>
     <row r="763">
-      <c r="B763" s="17"/>
-      <c r="C763" s="17"/>
+      <c r="B763" s="19"/>
+      <c r="C763" s="19"/>
     </row>
     <row r="764">
-      <c r="B764" s="17"/>
-      <c r="C764" s="17"/>
+      <c r="B764" s="19"/>
+      <c r="C764" s="19"/>
     </row>
     <row r="765">
-      <c r="B765" s="17"/>
-      <c r="C765" s="17"/>
+      <c r="B765" s="19"/>
+      <c r="C765" s="19"/>
     </row>
     <row r="766">
-      <c r="B766" s="17"/>
-      <c r="C766" s="17"/>
+      <c r="B766" s="19"/>
+      <c r="C766" s="19"/>
     </row>
     <row r="767">
-      <c r="B767" s="17"/>
-      <c r="C767" s="17"/>
+      <c r="B767" s="19"/>
+      <c r="C767" s="19"/>
     </row>
     <row r="768">
-      <c r="B768" s="17"/>
-      <c r="C768" s="17"/>
+      <c r="B768" s="19"/>
+      <c r="C768" s="19"/>
     </row>
     <row r="769">
-      <c r="B769" s="17"/>
-      <c r="C769" s="17"/>
+      <c r="B769" s="19"/>
+      <c r="C769" s="19"/>
     </row>
     <row r="770">
-      <c r="B770" s="17"/>
-      <c r="C770" s="17"/>
+      <c r="B770" s="19"/>
+      <c r="C770" s="19"/>
     </row>
     <row r="771">
-      <c r="B771" s="17"/>
-      <c r="C771" s="17"/>
+      <c r="B771" s="19"/>
+      <c r="C771" s="19"/>
     </row>
     <row r="772">
-      <c r="B772" s="17"/>
-      <c r="C772" s="17"/>
+      <c r="B772" s="19"/>
+      <c r="C772" s="19"/>
     </row>
     <row r="773">
-      <c r="B773" s="17"/>
-      <c r="C773" s="17"/>
+      <c r="B773" s="19"/>
+      <c r="C773" s="19"/>
     </row>
     <row r="774">
-      <c r="B774" s="17"/>
-      <c r="C774" s="17"/>
+      <c r="B774" s="19"/>
+      <c r="C774" s="19"/>
     </row>
     <row r="775">
-      <c r="B775" s="17"/>
-      <c r="C775" s="17"/>
+      <c r="B775" s="19"/>
+      <c r="C775" s="19"/>
     </row>
     <row r="776">
-      <c r="B776" s="17"/>
-      <c r="C776" s="17"/>
+      <c r="B776" s="19"/>
+      <c r="C776" s="19"/>
     </row>
     <row r="777">
-      <c r="B777" s="17"/>
-      <c r="C777" s="17"/>
+      <c r="B777" s="19"/>
+      <c r="C777" s="19"/>
     </row>
     <row r="778">
-      <c r="B778" s="17"/>
-      <c r="C778" s="17"/>
+      <c r="B778" s="19"/>
+      <c r="C778" s="19"/>
     </row>
     <row r="779">
-      <c r="B779" s="17"/>
-      <c r="C779" s="17"/>
+      <c r="B779" s="19"/>
+      <c r="C779" s="19"/>
     </row>
     <row r="780">
-      <c r="B780" s="17"/>
-      <c r="C780" s="17"/>
+      <c r="B780" s="19"/>
+      <c r="C780" s="19"/>
     </row>
     <row r="781">
-      <c r="B781" s="17"/>
-      <c r="C781" s="17"/>
+      <c r="B781" s="19"/>
+      <c r="C781" s="19"/>
     </row>
     <row r="782">
-      <c r="B782" s="17"/>
-      <c r="C782" s="17"/>
+      <c r="B782" s="19"/>
+      <c r="C782" s="19"/>
     </row>
     <row r="783">
-      <c r="B783" s="17"/>
-      <c r="C783" s="17"/>
+      <c r="B783" s="19"/>
+      <c r="C783" s="19"/>
     </row>
     <row r="784">
-      <c r="B784" s="17"/>
-      <c r="C784" s="17"/>
+      <c r="B784" s="19"/>
+      <c r="C784" s="19"/>
     </row>
     <row r="785">
-      <c r="B785" s="17"/>
-      <c r="C785" s="17"/>
+      <c r="B785" s="19"/>
+      <c r="C785" s="19"/>
     </row>
     <row r="786">
-      <c r="B786" s="17"/>
-      <c r="C786" s="17"/>
+      <c r="B786" s="19"/>
+      <c r="C786" s="19"/>
     </row>
     <row r="787">
-      <c r="B787" s="17"/>
-      <c r="C787" s="17"/>
+      <c r="B787" s="19"/>
+      <c r="C787" s="19"/>
     </row>
     <row r="788">
-      <c r="B788" s="17"/>
-      <c r="C788" s="17"/>
+      <c r="B788" s="19"/>
+      <c r="C788" s="19"/>
     </row>
     <row r="789">
-      <c r="B789" s="17"/>
-      <c r="C789" s="17"/>
+      <c r="B789" s="19"/>
+      <c r="C789" s="19"/>
     </row>
     <row r="790">
-      <c r="B790" s="17"/>
-      <c r="C790" s="17"/>
+      <c r="B790" s="19"/>
+      <c r="C790" s="19"/>
     </row>
     <row r="791">
-      <c r="B791" s="17"/>
-      <c r="C791" s="17"/>
+      <c r="B791" s="19"/>
+      <c r="C791" s="19"/>
     </row>
     <row r="792">
-      <c r="B792" s="17"/>
-      <c r="C792" s="17"/>
+      <c r="B792" s="19"/>
+      <c r="C792" s="19"/>
     </row>
     <row r="793">
-      <c r="B793" s="17"/>
-      <c r="C793" s="17"/>
+      <c r="B793" s="19"/>
+      <c r="C793" s="19"/>
     </row>
     <row r="794">
-      <c r="B794" s="17"/>
-      <c r="C794" s="17"/>
+      <c r="B794" s="19"/>
+      <c r="C794" s="19"/>
     </row>
     <row r="795">
-      <c r="B795" s="17"/>
-      <c r="C795" s="17"/>
+      <c r="B795" s="19"/>
+      <c r="C795" s="19"/>
     </row>
     <row r="796">
-      <c r="B796" s="17"/>
-      <c r="C796" s="17"/>
+      <c r="B796" s="19"/>
+      <c r="C796" s="19"/>
     </row>
     <row r="797">
-      <c r="B797" s="17"/>
-      <c r="C797" s="17"/>
+      <c r="B797" s="19"/>
+      <c r="C797" s="19"/>
     </row>
     <row r="798">
-      <c r="B798" s="17"/>
-      <c r="C798" s="17"/>
+      <c r="B798" s="19"/>
+      <c r="C798" s="19"/>
     </row>
     <row r="799">
-      <c r="B799" s="17"/>
-      <c r="C799" s="17"/>
+      <c r="B799" s="19"/>
+      <c r="C799" s="19"/>
     </row>
     <row r="800">
-      <c r="B800" s="17"/>
-      <c r="C800" s="17"/>
+      <c r="B800" s="19"/>
+      <c r="C800" s="19"/>
     </row>
     <row r="801">
-      <c r="B801" s="17"/>
-      <c r="C801" s="17"/>
+      <c r="B801" s="19"/>
+      <c r="C801" s="19"/>
     </row>
     <row r="802">
-      <c r="B802" s="17"/>
-      <c r="C802" s="17"/>
+      <c r="B802" s="19"/>
+      <c r="C802" s="19"/>
     </row>
     <row r="803">
-      <c r="B803" s="17"/>
-      <c r="C803" s="17"/>
+      <c r="B803" s="19"/>
+      <c r="C803" s="19"/>
     </row>
     <row r="804">
-      <c r="B804" s="17"/>
-      <c r="C804" s="17"/>
+      <c r="B804" s="19"/>
+      <c r="C804" s="19"/>
     </row>
     <row r="805">
-      <c r="B805" s="17"/>
-      <c r="C805" s="17"/>
+      <c r="B805" s="19"/>
+      <c r="C805" s="19"/>
     </row>
     <row r="806">
-      <c r="B806" s="17"/>
-      <c r="C806" s="17"/>
+      <c r="B806" s="19"/>
+      <c r="C806" s="19"/>
     </row>
     <row r="807">
-      <c r="B807" s="17"/>
-      <c r="C807" s="17"/>
+      <c r="B807" s="19"/>
+      <c r="C807" s="19"/>
     </row>
     <row r="808">
-      <c r="B808" s="17"/>
-      <c r="C808" s="17"/>
+      <c r="B808" s="19"/>
+      <c r="C808" s="19"/>
     </row>
     <row r="809">
-      <c r="B809" s="17"/>
-      <c r="C809" s="17"/>
+      <c r="B809" s="19"/>
+      <c r="C809" s="19"/>
     </row>
     <row r="810">
-      <c r="B810" s="17"/>
-      <c r="C810" s="17"/>
+      <c r="B810" s="19"/>
+      <c r="C810" s="19"/>
     </row>
     <row r="811">
-      <c r="B811" s="17"/>
-      <c r="C811" s="17"/>
+      <c r="B811" s="19"/>
+      <c r="C811" s="19"/>
     </row>
     <row r="812">
-      <c r="B812" s="17"/>
-      <c r="C812" s="17"/>
+      <c r="B812" s="19"/>
+      <c r="C812" s="19"/>
     </row>
     <row r="813">
-      <c r="B813" s="17"/>
-      <c r="C813" s="17"/>
+      <c r="B813" s="19"/>
+      <c r="C813" s="19"/>
     </row>
     <row r="814">
-      <c r="B814" s="17"/>
-      <c r="C814" s="17"/>
+      <c r="B814" s="19"/>
+      <c r="C814" s="19"/>
     </row>
     <row r="815">
-      <c r="B815" s="17"/>
-      <c r="C815" s="17"/>
+      <c r="B815" s="19"/>
+      <c r="C815" s="19"/>
     </row>
     <row r="816">
-      <c r="B816" s="17"/>
-      <c r="C816" s="17"/>
+      <c r="B816" s="19"/>
+      <c r="C816" s="19"/>
     </row>
     <row r="817">
-      <c r="B817" s="17"/>
-      <c r="C817" s="17"/>
+      <c r="B817" s="19"/>
+      <c r="C817" s="19"/>
     </row>
     <row r="818">
-      <c r="B818" s="17"/>
-      <c r="C818" s="17"/>
+      <c r="B818" s="19"/>
+      <c r="C818" s="19"/>
     </row>
     <row r="819">
-      <c r="B819" s="17"/>
-      <c r="C819" s="17"/>
+      <c r="B819" s="19"/>
+      <c r="C819" s="19"/>
     </row>
     <row r="820">
-      <c r="B820" s="17"/>
-      <c r="C820" s="17"/>
+      <c r="B820" s="19"/>
+      <c r="C820" s="19"/>
     </row>
     <row r="821">
-      <c r="B821" s="17"/>
-      <c r="C821" s="17"/>
+      <c r="B821" s="19"/>
+      <c r="C821" s="19"/>
     </row>
     <row r="822">
-      <c r="B822" s="17"/>
-      <c r="C822" s="17"/>
+      <c r="B822" s="19"/>
+      <c r="C822" s="19"/>
     </row>
     <row r="823">
-      <c r="B823" s="17"/>
-      <c r="C823" s="17"/>
+      <c r="B823" s="19"/>
+      <c r="C823" s="19"/>
     </row>
     <row r="824">
-      <c r="B824" s="17"/>
-      <c r="C824" s="17"/>
+      <c r="B824" s="19"/>
+      <c r="C824" s="19"/>
     </row>
     <row r="825">
-      <c r="B825" s="17"/>
-      <c r="C825" s="17"/>
+      <c r="B825" s="19"/>
+      <c r="C825" s="19"/>
     </row>
     <row r="826">
-      <c r="B826" s="17"/>
-      <c r="C826" s="17"/>
+      <c r="B826" s="19"/>
+      <c r="C826" s="19"/>
     </row>
     <row r="827">
-      <c r="B827" s="17"/>
-      <c r="C827" s="17"/>
+      <c r="B827" s="19"/>
+      <c r="C827" s="19"/>
     </row>
     <row r="828">
-      <c r="B828" s="17"/>
-      <c r="C828" s="17"/>
+      <c r="B828" s="19"/>
+      <c r="C828" s="19"/>
     </row>
     <row r="829">
-      <c r="B829" s="17"/>
-      <c r="C829" s="17"/>
+      <c r="B829" s="19"/>
+      <c r="C829" s="19"/>
     </row>
     <row r="830">
-      <c r="B830" s="17"/>
-      <c r="C830" s="17"/>
+      <c r="B830" s="19"/>
+      <c r="C830" s="19"/>
     </row>
     <row r="831">
-      <c r="B831" s="17"/>
-      <c r="C831" s="17"/>
+      <c r="B831" s="19"/>
+      <c r="C831" s="19"/>
     </row>
     <row r="832">
-      <c r="B832" s="17"/>
-      <c r="C832" s="17"/>
+      <c r="B832" s="19"/>
+      <c r="C832" s="19"/>
     </row>
     <row r="833">
-      <c r="B833" s="17"/>
-      <c r="C833" s="17"/>
+      <c r="B833" s="19"/>
+      <c r="C833" s="19"/>
     </row>
     <row r="834">
-      <c r="B834" s="17"/>
-      <c r="C834" s="17"/>
+      <c r="B834" s="19"/>
+      <c r="C834" s="19"/>
     </row>
     <row r="835">
-      <c r="B835" s="17"/>
-      <c r="C835" s="17"/>
+      <c r="B835" s="19"/>
+      <c r="C835" s="19"/>
     </row>
     <row r="836">
-      <c r="B836" s="17"/>
-      <c r="C836" s="17"/>
+      <c r="B836" s="19"/>
+      <c r="C836" s="19"/>
     </row>
     <row r="837">
-      <c r="B837" s="17"/>
-      <c r="C837" s="17"/>
+      <c r="B837" s="19"/>
+      <c r="C837" s="19"/>
     </row>
     <row r="838">
-      <c r="B838" s="17"/>
-      <c r="C838" s="17"/>
+      <c r="B838" s="19"/>
+      <c r="C838" s="19"/>
     </row>
     <row r="839">
-      <c r="B839" s="17"/>
-      <c r="C839" s="17"/>
+      <c r="B839" s="19"/>
+      <c r="C839" s="19"/>
     </row>
     <row r="840">
-      <c r="B840" s="17"/>
-      <c r="C840" s="17"/>
+      <c r="B840" s="19"/>
+      <c r="C840" s="19"/>
     </row>
     <row r="841">
-      <c r="B841" s="17"/>
-      <c r="C841" s="17"/>
+      <c r="B841" s="19"/>
+      <c r="C841" s="19"/>
     </row>
     <row r="842">
-      <c r="B842" s="17"/>
-      <c r="C842" s="17"/>
+      <c r="B842" s="19"/>
+      <c r="C842" s="19"/>
     </row>
     <row r="843">
-      <c r="B843" s="17"/>
-      <c r="C843" s="17"/>
+      <c r="B843" s="19"/>
+      <c r="C843" s="19"/>
     </row>
     <row r="844">
-      <c r="B844" s="17"/>
-      <c r="C844" s="17"/>
+      <c r="B844" s="19"/>
+      <c r="C844" s="19"/>
     </row>
     <row r="845">
-      <c r="B845" s="17"/>
-      <c r="C845" s="17"/>
+      <c r="B845" s="19"/>
+      <c r="C845" s="19"/>
     </row>
     <row r="846">
-      <c r="B846" s="17"/>
-      <c r="C846" s="17"/>
+      <c r="B846" s="19"/>
+      <c r="C846" s="19"/>
     </row>
     <row r="847">
-      <c r="B847" s="17"/>
-      <c r="C847" s="17"/>
+      <c r="B847" s="19"/>
+      <c r="C847" s="19"/>
     </row>
     <row r="848">
-      <c r="B848" s="17"/>
-      <c r="C848" s="17"/>
+      <c r="B848" s="19"/>
+      <c r="C848" s="19"/>
     </row>
     <row r="849">
-      <c r="B849" s="17"/>
-      <c r="C849" s="17"/>
+      <c r="B849" s="19"/>
+      <c r="C849" s="19"/>
     </row>
     <row r="850">
-      <c r="B850" s="17"/>
-      <c r="C850" s="17"/>
+      <c r="B850" s="19"/>
+      <c r="C850" s="19"/>
     </row>
     <row r="851">
-      <c r="B851" s="17"/>
-      <c r="C851" s="17"/>
+      <c r="B851" s="19"/>
+      <c r="C851" s="19"/>
     </row>
     <row r="852">
-      <c r="B852" s="17"/>
-      <c r="C852" s="17"/>
+      <c r="B852" s="19"/>
+      <c r="C852" s="19"/>
     </row>
     <row r="853">
-      <c r="B853" s="17"/>
-      <c r="C853" s="17"/>
+      <c r="B853" s="19"/>
+      <c r="C853" s="19"/>
     </row>
     <row r="854">
-      <c r="B854" s="17"/>
-      <c r="C854" s="17"/>
+      <c r="B854" s="19"/>
+      <c r="C854" s="19"/>
     </row>
     <row r="855">
-      <c r="B855" s="17"/>
-      <c r="C855" s="17"/>
+      <c r="B855" s="19"/>
+      <c r="C855" s="19"/>
     </row>
     <row r="856">
-      <c r="B856" s="17"/>
-      <c r="C856" s="17"/>
+      <c r="B856" s="19"/>
+      <c r="C856" s="19"/>
     </row>
     <row r="857">
-      <c r="B857" s="17"/>
-      <c r="C857" s="17"/>
+      <c r="B857" s="19"/>
+      <c r="C857" s="19"/>
     </row>
     <row r="858">
-      <c r="B858" s="17"/>
-      <c r="C858" s="17"/>
+      <c r="B858" s="19"/>
+      <c r="C858" s="19"/>
     </row>
     <row r="859">
-      <c r="B859" s="17"/>
-      <c r="C859" s="17"/>
+      <c r="B859" s="19"/>
+      <c r="C859" s="19"/>
     </row>
     <row r="860">
-      <c r="B860" s="17"/>
-      <c r="C860" s="17"/>
+      <c r="B860" s="19"/>
+      <c r="C860" s="19"/>
     </row>
     <row r="861">
-      <c r="B861" s="17"/>
-      <c r="C861" s="17"/>
+      <c r="B861" s="19"/>
+      <c r="C861" s="19"/>
     </row>
     <row r="862">
-      <c r="B862" s="17"/>
-      <c r="C862" s="17"/>
+      <c r="B862" s="19"/>
+      <c r="C862" s="19"/>
     </row>
     <row r="863">
-      <c r="B863" s="17"/>
-      <c r="C863" s="17"/>
+      <c r="B863" s="19"/>
+      <c r="C863" s="19"/>
     </row>
     <row r="864">
-      <c r="B864" s="17"/>
-      <c r="C864" s="17"/>
+      <c r="B864" s="19"/>
+      <c r="C864" s="19"/>
     </row>
     <row r="865">
-      <c r="B865" s="17"/>
-      <c r="C865" s="17"/>
+      <c r="B865" s="19"/>
+      <c r="C865" s="19"/>
     </row>
     <row r="866">
-      <c r="B866" s="17"/>
-      <c r="C866" s="17"/>
+      <c r="B866" s="19"/>
+      <c r="C866" s="19"/>
     </row>
     <row r="867">
-      <c r="B867" s="17"/>
-      <c r="C867" s="17"/>
+      <c r="B867" s="19"/>
+      <c r="C867" s="19"/>
     </row>
     <row r="868">
-      <c r="B868" s="17"/>
-      <c r="C868" s="17"/>
+      <c r="B868" s="19"/>
+      <c r="C868" s="19"/>
     </row>
     <row r="869">
-      <c r="B869" s="17"/>
-      <c r="C869" s="17"/>
+      <c r="B869" s="19"/>
+      <c r="C869" s="19"/>
     </row>
     <row r="870">
-      <c r="B870" s="17"/>
-      <c r="C870" s="17"/>
+      <c r="B870" s="19"/>
+      <c r="C870" s="19"/>
     </row>
     <row r="871">
-      <c r="B871" s="17"/>
-      <c r="C871" s="17"/>
+      <c r="B871" s="19"/>
+      <c r="C871" s="19"/>
     </row>
     <row r="872">
-      <c r="B872" s="17"/>
-      <c r="C872" s="17"/>
+      <c r="B872" s="19"/>
+      <c r="C872" s="19"/>
     </row>
     <row r="873">
-      <c r="B873" s="17"/>
-      <c r="C873" s="17"/>
+      <c r="B873" s="19"/>
+      <c r="C873" s="19"/>
     </row>
     <row r="874">
-      <c r="B874" s="17"/>
-      <c r="C874" s="17"/>
+      <c r="B874" s="19"/>
+      <c r="C874" s="19"/>
     </row>
     <row r="875">
-      <c r="B875" s="17"/>
-      <c r="C875" s="17"/>
+      <c r="B875" s="19"/>
+      <c r="C875" s="19"/>
     </row>
     <row r="876">
-      <c r="B876" s="17"/>
-      <c r="C876" s="17"/>
+      <c r="B876" s="19"/>
+      <c r="C876" s="19"/>
     </row>
     <row r="877">
-      <c r="B877" s="17"/>
-      <c r="C877" s="17"/>
+      <c r="B877" s="19"/>
+      <c r="C877" s="19"/>
     </row>
     <row r="878">
-      <c r="B878" s="17"/>
-      <c r="C878" s="17"/>
+      <c r="B878" s="19"/>
+      <c r="C878" s="19"/>
     </row>
     <row r="879">
-      <c r="B879" s="17"/>
-      <c r="C879" s="17"/>
+      <c r="B879" s="19"/>
+      <c r="C879" s="19"/>
     </row>
     <row r="880">
-      <c r="B880" s="17"/>
-      <c r="C880" s="17"/>
+      <c r="B880" s="19"/>
+      <c r="C880" s="19"/>
     </row>
     <row r="881">
-      <c r="B881" s="17"/>
-      <c r="C881" s="17"/>
+      <c r="B881" s="19"/>
+      <c r="C881" s="19"/>
     </row>
     <row r="882">
-      <c r="B882" s="17"/>
-      <c r="C882" s="17"/>
+      <c r="B882" s="19"/>
+      <c r="C882" s="19"/>
     </row>
     <row r="883">
-      <c r="B883" s="17"/>
-      <c r="C883" s="17"/>
+      <c r="B883" s="19"/>
+      <c r="C883" s="19"/>
     </row>
     <row r="884">
-      <c r="B884" s="17"/>
-      <c r="C884" s="17"/>
+      <c r="B884" s="19"/>
+      <c r="C884" s="19"/>
     </row>
     <row r="885">
-      <c r="B885" s="17"/>
-      <c r="C885" s="17"/>
+      <c r="B885" s="19"/>
+      <c r="C885" s="19"/>
     </row>
     <row r="886">
-      <c r="B886" s="17"/>
-      <c r="C886" s="17"/>
+      <c r="B886" s="19"/>
+      <c r="C886" s="19"/>
     </row>
     <row r="887">
-      <c r="B887" s="17"/>
-      <c r="C887" s="17"/>
+      <c r="B887" s="19"/>
+      <c r="C887" s="19"/>
     </row>
     <row r="888">
-      <c r="B888" s="17"/>
-      <c r="C888" s="17"/>
+      <c r="B888" s="19"/>
+      <c r="C888" s="19"/>
     </row>
     <row r="889">
-      <c r="B889" s="17"/>
-      <c r="C889" s="17"/>
+      <c r="B889" s="19"/>
+      <c r="C889" s="19"/>
     </row>
     <row r="890">
-      <c r="B890" s="17"/>
-      <c r="C890" s="17"/>
+      <c r="B890" s="19"/>
+      <c r="C890" s="19"/>
     </row>
     <row r="891">
-      <c r="B891" s="17"/>
-      <c r="C891" s="17"/>
+      <c r="B891" s="19"/>
+      <c r="C891" s="19"/>
     </row>
     <row r="892">
-      <c r="B892" s="17"/>
-      <c r="C892" s="17"/>
+      <c r="B892" s="19"/>
+      <c r="C892" s="19"/>
     </row>
     <row r="893">
-      <c r="B893" s="17"/>
-      <c r="C893" s="17"/>
+      <c r="B893" s="19"/>
+      <c r="C893" s="19"/>
     </row>
     <row r="894">
-      <c r="B894" s="17"/>
-      <c r="C894" s="17"/>
+      <c r="B894" s="19"/>
+      <c r="C894" s="19"/>
     </row>
     <row r="895">
-      <c r="B895" s="17"/>
-      <c r="C895" s="17"/>
+      <c r="B895" s="19"/>
+      <c r="C895" s="19"/>
     </row>
     <row r="896">
-      <c r="B896" s="17"/>
-      <c r="C896" s="17"/>
+      <c r="B896" s="19"/>
+      <c r="C896" s="19"/>
     </row>
     <row r="897">
-      <c r="B897" s="17"/>
-      <c r="C897" s="17"/>
+      <c r="B897" s="19"/>
+      <c r="C897" s="19"/>
     </row>
     <row r="898">
-      <c r="B898" s="17"/>
-      <c r="C898" s="17"/>
+      <c r="B898" s="19"/>
+      <c r="C898" s="19"/>
     </row>
     <row r="899">
-      <c r="B899" s="17"/>
-      <c r="C899" s="17"/>
+      <c r="B899" s="19"/>
+      <c r="C899" s="19"/>
     </row>
     <row r="900">
-      <c r="B900" s="17"/>
-      <c r="C900" s="17"/>
+      <c r="B900" s="19"/>
+      <c r="C900" s="19"/>
     </row>
     <row r="901">
-      <c r="B901" s="17"/>
-      <c r="C901" s="17"/>
+      <c r="B901" s="19"/>
+      <c r="C901" s="19"/>
     </row>
     <row r="902">
-      <c r="B902" s="17"/>
-      <c r="C902" s="17"/>
+      <c r="B902" s="19"/>
+      <c r="C902" s="19"/>
     </row>
     <row r="903">
-      <c r="B903" s="17"/>
-      <c r="C903" s="17"/>
+      <c r="B903" s="19"/>
+      <c r="C903" s="19"/>
     </row>
     <row r="904">
-      <c r="B904" s="17"/>
-      <c r="C904" s="17"/>
+      <c r="B904" s="19"/>
+      <c r="C904" s="19"/>
     </row>
     <row r="905">
-      <c r="B905" s="17"/>
-      <c r="C905" s="17"/>
+      <c r="B905" s="19"/>
+      <c r="C905" s="19"/>
     </row>
     <row r="906">
-      <c r="B906" s="17"/>
-      <c r="C906" s="17"/>
+      <c r="B906" s="19"/>
+      <c r="C906" s="19"/>
     </row>
     <row r="907">
-      <c r="B907" s="17"/>
-      <c r="C907" s="17"/>
+      <c r="B907" s="19"/>
+      <c r="C907" s="19"/>
     </row>
     <row r="908">
-      <c r="B908" s="17"/>
-      <c r="C908" s="17"/>
+      <c r="B908" s="19"/>
+      <c r="C908" s="19"/>
     </row>
     <row r="909">
-      <c r="B909" s="17"/>
-      <c r="C909" s="17"/>
+      <c r="B909" s="19"/>
+      <c r="C909" s="19"/>
     </row>
     <row r="910">
-      <c r="B910" s="17"/>
-      <c r="C910" s="17"/>
+      <c r="B910" s="19"/>
+      <c r="C910" s="19"/>
     </row>
     <row r="911">
-      <c r="B911" s="17"/>
-      <c r="C911" s="17"/>
+      <c r="B911" s="19"/>
+      <c r="C911" s="19"/>
     </row>
     <row r="912">
-      <c r="B912" s="17"/>
-      <c r="C912" s="17"/>
+      <c r="B912" s="19"/>
+      <c r="C912" s="19"/>
     </row>
     <row r="913">
-      <c r="B913" s="17"/>
-      <c r="C913" s="17"/>
+      <c r="B913" s="19"/>
+      <c r="C913" s="19"/>
     </row>
     <row r="914">
-      <c r="B914" s="17"/>
-      <c r="C914" s="17"/>
+      <c r="B914" s="19"/>
+      <c r="C914" s="19"/>
     </row>
     <row r="915">
-      <c r="B915" s="17"/>
-      <c r="C915" s="17"/>
+      <c r="B915" s="19"/>
+      <c r="C915" s="19"/>
     </row>
     <row r="916">
-      <c r="B916" s="17"/>
-      <c r="C916" s="17"/>
+      <c r="B916" s="19"/>
+      <c r="C916" s="19"/>
     </row>
     <row r="917">
-      <c r="B917" s="17"/>
-      <c r="C917" s="17"/>
+      <c r="B917" s="19"/>
+      <c r="C917" s="19"/>
     </row>
     <row r="918">
-      <c r="B918" s="17"/>
-      <c r="C918" s="17"/>
+      <c r="B918" s="19"/>
+      <c r="C918" s="19"/>
     </row>
     <row r="919">
-      <c r="B919" s="17"/>
-      <c r="C919" s="17"/>
+      <c r="B919" s="19"/>
+      <c r="C919" s="19"/>
     </row>
     <row r="920">
-      <c r="B920" s="17"/>
-      <c r="C920" s="17"/>
+      <c r="B920" s="19"/>
+      <c r="C920" s="19"/>
     </row>
     <row r="921">
-      <c r="B921" s="17"/>
-      <c r="C921" s="17"/>
+      <c r="B921" s="19"/>
+      <c r="C921" s="19"/>
     </row>
     <row r="922">
-      <c r="B922" s="17"/>
-      <c r="C922" s="17"/>
+      <c r="B922" s="19"/>
+      <c r="C922" s="19"/>
     </row>
     <row r="923">
-      <c r="B923" s="17"/>
-      <c r="C923" s="17"/>
+      <c r="B923" s="19"/>
+      <c r="C923" s="19"/>
     </row>
     <row r="924">
-      <c r="B924" s="17"/>
-      <c r="C924" s="17"/>
+      <c r="B924" s="19"/>
+      <c r="C924" s="19"/>
     </row>
     <row r="925">
-      <c r="B925" s="17"/>
-      <c r="C925" s="17"/>
+      <c r="B925" s="19"/>
+      <c r="C925" s="19"/>
     </row>
     <row r="926">
-      <c r="B926" s="17"/>
-      <c r="C926" s="17"/>
+      <c r="B926" s="19"/>
+      <c r="C926" s="19"/>
     </row>
     <row r="927">
-      <c r="B927" s="17"/>
-      <c r="C927" s="17"/>
+      <c r="B927" s="19"/>
+      <c r="C927" s="19"/>
     </row>
     <row r="928">
-      <c r="B928" s="17"/>
-      <c r="C928" s="17"/>
+      <c r="B928" s="19"/>
+      <c r="C928" s="19"/>
     </row>
     <row r="929">
-      <c r="B929" s="17"/>
-      <c r="C929" s="17"/>
+      <c r="B929" s="19"/>
+      <c r="C929" s="19"/>
     </row>
     <row r="930">
-      <c r="B930" s="17"/>
-      <c r="C930" s="17"/>
+      <c r="B930" s="19"/>
+      <c r="C930" s="19"/>
     </row>
     <row r="931">
-      <c r="B931" s="17"/>
-      <c r="C931" s="17"/>
+      <c r="B931" s="19"/>
+      <c r="C931" s="19"/>
     </row>
     <row r="932">
-      <c r="B932" s="17"/>
-      <c r="C932" s="17"/>
+      <c r="B932" s="19"/>
+      <c r="C932" s="19"/>
     </row>
     <row r="933">
-      <c r="B933" s="17"/>
-      <c r="C933" s="17"/>
+      <c r="B933" s="19"/>
+      <c r="C933" s="19"/>
     </row>
     <row r="934">
-      <c r="B934" s="17"/>
-      <c r="C934" s="17"/>
+      <c r="B934" s="19"/>
+      <c r="C934" s="19"/>
     </row>
     <row r="935">
-      <c r="B935" s="17"/>
-      <c r="C935" s="17"/>
+      <c r="B935" s="19"/>
+      <c r="C935" s="19"/>
     </row>
     <row r="936">
-      <c r="B936" s="17"/>
-      <c r="C936" s="17"/>
+      <c r="B936" s="19"/>
+      <c r="C936" s="19"/>
     </row>
     <row r="937">
-      <c r="B937" s="17"/>
-      <c r="C937" s="17"/>
+      <c r="B937" s="19"/>
+      <c r="C937" s="19"/>
     </row>
     <row r="938">
-      <c r="B938" s="17"/>
-      <c r="C938" s="17"/>
+      <c r="B938" s="19"/>
+      <c r="C938" s="19"/>
     </row>
     <row r="939">
-      <c r="B939" s="17"/>
-      <c r="C939" s="17"/>
+      <c r="B939" s="19"/>
+      <c r="C939" s="19"/>
     </row>
     <row r="940">
-      <c r="B940" s="17"/>
-      <c r="C940" s="17"/>
+      <c r="B940" s="19"/>
+      <c r="C940" s="19"/>
     </row>
     <row r="941">
-      <c r="B941" s="17"/>
-      <c r="C941" s="17"/>
+      <c r="B941" s="19"/>
+      <c r="C941" s="19"/>
     </row>
     <row r="942">
-      <c r="B942" s="17"/>
-      <c r="C942" s="17"/>
+      <c r="B942" s="19"/>
+      <c r="C942" s="19"/>
     </row>
     <row r="943">
-      <c r="B943" s="17"/>
-      <c r="C943" s="17"/>
+      <c r="B943" s="19"/>
+      <c r="C943" s="19"/>
     </row>
     <row r="944">
-      <c r="B944" s="17"/>
-      <c r="C944" s="17"/>
+      <c r="B944" s="19"/>
+      <c r="C944" s="19"/>
     </row>
     <row r="945">
-      <c r="B945" s="17"/>
-      <c r="C945" s="17"/>
+      <c r="B945" s="19"/>
+      <c r="C945" s="19"/>
     </row>
     <row r="946">
-      <c r="B946" s="17"/>
-      <c r="C946" s="17"/>
+      <c r="B946" s="19"/>
+      <c r="C946" s="19"/>
     </row>
     <row r="947">
-      <c r="B947" s="17"/>
-      <c r="C947" s="17"/>
+      <c r="B947" s="19"/>
+      <c r="C947" s="19"/>
     </row>
     <row r="948">
-      <c r="B948" s="17"/>
-      <c r="C948" s="17"/>
+      <c r="B948" s="19"/>
+      <c r="C948" s="19"/>
     </row>
     <row r="949">
-      <c r="B949" s="17"/>
-      <c r="C949" s="17"/>
+      <c r="B949" s="19"/>
+      <c r="C949" s="19"/>
     </row>
     <row r="950">
-      <c r="B950" s="17"/>
-      <c r="C950" s="17"/>
+      <c r="B950" s="19"/>
+      <c r="C950" s="19"/>
     </row>
     <row r="951">
-      <c r="B951" s="17"/>
-      <c r="C951" s="17"/>
+      <c r="B951" s="19"/>
+      <c r="C951" s="19"/>
     </row>
     <row r="952">
-      <c r="B952" s="17"/>
-      <c r="C952" s="17"/>
+      <c r="B952" s="19"/>
+      <c r="C952" s="19"/>
     </row>
     <row r="953">
-      <c r="B953" s="17"/>
-      <c r="C953" s="17"/>
+      <c r="B953" s="19"/>
+      <c r="C953" s="19"/>
     </row>
     <row r="954">
-      <c r="B954" s="17"/>
-      <c r="C954" s="17"/>
+      <c r="B954" s="19"/>
+      <c r="C954" s="19"/>
     </row>
     <row r="955">
-      <c r="B955" s="17"/>
-      <c r="C955" s="17"/>
+      <c r="B955" s="19"/>
+      <c r="C955" s="19"/>
     </row>
     <row r="956">
-      <c r="B956" s="17"/>
-      <c r="C956" s="17"/>
+      <c r="B956" s="19"/>
+      <c r="C956" s="19"/>
     </row>
     <row r="957">
-      <c r="B957" s="17"/>
-      <c r="C957" s="17"/>
+      <c r="B957" s="19"/>
+      <c r="C957" s="19"/>
     </row>
     <row r="958">
-      <c r="B958" s="17"/>
-      <c r="C958" s="17"/>
+      <c r="B958" s="19"/>
+      <c r="C958" s="19"/>
     </row>
     <row r="959">
-      <c r="B959" s="17"/>
-      <c r="C959" s="17"/>
+      <c r="B959" s="19"/>
+      <c r="C959" s="19"/>
     </row>
     <row r="960">
-      <c r="B960" s="17"/>
-      <c r="C960" s="17"/>
+      <c r="B960" s="19"/>
+      <c r="C960" s="19"/>
     </row>
     <row r="961">
-      <c r="B961" s="17"/>
-      <c r="C961" s="17"/>
+      <c r="B961" s="19"/>
+      <c r="C961" s="19"/>
     </row>
     <row r="962">
-      <c r="B962" s="17"/>
-      <c r="C962" s="17"/>
+      <c r="B962" s="19"/>
+      <c r="C962" s="19"/>
     </row>
     <row r="963">
-      <c r="B963" s="17"/>
-      <c r="C963" s="17"/>
+      <c r="B963" s="19"/>
+      <c r="C963" s="19"/>
     </row>
     <row r="964">
-      <c r="B964" s="17"/>
-      <c r="C964" s="17"/>
+      <c r="B964" s="19"/>
+      <c r="C964" s="19"/>
     </row>
     <row r="965">
-      <c r="B965" s="17"/>
-      <c r="C965" s="17"/>
+      <c r="B965" s="19"/>
+      <c r="C965" s="19"/>
     </row>
     <row r="966">
-      <c r="B966" s="17"/>
-      <c r="C966" s="17"/>
+      <c r="B966" s="19"/>
+      <c r="C966" s="19"/>
     </row>
     <row r="967">
-      <c r="B967" s="17"/>
-      <c r="C967" s="17"/>
+      <c r="B967" s="19"/>
+      <c r="C967" s="19"/>
     </row>
     <row r="968">
-      <c r="B968" s="17"/>
-      <c r="C968" s="17"/>
+      <c r="B968" s="19"/>
+      <c r="C968" s="19"/>
     </row>
     <row r="969">
-      <c r="B969" s="17"/>
-      <c r="C969" s="17"/>
+      <c r="B969" s="19"/>
+      <c r="C969" s="19"/>
     </row>
     <row r="970">
-      <c r="B970" s="17"/>
-      <c r="C970" s="17"/>
+      <c r="B970" s="19"/>
+      <c r="C970" s="19"/>
     </row>
     <row r="971">
-      <c r="B971" s="17"/>
-      <c r="C971" s="17"/>
+      <c r="B971" s="19"/>
+      <c r="C971" s="19"/>
     </row>
     <row r="972">
-      <c r="B972" s="17"/>
-      <c r="C972" s="17"/>
+      <c r="B972" s="19"/>
+      <c r="C972" s="19"/>
     </row>
     <row r="973">
-      <c r="B973" s="17"/>
-      <c r="C973" s="17"/>
+      <c r="B973" s="19"/>
+      <c r="C973" s="19"/>
     </row>
     <row r="974">
-      <c r="B974" s="17"/>
-      <c r="C974" s="17"/>
+      <c r="B974" s="19"/>
+      <c r="C974" s="19"/>
     </row>
     <row r="975">
-      <c r="B975" s="17"/>
-      <c r="C975" s="17"/>
+      <c r="B975" s="19"/>
+      <c r="C975" s="19"/>
     </row>
     <row r="976">
-      <c r="B976" s="17"/>
-      <c r="C976" s="17"/>
+      <c r="B976" s="19"/>
+      <c r="C976" s="19"/>
     </row>
     <row r="977">
-      <c r="B977" s="17"/>
-      <c r="C977" s="17"/>
+      <c r="B977" s="19"/>
+      <c r="C977" s="19"/>
     </row>
     <row r="978">
-      <c r="B978" s="17"/>
-      <c r="C978" s="17"/>
+      <c r="B978" s="19"/>
+      <c r="C978" s="19"/>
     </row>
     <row r="979">
-      <c r="B979" s="17"/>
-      <c r="C979" s="17"/>
+      <c r="B979" s="19"/>
+      <c r="C979" s="19"/>
     </row>
     <row r="980">
-      <c r="B980" s="17"/>
-      <c r="C980" s="17"/>
+      <c r="B980" s="19"/>
+      <c r="C980" s="19"/>
     </row>
     <row r="981">
-      <c r="B981" s="17"/>
-      <c r="C981" s="17"/>
+      <c r="B981" s="19"/>
+      <c r="C981" s="19"/>
     </row>
     <row r="982">
-      <c r="B982" s="17"/>
-      <c r="C982" s="17"/>
+      <c r="B982" s="19"/>
+      <c r="C982" s="19"/>
     </row>
     <row r="983">
-      <c r="B983" s="17"/>
-      <c r="C983" s="17"/>
+      <c r="B983" s="19"/>
+      <c r="C983" s="19"/>
     </row>
     <row r="984">
-      <c r="B984" s="17"/>
-      <c r="C984" s="17"/>
+      <c r="B984" s="19"/>
+      <c r="C984" s="19"/>
     </row>
     <row r="985">
-      <c r="B985" s="17"/>
-      <c r="C985" s="17"/>
+      <c r="B985" s="19"/>
+      <c r="C985" s="19"/>
     </row>
     <row r="986">
-      <c r="B986" s="17"/>
-      <c r="C986" s="17"/>
+      <c r="B986" s="19"/>
+      <c r="C986" s="19"/>
     </row>
     <row r="987">
-      <c r="B987" s="17"/>
-      <c r="C987" s="17"/>
+      <c r="B987" s="19"/>
+      <c r="C987" s="19"/>
     </row>
     <row r="988">
-      <c r="B988" s="17"/>
-      <c r="C988" s="17"/>
+      <c r="B988" s="19"/>
+      <c r="C988" s="19"/>
     </row>
     <row r="989">
-      <c r="B989" s="17"/>
-      <c r="C989" s="17"/>
+      <c r="B989" s="19"/>
+      <c r="C989" s="19"/>
     </row>
     <row r="990">
-      <c r="B990" s="17"/>
-      <c r="C990" s="17"/>
+      <c r="B990" s="19"/>
+      <c r="C990" s="19"/>
     </row>
     <row r="991">
-      <c r="B991" s="17"/>
-      <c r="C991" s="17"/>
+      <c r="B991" s="19"/>
+      <c r="C991" s="19"/>
     </row>
     <row r="992">
-      <c r="B992" s="17"/>
-      <c r="C992" s="17"/>
+      <c r="B992" s="19"/>
+      <c r="C992" s="19"/>
     </row>
     <row r="993">
-      <c r="B993" s="17"/>
-      <c r="C993" s="17"/>
+      <c r="B993" s="19"/>
+      <c r="C993" s="19"/>
     </row>
     <row r="994">
-      <c r="B994" s="17"/>
-      <c r="C994" s="17"/>
+      <c r="B994" s="19"/>
+      <c r="C994" s="19"/>
     </row>
     <row r="995">
-      <c r="B995" s="17"/>
-      <c r="C995" s="17"/>
+      <c r="B995" s="19"/>
+      <c r="C995" s="19"/>
     </row>
     <row r="996">
-      <c r="B996" s="17"/>
-      <c r="C996" s="17"/>
+      <c r="B996" s="19"/>
+      <c r="C996" s="19"/>
     </row>
     <row r="997">
-      <c r="B997" s="17"/>
-      <c r="C997" s="17"/>
+      <c r="B997" s="19"/>
+      <c r="C997" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5058,322 +5343,388 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5"/>
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5"/>
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="5"/>
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5"/>
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5"/>
+      <c r="A18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="8"/>
+      <c r="A19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7"/>
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7"/>
+      <c r="A22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="F25" s="23"/>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="F26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="F27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="F28" s="23"/>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="17"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="F29" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="17"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="F30" s="23"/>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="5"/>
+      <c r="A31" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="18"/>
+        <v>125</v>
+      </c>
+      <c r="F31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="20"/>
+      <c r="A32" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="18"/>
+        <v>128</v>
+      </c>
+      <c r="F32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="20"/>
+      <c r="A33" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="F33" s="23"/>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="5"/>
+      <c r="A34" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="18"/>
+        <v>134</v>
+      </c>
+      <c r="F34" s="23"/>
     </row>
     <row r="35">
-      <c r="F35" s="22"/>
+      <c r="F35" s="26"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5422,7 +5773,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5469,271 +5820,271 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="27"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>9</v>
+      <c r="A11" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
+      <c r="A12" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
+      <c r="A13" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>9</v>
+      <c r="A14" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>9</v>
+      <c r="A15" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>9</v>
+      <c r="A16" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>9</v>
+      <c r="A17" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>11</v>
+      <c r="A18" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="8"/>
+      <c r="A19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="27"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="28"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7"/>
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="17"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7"/>
+      <c r="A22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="F25" s="23"/>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="F26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="F27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="F28" s="23"/>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="F29" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="F30" s="23"/>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
-        <v>56</v>
+      <c r="A31" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="18"/>
+        <v>125</v>
+      </c>
+      <c r="F31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="20"/>
+      <c r="A32" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="22"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="18"/>
+        <v>128</v>
+      </c>
+      <c r="F32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="20"/>
+      <c r="A33" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="22"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="F33" s="23"/>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="s">
-        <v>62</v>
+      <c r="A34" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="18"/>
+        <v>134</v>
+      </c>
+      <c r="F34" s="23"/>
     </row>
     <row r="35">
-      <c r="F35" s="22"/>
+      <c r="F35" s="26"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5767,7 +6118,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5775,134 +6126,134 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>64</v>
+      <c r="A2" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="25" t="s">
-        <v>65</v>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="s">
-        <v>64</v>
+      <c r="A3" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>64</v>
+      <c r="A4" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>137</v>
+      </c>
+      <c r="B6" s="27"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="8"/>
+      <c r="A7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="27"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="8"/>
+      <c r="A8" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="27"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="25" t="s">
-        <v>69</v>
+      <c r="E8" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A9" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="27"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="8"/>
+      <c r="A10" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="27"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="27"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="25" t="s">
-        <v>71</v>
+      <c r="E11" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="8"/>
+      <c r="A12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="27"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="8"/>
+      <c r="A13" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="27"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="11"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="25" t="s">
-        <v>73</v>
+      <c r="E14" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
-        <v>72</v>
+      <c r="A15" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="28" t="s">
-        <v>72</v>
+      <c r="A16" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5949,7 +6300,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5963,7 +6314,7 @@
       <c r="B2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5982,147 +6333,147 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
+      <c r="A7" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
+      <c r="A8" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="27"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="28"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7"/>
+      <c r="A11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7"/>
+      <c r="A12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>56</v>
+      <c r="A15" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>58</v>
+      <c r="A16" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>60</v>
+      <c r="A17" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
-        <v>62</v>
+      <c r="A18" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6167,7 +6518,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -6181,7 +6532,7 @@
       <c r="B2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6200,147 +6551,147 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
+      <c r="A7" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
+      <c r="A8" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="27"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="28"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7"/>
+      <c r="A11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7"/>
+      <c r="A12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>56</v>
+      <c r="A15" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>58</v>
+      <c r="A16" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>60</v>
+      <c r="A17" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
-        <v>62</v>
+      <c r="A18" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6385,7 +6736,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -6399,7 +6750,7 @@
       <c r="B2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6418,147 +6769,147 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
+      <c r="A7" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
+      <c r="A8" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="27"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="28"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7"/>
+      <c r="A11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7"/>
+      <c r="A12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>56</v>
+      <c r="A15" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>58</v>
+      <c r="A16" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>60</v>
+      <c r="A17" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
-        <v>62</v>
+      <c r="A18" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6591,47 +6942,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="B6" s="31">
         <v>60.4</v>
@@ -6639,7 +6990,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B7" s="31">
         <v>39.6</v>
@@ -6647,23 +6998,23 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B10" s="31">
         <v>60.4</v>
@@ -6671,7 +7022,7 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B11" s="31">
         <v>39.6</v>
@@ -6679,26 +7030,26 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -6706,87 +7057,87 @@
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="B16" s="32"/>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="34">
+      <c r="A17" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="31">
         <v>60.4</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="34">
+      <c r="A18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="31">
         <v>39.6</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>87</v>
+      <c r="A19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>89</v>
+      <c r="A20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="34">
+      <c r="A21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="31">
         <v>60.4</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="34">
+      <c r="A22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="31">
         <v>39.6</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>87</v>
+      <c r="A23" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>89</v>
+      <c r="A24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="34">
+        <v>176</v>
+      </c>
+      <c r="B25" s="31">
         <v>60.4</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="34">
+      <c r="A26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="31">
         <v>39.6</v>
       </c>
     </row>

--- a/Data/Textbausteine_LENA_Maerz2021.xlsx
+++ b/Data/Textbausteine_LENA_Maerz2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="443">
   <si>
     <t>Text_ID</t>
   </si>
@@ -1106,13 +1106,13 @@
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidHauptvorlage</t>
   </si>
   <si>
-    <t xml:space="preserve">Les citoyens de #Gemeinde_f souhaitent augmenter de deux à quatre le nombre de dimanches par année où les magasins ouvrir sans avoir à demander d'autorisation. Ils sont #JaStimmenHauptvorlagenInProzent pour cent à accepter le projet principal du Conseil d'Etat bernois, qui souhaite uniformiser les règles encadrant le commerce de cigarettes électroniques et cigarettes classiques. Les ayants droit de #Gemeinde_f ont aussi accepté le projet alternatif, qui ne concerne que les cigarettes électroniques, avec #JaStimmenGengenvorschlagInProzent pour cent de oui mais donnent cependant leur préférence au projet prinicpal, avec #StichentschiedZustimmungHauptvorlageInProzent pour cent de oui. </t>
+    <t xml:space="preserve">Les citoyens de #Gemeinde_f souhaitent augmenter de deux à quatre le nombre de dimanches par année où les magasins ouvrir sans avoir à demander d'autorisation. Ils sont #JaStimmenHauptvorlageInProzent pour cent à accepter le projet principal du Conseil d'Etat bernois, qui souhaite uniformiser les règles encadrant le commerce de cigarettes électroniques et cigarettes classiques. Les ayants droit de #Gemeinde_f ont aussi accepté le projet alternatif, qui ne concerne que les cigarettes électroniques, avec #JaStimmenGegenvorschlagInProzent pour cent de oui mais donnent cependant leur préférence au projet prinicpal, avec #StichentschiedZustimmungHauptvorlageInProzent pour cent de oui. </t>
   </si>
   <si>
     <t>Hauptvorlage und Eventualantrag angenommen, Stichentscheid für Hauptvorlage</t>
   </si>
   <si>
-    <t xml:space="preserve">Oui à #JaStimmenHauptvorlagenInProzent pour cent à l'augmentation de deux à quatre du nombre d'ouvertures dominicales des magasins et à l'interdiction de la remise et à l'uniformisation des règles encadrant le commerce des cigarettes életroniques et classiques. Oui également avec #JaStimmenGengenvorschlagInProzent pour cent de oui au projet alternatif se limitant au deuxième point mais les citoyens de #Gemeinde_f ont marqué leur préférence pour le projet principal avec #StichentschiedZustimmungHauptvorlageInProzent pour cent de oui. </t>
+    <t xml:space="preserve">Oui à #JaStimmenHauptvorlageInProzent pour cent à l'augmentation de deux à quatre du nombre d'ouvertures dominicales des magasins et à l'interdiction de la remise et à l'uniformisation des règles encadrant le commerce des cigarettes életroniques et classiques. Oui également avec #JaStimmenGegenvorschlagInProzent pour cent de oui au projet alternatif se limitant au deuxième point mais les citoyens de #Gemeinde_f ont marqué leur préférence pour le projet principal avec #StichentschiedZustimmungHauptvorlageInProzent pour cent de oui. </t>
   </si>
   <si>
     <t>Les ayant droit de #Gemeinde_f ont tranché: le nombre de dimanches par année où les magasins ouvrir sans avoir à demander d'autorisation va passer de deux à quatre et les règles encadrant le commerce de cigarettes électroniques et de cigarettes classiques doivent être unifiées. Les citoyens ont dit oui à #JaStimmenHauptvorlageInProzent pour cent à la proposition principale du Conseil d'Etat bernois. Ils acceptent aussi le projet alternatif, limité aux cigarettes électroniques, avec #JaStimmenGegenvorschlagInProzent pour cent de oui, mais tranchent en dernier en faveur du projet principal avec #StichentscheidZustimmungHauptvorlageInProzent pour cent de oui.</t>
@@ -1127,7 +1127,7 @@
     <t>Hauptvorlage und Eventualantrag angenommen, Stichentscheid für Eventualantrag</t>
   </si>
   <si>
-    <t>Oui à #JaStimmenGegenvorschlagInProzent pour cent à l'unification des règles encadrant le commerce de cigarettes électroniques et de cigarettes classiques. Mais non l'augmentation de l'ouverture des magasins quatre dimanches par années sans demander d'autorisation, même si le oui était majoritaire dans les urnes (##JaStimmenHauptvorlageInProzent pour cent). Invités à trancher entre ce projet et un projet principal englobant la question des cigarettes électroniques et l'ouverture dominicale des magasins, les habitants de #Gemeinde_f ont opté pour la première solution avec #StichentscheidZustimmungGegenvorschlagInProzent pour cent de oui.</t>
+    <t>Oui à #JaStimmenGegenvorschlagInProzent pour cent à l'unification des règles encadrant le commerce de cigarettes électroniques et de cigarettes classiques. Mais non l'augmentation de l'ouverture des magasins quatre dimanches par années sans demander d'autorisation, même si le oui était majoritaire dans les urnes (#JaStimmenHauptvorlageInProzent pour cent). Invités à trancher entre ce projet et un projet principal englobant la question des cigarettes électroniques et l'ouverture dominicale des magasins, les habitants de #Gemeinde_f ont opté pour la première solution avec #StichentscheidZustimmungGegenvorschlagInProzent pour cent de oui.</t>
   </si>
   <si>
     <t>Les citoyens de #Gemeinde_f ont tranché en faveur du projet alternatif (#StichentscheidZustimmungGegenvorschlagInProzent pour cent de oui) se focalisant uniquement sur l'uniformisation des règles encadrant le commerce des cigarettes électroniques et de cigarettes classiques.Ils ont préféré ce projet avec #JaStimmenGegenvorschlagInProzent pour cent de oui. Ils ont cependant également approuvé (#JaStimmenHauptvorlageInProzent pour cent de oui) le projet principal du Conseil d'Etat bernois, qui proposait également de permettre aux magasins d'ouvrir jusqu'à quatre dimanches par an sans demander d'autorisation.</t>
@@ -1160,10 +1160,10 @@
     <t>z</t>
   </si>
   <si>
-    <t>Les citoyens de #Gemeinde_f disent oui à #JaStimmenGegenvorlageInProzent pour cent à l'uniformisation des règles encadrant le commerce des cigarettes électroniques et des cigarettes classiques. Ils refusent par contre le projet principal qui proposait en plus de cette uniformisation des règles la possibilité pour les magasins d'ouvrir jusqu'à dimanche par année sans demander d'autorisation (non à #NeinStimmenHauptvorlageInProzent pour cent).</t>
-  </si>
-  <si>
-    <t>C'est oui à #JaStimmenGegenvorlageInProzent pour cent à l'uniformisation des règles encadrant le commerce des cigarettes électroniques et des cigarettes classiques à #Gemeinde_f. C'est non par contre à #NeinStimmenHauptvorschlagInProzent pour cent au projet principal qui proposait en plus de cette uniformisation des règles la possibilité pour les magasins d'ouvrir jusqu'à dimanche par année sans demander d'autorisation.</t>
+    <t>Les citoyens de #Gemeinde_f disent oui à #JaStimmenGegenvorschlagInProzent pour cent à l'uniformisation des règles encadrant le commerce des cigarettes électroniques et des cigarettes classiques. Ils refusent par contre le projet principal qui proposait en plus de cette uniformisation des règles la possibilité pour les magasins d'ouvrir jusqu'à dimanche par année sans demander d'autorisation (non à #NeinStimmenHauptvorlageInProzent pour cent).</t>
+  </si>
+  <si>
+    <t>C'est oui à #JaStimmenGegenvorschlagInProzent pour cent à l'uniformisation des règles encadrant le commerce des cigarettes électroniques et des cigarettes classiques à #Gemeinde_f. C'est non par contre à #NeinStimmenHauptvorlageInProzent pour cent au projet principal qui proposait en plus de cette uniformisation des règles la possibilité pour les magasins d'ouvrir jusqu'à dimanche par année sans demander d'autorisation.</t>
   </si>
   <si>
     <t>Intro_HauptvorlageNein_GegenvorschlagNein</t>
@@ -1178,16 +1178,145 @@
     <t>Non à #NeinStimmenHauptvorlageInProzent pour cent à l'ouverture de magasins plus de deux dimanches par année ainsi qu'à l'uniformisation des règles encadrant le commerce de cigarettes électroniques et de cigarettes et non à #NeinStimmenGegenvorschlagInProzent pour cent au projet alternatif se limitant à l'uniformisation des règles dans le domaine des cigarettes. Les citoyens de #Gemeinde_f ont refusé les deux projets.</t>
   </si>
   <si>
-    <t>Ni le projet du Conseil d'Etat, ni le projet alternatif ne trouve grâce aux yeux des citoyens de #Gemeinde. Ils refusent avec #NeinStimmenHauptvorlageInProzent pour cent de non de permettre aux magasins d'ouvrir jusqu'à dimanche par année sans demander d'autorisation et d'uniformiser les règles uniformisant les règles encadrant le commerce de cigarettes électronique et de cigarettes classiques. Ils s'opposent aussi au projet alternatif (#NeinStimmenGegenvorschlagInProzent pour cent de non), qui se limite à la problèmatiques des cigarettes.</t>
-  </si>
-  <si>
-    <t>Projet principal: magasins+cigarettes</t>
-  </si>
-  <si>
-    <t>Projet alternative: non aux magasins, oui cigarettes</t>
-  </si>
-  <si>
-    <t>Si les deux variantes sont acceptées, laquelle choisir</t>
+    <t>Ni le projet du Conseil d'Etat, ni le projet alternatif ne trouve grâce aux yeux des citoyens de #Gemeinde_f. Ils refusent avec #NeinStimmenHauptvorlageInProzent pour cent de non de permettre aux magasins d'ouvrir jusqu'à dimanche par année sans demander d'autorisation et d'uniformiser les règles uniformisant les règles encadrant le commerce de cigarettes électronique et de cigarettes classiques. Ils s'opposent aussi au projet alternatif (#NeinStimmenGegenvorschlagInProzent pour cent de non), qui se limite à la problèmatiques des cigarettes.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f acceptent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t>la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f approuvent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent à la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
+  </si>
+  <si>
+    <t>la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte et #NeinStimmenAbsolut à le refuser.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f rejettent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f s'opposent à la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
+    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
+  </si>
+  <si>
+    <t>la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus ne passe pas la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à refuser le texte et #JaStimmenAbsolut à l'approuver.</t>
+  </si>
+  <si>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus et #JaStimmenAbsolut à la refuser.</t>
+  </si>
+  <si>
+    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
+  </si>
+  <si>
+    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
+  </si>
+  <si>
+    <t>C'est à #Gemeinde_f que la forte acceptation de cet objet a été enregistrée dans le canton.</t>
+  </si>
+  <si>
+    <t>C'est à #Gemeinde_f que le refus le plus net de cet objet a été enregistré dans le canton.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a approuvé le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a rejeté le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Hauptvorlage und Gegenvorschlag angenommen, Stichentscheid für Hauptvorlage</t>
+  </si>
+  <si>
+    <t>Hauptvorlage und Gegenvorschlag angenommen, Stichentscheid für Gegenvorschlag</t>
+  </si>
+  <si>
+    <t>Hauptvorlage angenommen, Gegenvorschlag abgelehnt</t>
+  </si>
+  <si>
+    <t>Hauptvorlage abgelehnt, Gegenvorschlag angenommen</t>
+  </si>
+  <si>
+    <t>Hauptvorlage und Gegenvorschlag abgelehnt</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Beispiel</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d</t>
+  </si>
+  <si>
+    <t>Biel</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f</t>
+  </si>
+  <si>
+    <t>Bienne</t>
+  </si>
+  <si>
+    <t>#Kanton_d</t>
+  </si>
+  <si>
+    <t>Genf</t>
+  </si>
+  <si>
+    <t>#Kanton_f</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>#JaStimmenInProzent</t>
+  </si>
+  <si>
+    <t>#NeinStimmenInProzent</t>
+  </si>
+  <si>
+    <t>#JaStimmenAbsolut</t>
+  </si>
+  <si>
+    <t>6'040</t>
+  </si>
+  <si>
+    <t>#NeinStimmenAbsolut</t>
+  </si>
+  <si>
+    <t>3'960</t>
+  </si>
+  <si>
+    <t>#HistJaStimmenInProzent</t>
+  </si>
+  <si>
+    <t>#HistNeinStimmeninProzent</t>
+  </si>
+  <si>
+    <t>#HistJaStimmenAbsolut</t>
+  </si>
+  <si>
+    <t>#HistNeinStimmenAbsolut</t>
+  </si>
+  <si>
+    <t>#Gueltige_Stimmen</t>
+  </si>
+  <si>
+    <t>8'725</t>
+  </si>
+  <si>
+    <t>Spezialfall Variablen Hauptvorlage &amp; Gegenvorschlag</t>
   </si>
   <si>
     <t>#JaStimmenHauptvorlageInProzent</t>
@@ -1218,151 +1347,13 @@
   </si>
   <si>
     <t>#StichentscheidZustimmungGegenvorschlagInProzent</t>
-  </si>
-  <si>
-    <t>Les habitants de #Gemeinde_f acceptent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec #JaStimmenInProzent pour cent de oui.</t>
-  </si>
-  <si>
-    <t>la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
-  </si>
-  <si>
-    <t>Les habitants de #Gemeinde_f approuvent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec #JaStimmenInProzent pour cent de oui.</t>
-  </si>
-  <si>
-    <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent à la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
-  </si>
-  <si>
-    <t>la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte et #NeinStimmenAbsolut à le refuser.</t>
-  </si>
-  <si>
-    <t>Les habitants de #Gemeinde_f rejettent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec #NeinStimmenInProzent pour cent de non.</t>
-  </si>
-  <si>
-    <t>Les habitants de #Gemeinde_f s'opposent à la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec #NeinStimmenInProzent pour cent de non.</t>
-  </si>
-  <si>
-    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
-  </si>
-  <si>
-    <t>la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus ne passe pas la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à refuser le texte et #JaStimmenAbsolut à l'approuver.</t>
-  </si>
-  <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus et #JaStimmenAbsolut à la refuser.</t>
-  </si>
-  <si>
-    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
-  </si>
-  <si>
-    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus.</t>
-  </si>
-  <si>
-    <t>C'est à #Gemeinde_f que la forte acceptation de cet objet a été enregistrée dans le canton.</t>
-  </si>
-  <si>
-    <t>C'est à #Gemeinde_f que le refus le plus net de cet objet a été enregistré dans le canton.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_f a approuvé le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_f a rejeté le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_f a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_f a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Hauptvorlage und Gegenvorschlag angenommen, Stichentscheid für Hauptvorlage</t>
-  </si>
-  <si>
-    <t>Hauptvorlage und Gegenvorschlag angenommen, Stichentscheid für Gegenvorschlag</t>
-  </si>
-  <si>
-    <t>Hauptvorlage angenommen, Gegenvorschlag abgelehnt</t>
-  </si>
-  <si>
-    <t>Hauptvorlage abgelehnt, Gegenvorschlag angenommen</t>
-  </si>
-  <si>
-    <t>Hauptvorlage und Gegenvorschlag abgelehnt</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Beispiel</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d</t>
-  </si>
-  <si>
-    <t>Biel</t>
-  </si>
-  <si>
-    <t>#Gemeinde_f</t>
-  </si>
-  <si>
-    <t>Bienne</t>
-  </si>
-  <si>
-    <t>#Kanton_d</t>
-  </si>
-  <si>
-    <t>Genf</t>
-  </si>
-  <si>
-    <t>#Kanton_f</t>
-  </si>
-  <si>
-    <t>Geneva</t>
-  </si>
-  <si>
-    <t>#JaStimmenInProzent</t>
-  </si>
-  <si>
-    <t>#NeinStimmenInProzent</t>
-  </si>
-  <si>
-    <t>#JaStimmenAbsolut</t>
-  </si>
-  <si>
-    <t>6'040</t>
-  </si>
-  <si>
-    <t>#NeinStimmenAbsolut</t>
-  </si>
-  <si>
-    <t>3'960</t>
-  </si>
-  <si>
-    <t>#HistJaStimmenInProzent</t>
-  </si>
-  <si>
-    <t>#HistNeinStimmeninProzent</t>
-  </si>
-  <si>
-    <t>#HistJaStimmenAbsolut</t>
-  </si>
-  <si>
-    <t>#HistNeinStimmenAbsolut</t>
-  </si>
-  <si>
-    <t>#Gueltige_Stimmen</t>
-  </si>
-  <si>
-    <t>8'725</t>
-  </si>
-  <si>
-    <t>Spezialfall Variablen Hauptvorlage &amp; Gegenvorschlag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1382,6 +1373,9 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <color rgb="FF000000"/>
@@ -1460,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1539,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1554,7 +1551,7 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1563,7 +1560,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -10391,7 +10388,7 @@
         <v>366</v>
       </c>
       <c r="B6" s="27"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="28" t="s">
         <v>369</v>
       </c>
     </row>
@@ -10461,7 +10458,7 @@
       <c r="B12" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="28" t="s">
         <v>380</v>
       </c>
       <c r="D12" s="7"/>
@@ -10472,7 +10469,7 @@
         <v>376</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="28" t="s">
         <v>381</v>
       </c>
       <c r="D13" s="7"/>
@@ -10505,77 +10502,12 @@
         <v>382</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="28" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="15"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="7" t="s">
-        <v>399</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C4">
@@ -10583,7 +10515,7 @@
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2 B5 B17:B977">
+  <conditionalFormatting sqref="B2 B5 B17:B963">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
@@ -10632,10 +10564,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -10647,7 +10579,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
@@ -10656,7 +10588,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
@@ -10665,7 +10597,7 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
@@ -10678,7 +10610,7 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
@@ -10691,7 +10623,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8">
@@ -10700,7 +10632,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9">
@@ -10709,7 +10641,7 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -10720,9 +10652,9 @@
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="5" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
@@ -10735,7 +10667,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
@@ -10748,7 +10680,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
@@ -10761,7 +10693,7 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
@@ -10774,7 +10706,7 @@
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
@@ -10786,8 +10718,8 @@
         <v>256</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="29" t="s">
-        <v>414</v>
+      <c r="C15" s="30" t="s">
+        <v>401</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
@@ -10799,8 +10731,8 @@
         <v>261</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="29" t="s">
-        <v>415</v>
+      <c r="C16" s="30" t="s">
+        <v>402</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
@@ -10812,8 +10744,8 @@
         <v>266</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="29" t="s">
-        <v>416</v>
+      <c r="C17" s="30" t="s">
+        <v>403</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
@@ -10825,8 +10757,8 @@
         <v>271</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="29" t="s">
-        <v>417</v>
+      <c r="C18" s="30" t="s">
+        <v>404</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
@@ -10951,7 +10883,7 @@
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
@@ -11102,7 +11034,7 @@
       <c r="B2" s="5"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
@@ -11127,7 +11059,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6">
@@ -11154,7 +11086,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9">
@@ -11183,7 +11115,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
@@ -11211,7 +11143,7 @@
       <c r="B14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15">
@@ -11253,3125 +11185,3125 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.0"/>
+    <col customWidth="1" min="1" max="1" width="47.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>424</v>
+      <c r="A1" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>426</v>
+        <v>412</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>428</v>
+        <v>414</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>430</v>
+        <v>416</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>432</v>
+        <v>418</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B6" s="32">
+        <v>420</v>
+      </c>
+      <c r="B6" s="33">
         <v>60.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B7" s="32">
+        <v>421</v>
+      </c>
+      <c r="B7" s="33">
         <v>39.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>436</v>
+        <v>422</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>438</v>
+        <v>424</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B10" s="32">
+        <v>426</v>
+      </c>
+      <c r="B10" s="33">
         <v>60.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B11" s="32">
+        <v>427</v>
+      </c>
+      <c r="B11" s="33">
         <v>39.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>436</v>
+        <v>428</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>438</v>
+        <v>429</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>444</v>
+        <v>430</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="33"/>
+      <c r="B15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="B16" s="33"/>
+      <c r="A16" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" s="34"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B17" s="32">
+        <v>433</v>
+      </c>
+      <c r="B17" s="33">
         <v>60.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B18" s="32">
+        <v>434</v>
+      </c>
+      <c r="B18" s="33">
         <v>39.6</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>436</v>
+      <c r="A19" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B21" s="32">
+        <v>437</v>
+      </c>
+      <c r="B21" s="33">
         <v>60.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B22" s="32">
+        <v>438</v>
+      </c>
+      <c r="B22" s="33">
         <v>39.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>436</v>
+        <v>439</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>438</v>
+        <v>440</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B25" s="32">
+        <v>441</v>
+      </c>
+      <c r="B25" s="33">
         <v>60.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B26" s="32">
+        <v>442</v>
+      </c>
+      <c r="B26" s="33">
         <v>39.6</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="33"/>
+      <c r="B27" s="34"/>
     </row>
     <row r="28">
-      <c r="B28" s="33"/>
+      <c r="B28" s="34"/>
     </row>
     <row r="29">
-      <c r="B29" s="33"/>
+      <c r="B29" s="34"/>
     </row>
     <row r="30">
-      <c r="B30" s="33"/>
+      <c r="B30" s="34"/>
     </row>
     <row r="31">
-      <c r="B31" s="33"/>
+      <c r="B31" s="34"/>
     </row>
     <row r="32">
-      <c r="B32" s="33"/>
+      <c r="B32" s="34"/>
     </row>
     <row r="33">
-      <c r="B33" s="33"/>
+      <c r="B33" s="34"/>
     </row>
     <row r="34">
-      <c r="B34" s="33"/>
+      <c r="B34" s="34"/>
     </row>
     <row r="35">
-      <c r="B35" s="33"/>
+      <c r="B35" s="34"/>
     </row>
     <row r="36">
-      <c r="B36" s="33"/>
+      <c r="B36" s="34"/>
     </row>
     <row r="37">
-      <c r="B37" s="33"/>
+      <c r="B37" s="34"/>
     </row>
     <row r="38">
-      <c r="B38" s="33"/>
+      <c r="B38" s="34"/>
     </row>
     <row r="39">
-      <c r="B39" s="33"/>
+      <c r="B39" s="34"/>
     </row>
     <row r="40">
-      <c r="B40" s="33"/>
+      <c r="B40" s="34"/>
     </row>
     <row r="41">
-      <c r="B41" s="33"/>
+      <c r="B41" s="34"/>
     </row>
     <row r="42">
-      <c r="B42" s="33"/>
+      <c r="B42" s="34"/>
     </row>
     <row r="43">
-      <c r="B43" s="33"/>
+      <c r="B43" s="34"/>
     </row>
     <row r="44">
-      <c r="B44" s="33"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45">
-      <c r="B45" s="33"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46">
-      <c r="B46" s="33"/>
+      <c r="B46" s="34"/>
     </row>
     <row r="47">
-      <c r="B47" s="33"/>
+      <c r="B47" s="34"/>
     </row>
     <row r="48">
-      <c r="B48" s="33"/>
+      <c r="B48" s="34"/>
     </row>
     <row r="49">
-      <c r="B49" s="33"/>
+      <c r="B49" s="34"/>
     </row>
     <row r="50">
-      <c r="B50" s="33"/>
+      <c r="B50" s="34"/>
     </row>
     <row r="51">
-      <c r="B51" s="33"/>
+      <c r="B51" s="34"/>
     </row>
     <row r="52">
-      <c r="B52" s="33"/>
+      <c r="B52" s="34"/>
     </row>
     <row r="53">
-      <c r="B53" s="33"/>
+      <c r="B53" s="34"/>
     </row>
     <row r="54">
-      <c r="B54" s="33"/>
+      <c r="B54" s="34"/>
     </row>
     <row r="55">
-      <c r="B55" s="33"/>
+      <c r="B55" s="34"/>
     </row>
     <row r="56">
-      <c r="B56" s="33"/>
+      <c r="B56" s="34"/>
     </row>
     <row r="57">
-      <c r="B57" s="33"/>
+      <c r="B57" s="34"/>
     </row>
     <row r="58">
-      <c r="B58" s="33"/>
+      <c r="B58" s="34"/>
     </row>
     <row r="59">
-      <c r="B59" s="33"/>
+      <c r="B59" s="34"/>
     </row>
     <row r="60">
-      <c r="B60" s="33"/>
+      <c r="B60" s="34"/>
     </row>
     <row r="61">
-      <c r="B61" s="33"/>
+      <c r="B61" s="34"/>
     </row>
     <row r="62">
-      <c r="B62" s="33"/>
+      <c r="B62" s="34"/>
     </row>
     <row r="63">
-      <c r="B63" s="33"/>
+      <c r="B63" s="34"/>
     </row>
     <row r="64">
-      <c r="B64" s="33"/>
+      <c r="B64" s="34"/>
     </row>
     <row r="65">
-      <c r="B65" s="33"/>
+      <c r="B65" s="34"/>
     </row>
     <row r="66">
-      <c r="B66" s="33"/>
+      <c r="B66" s="34"/>
     </row>
     <row r="67">
-      <c r="B67" s="33"/>
+      <c r="B67" s="34"/>
     </row>
     <row r="68">
-      <c r="B68" s="33"/>
+      <c r="B68" s="34"/>
     </row>
     <row r="69">
-      <c r="B69" s="33"/>
+      <c r="B69" s="34"/>
     </row>
     <row r="70">
-      <c r="B70" s="33"/>
+      <c r="B70" s="34"/>
     </row>
     <row r="71">
-      <c r="B71" s="33"/>
+      <c r="B71" s="34"/>
     </row>
     <row r="72">
-      <c r="B72" s="33"/>
+      <c r="B72" s="34"/>
     </row>
     <row r="73">
-      <c r="B73" s="33"/>
+      <c r="B73" s="34"/>
     </row>
     <row r="74">
-      <c r="B74" s="33"/>
+      <c r="B74" s="34"/>
     </row>
     <row r="75">
-      <c r="B75" s="33"/>
+      <c r="B75" s="34"/>
     </row>
     <row r="76">
-      <c r="B76" s="33"/>
+      <c r="B76" s="34"/>
     </row>
     <row r="77">
-      <c r="B77" s="33"/>
+      <c r="B77" s="34"/>
     </row>
     <row r="78">
-      <c r="B78" s="33"/>
+      <c r="B78" s="34"/>
     </row>
     <row r="79">
-      <c r="B79" s="33"/>
+      <c r="B79" s="34"/>
     </row>
     <row r="80">
-      <c r="B80" s="33"/>
+      <c r="B80" s="34"/>
     </row>
     <row r="81">
-      <c r="B81" s="33"/>
+      <c r="B81" s="34"/>
     </row>
     <row r="82">
-      <c r="B82" s="33"/>
+      <c r="B82" s="34"/>
     </row>
     <row r="83">
-      <c r="B83" s="33"/>
+      <c r="B83" s="34"/>
     </row>
     <row r="84">
-      <c r="B84" s="33"/>
+      <c r="B84" s="34"/>
     </row>
     <row r="85">
-      <c r="B85" s="33"/>
+      <c r="B85" s="34"/>
     </row>
     <row r="86">
-      <c r="B86" s="33"/>
+      <c r="B86" s="34"/>
     </row>
     <row r="87">
-      <c r="B87" s="33"/>
+      <c r="B87" s="34"/>
     </row>
     <row r="88">
-      <c r="B88" s="33"/>
+      <c r="B88" s="34"/>
     </row>
     <row r="89">
-      <c r="B89" s="33"/>
+      <c r="B89" s="34"/>
     </row>
     <row r="90">
-      <c r="B90" s="33"/>
+      <c r="B90" s="34"/>
     </row>
     <row r="91">
-      <c r="B91" s="33"/>
+      <c r="B91" s="34"/>
     </row>
     <row r="92">
-      <c r="B92" s="33"/>
+      <c r="B92" s="34"/>
     </row>
     <row r="93">
-      <c r="B93" s="33"/>
+      <c r="B93" s="34"/>
     </row>
     <row r="94">
-      <c r="B94" s="33"/>
+      <c r="B94" s="34"/>
     </row>
     <row r="95">
-      <c r="B95" s="33"/>
+      <c r="B95" s="34"/>
     </row>
     <row r="96">
-      <c r="B96" s="33"/>
+      <c r="B96" s="34"/>
     </row>
     <row r="97">
-      <c r="B97" s="33"/>
+      <c r="B97" s="34"/>
     </row>
     <row r="98">
-      <c r="B98" s="33"/>
+      <c r="B98" s="34"/>
     </row>
     <row r="99">
-      <c r="B99" s="33"/>
+      <c r="B99" s="34"/>
     </row>
     <row r="100">
-      <c r="B100" s="33"/>
+      <c r="B100" s="34"/>
     </row>
     <row r="101">
-      <c r="B101" s="33"/>
+      <c r="B101" s="34"/>
     </row>
     <row r="102">
-      <c r="B102" s="33"/>
+      <c r="B102" s="34"/>
     </row>
     <row r="103">
-      <c r="B103" s="33"/>
+      <c r="B103" s="34"/>
     </row>
     <row r="104">
-      <c r="B104" s="33"/>
+      <c r="B104" s="34"/>
     </row>
     <row r="105">
-      <c r="B105" s="33"/>
+      <c r="B105" s="34"/>
     </row>
     <row r="106">
-      <c r="B106" s="33"/>
+      <c r="B106" s="34"/>
     </row>
     <row r="107">
-      <c r="B107" s="33"/>
+      <c r="B107" s="34"/>
     </row>
     <row r="108">
-      <c r="B108" s="33"/>
+      <c r="B108" s="34"/>
     </row>
     <row r="109">
-      <c r="B109" s="33"/>
+      <c r="B109" s="34"/>
     </row>
     <row r="110">
-      <c r="B110" s="33"/>
+      <c r="B110" s="34"/>
     </row>
     <row r="111">
-      <c r="B111" s="33"/>
+      <c r="B111" s="34"/>
     </row>
     <row r="112">
-      <c r="B112" s="33"/>
+      <c r="B112" s="34"/>
     </row>
     <row r="113">
-      <c r="B113" s="33"/>
+      <c r="B113" s="34"/>
     </row>
     <row r="114">
-      <c r="B114" s="33"/>
+      <c r="B114" s="34"/>
     </row>
     <row r="115">
-      <c r="B115" s="33"/>
+      <c r="B115" s="34"/>
     </row>
     <row r="116">
-      <c r="B116" s="33"/>
+      <c r="B116" s="34"/>
     </row>
     <row r="117">
-      <c r="B117" s="33"/>
+      <c r="B117" s="34"/>
     </row>
     <row r="118">
-      <c r="B118" s="33"/>
+      <c r="B118" s="34"/>
     </row>
     <row r="119">
-      <c r="B119" s="33"/>
+      <c r="B119" s="34"/>
     </row>
     <row r="120">
-      <c r="B120" s="33"/>
+      <c r="B120" s="34"/>
     </row>
     <row r="121">
-      <c r="B121" s="33"/>
+      <c r="B121" s="34"/>
     </row>
     <row r="122">
-      <c r="B122" s="33"/>
+      <c r="B122" s="34"/>
     </row>
     <row r="123">
-      <c r="B123" s="33"/>
+      <c r="B123" s="34"/>
     </row>
     <row r="124">
-      <c r="B124" s="33"/>
+      <c r="B124" s="34"/>
     </row>
     <row r="125">
-      <c r="B125" s="33"/>
+      <c r="B125" s="34"/>
     </row>
     <row r="126">
-      <c r="B126" s="33"/>
+      <c r="B126" s="34"/>
     </row>
     <row r="127">
-      <c r="B127" s="33"/>
+      <c r="B127" s="34"/>
     </row>
     <row r="128">
-      <c r="B128" s="33"/>
+      <c r="B128" s="34"/>
     </row>
     <row r="129">
-      <c r="B129" s="33"/>
+      <c r="B129" s="34"/>
     </row>
     <row r="130">
-      <c r="B130" s="33"/>
+      <c r="B130" s="34"/>
     </row>
     <row r="131">
-      <c r="B131" s="33"/>
+      <c r="B131" s="34"/>
     </row>
     <row r="132">
-      <c r="B132" s="33"/>
+      <c r="B132" s="34"/>
     </row>
     <row r="133">
-      <c r="B133" s="33"/>
+      <c r="B133" s="34"/>
     </row>
     <row r="134">
-      <c r="B134" s="33"/>
+      <c r="B134" s="34"/>
     </row>
     <row r="135">
-      <c r="B135" s="33"/>
+      <c r="B135" s="34"/>
     </row>
     <row r="136">
-      <c r="B136" s="33"/>
+      <c r="B136" s="34"/>
     </row>
     <row r="137">
-      <c r="B137" s="33"/>
+      <c r="B137" s="34"/>
     </row>
     <row r="138">
-      <c r="B138" s="33"/>
+      <c r="B138" s="34"/>
     </row>
     <row r="139">
-      <c r="B139" s="33"/>
+      <c r="B139" s="34"/>
     </row>
     <row r="140">
-      <c r="B140" s="33"/>
+      <c r="B140" s="34"/>
     </row>
     <row r="141">
-      <c r="B141" s="33"/>
+      <c r="B141" s="34"/>
     </row>
     <row r="142">
-      <c r="B142" s="33"/>
+      <c r="B142" s="34"/>
     </row>
     <row r="143">
-      <c r="B143" s="33"/>
+      <c r="B143" s="34"/>
     </row>
     <row r="144">
-      <c r="B144" s="33"/>
+      <c r="B144" s="34"/>
     </row>
     <row r="145">
-      <c r="B145" s="33"/>
+      <c r="B145" s="34"/>
     </row>
     <row r="146">
-      <c r="B146" s="33"/>
+      <c r="B146" s="34"/>
     </row>
     <row r="147">
-      <c r="B147" s="33"/>
+      <c r="B147" s="34"/>
     </row>
     <row r="148">
-      <c r="B148" s="33"/>
+      <c r="B148" s="34"/>
     </row>
     <row r="149">
-      <c r="B149" s="33"/>
+      <c r="B149" s="34"/>
     </row>
     <row r="150">
-      <c r="B150" s="33"/>
+      <c r="B150" s="34"/>
     </row>
     <row r="151">
-      <c r="B151" s="33"/>
+      <c r="B151" s="34"/>
     </row>
     <row r="152">
-      <c r="B152" s="33"/>
+      <c r="B152" s="34"/>
     </row>
     <row r="153">
-      <c r="B153" s="33"/>
+      <c r="B153" s="34"/>
     </row>
     <row r="154">
-      <c r="B154" s="33"/>
+      <c r="B154" s="34"/>
     </row>
     <row r="155">
-      <c r="B155" s="33"/>
+      <c r="B155" s="34"/>
     </row>
     <row r="156">
-      <c r="B156" s="33"/>
+      <c r="B156" s="34"/>
     </row>
     <row r="157">
-      <c r="B157" s="33"/>
+      <c r="B157" s="34"/>
     </row>
     <row r="158">
-      <c r="B158" s="33"/>
+      <c r="B158" s="34"/>
     </row>
     <row r="159">
-      <c r="B159" s="33"/>
+      <c r="B159" s="34"/>
     </row>
     <row r="160">
-      <c r="B160" s="33"/>
+      <c r="B160" s="34"/>
     </row>
     <row r="161">
-      <c r="B161" s="33"/>
+      <c r="B161" s="34"/>
     </row>
     <row r="162">
-      <c r="B162" s="33"/>
+      <c r="B162" s="34"/>
     </row>
     <row r="163">
-      <c r="B163" s="33"/>
+      <c r="B163" s="34"/>
     </row>
     <row r="164">
-      <c r="B164" s="33"/>
+      <c r="B164" s="34"/>
     </row>
     <row r="165">
-      <c r="B165" s="33"/>
+      <c r="B165" s="34"/>
     </row>
     <row r="166">
-      <c r="B166" s="33"/>
+      <c r="B166" s="34"/>
     </row>
     <row r="167">
-      <c r="B167" s="33"/>
+      <c r="B167" s="34"/>
     </row>
     <row r="168">
-      <c r="B168" s="33"/>
+      <c r="B168" s="34"/>
     </row>
     <row r="169">
-      <c r="B169" s="33"/>
+      <c r="B169" s="34"/>
     </row>
     <row r="170">
-      <c r="B170" s="33"/>
+      <c r="B170" s="34"/>
     </row>
     <row r="171">
-      <c r="B171" s="33"/>
+      <c r="B171" s="34"/>
     </row>
     <row r="172">
-      <c r="B172" s="33"/>
+      <c r="B172" s="34"/>
     </row>
     <row r="173">
-      <c r="B173" s="33"/>
+      <c r="B173" s="34"/>
     </row>
     <row r="174">
-      <c r="B174" s="33"/>
+      <c r="B174" s="34"/>
     </row>
     <row r="175">
-      <c r="B175" s="33"/>
+      <c r="B175" s="34"/>
     </row>
     <row r="176">
-      <c r="B176" s="33"/>
+      <c r="B176" s="34"/>
     </row>
     <row r="177">
-      <c r="B177" s="33"/>
+      <c r="B177" s="34"/>
     </row>
     <row r="178">
-      <c r="B178" s="33"/>
+      <c r="B178" s="34"/>
     </row>
     <row r="179">
-      <c r="B179" s="33"/>
+      <c r="B179" s="34"/>
     </row>
     <row r="180">
-      <c r="B180" s="33"/>
+      <c r="B180" s="34"/>
     </row>
     <row r="181">
-      <c r="B181" s="33"/>
+      <c r="B181" s="34"/>
     </row>
     <row r="182">
-      <c r="B182" s="33"/>
+      <c r="B182" s="34"/>
     </row>
     <row r="183">
-      <c r="B183" s="33"/>
+      <c r="B183" s="34"/>
     </row>
     <row r="184">
-      <c r="B184" s="33"/>
+      <c r="B184" s="34"/>
     </row>
     <row r="185">
-      <c r="B185" s="33"/>
+      <c r="B185" s="34"/>
     </row>
     <row r="186">
-      <c r="B186" s="33"/>
+      <c r="B186" s="34"/>
     </row>
     <row r="187">
-      <c r="B187" s="33"/>
+      <c r="B187" s="34"/>
     </row>
     <row r="188">
-      <c r="B188" s="33"/>
+      <c r="B188" s="34"/>
     </row>
     <row r="189">
-      <c r="B189" s="33"/>
+      <c r="B189" s="34"/>
     </row>
     <row r="190">
-      <c r="B190" s="33"/>
+      <c r="B190" s="34"/>
     </row>
     <row r="191">
-      <c r="B191" s="33"/>
+      <c r="B191" s="34"/>
     </row>
     <row r="192">
-      <c r="B192" s="33"/>
+      <c r="B192" s="34"/>
     </row>
     <row r="193">
-      <c r="B193" s="33"/>
+      <c r="B193" s="34"/>
     </row>
     <row r="194">
-      <c r="B194" s="33"/>
+      <c r="B194" s="34"/>
     </row>
     <row r="195">
-      <c r="B195" s="33"/>
+      <c r="B195" s="34"/>
     </row>
     <row r="196">
-      <c r="B196" s="33"/>
+      <c r="B196" s="34"/>
     </row>
     <row r="197">
-      <c r="B197" s="33"/>
+      <c r="B197" s="34"/>
     </row>
     <row r="198">
-      <c r="B198" s="33"/>
+      <c r="B198" s="34"/>
     </row>
     <row r="199">
-      <c r="B199" s="33"/>
+      <c r="B199" s="34"/>
     </row>
     <row r="200">
-      <c r="B200" s="33"/>
+      <c r="B200" s="34"/>
     </row>
     <row r="201">
-      <c r="B201" s="33"/>
+      <c r="B201" s="34"/>
     </row>
     <row r="202">
-      <c r="B202" s="33"/>
+      <c r="B202" s="34"/>
     </row>
     <row r="203">
-      <c r="B203" s="33"/>
+      <c r="B203" s="34"/>
     </row>
     <row r="204">
-      <c r="B204" s="33"/>
+      <c r="B204" s="34"/>
     </row>
     <row r="205">
-      <c r="B205" s="33"/>
+      <c r="B205" s="34"/>
     </row>
     <row r="206">
-      <c r="B206" s="33"/>
+      <c r="B206" s="34"/>
     </row>
     <row r="207">
-      <c r="B207" s="33"/>
+      <c r="B207" s="34"/>
     </row>
     <row r="208">
-      <c r="B208" s="33"/>
+      <c r="B208" s="34"/>
     </row>
     <row r="209">
-      <c r="B209" s="33"/>
+      <c r="B209" s="34"/>
     </row>
     <row r="210">
-      <c r="B210" s="33"/>
+      <c r="B210" s="34"/>
     </row>
     <row r="211">
-      <c r="B211" s="33"/>
+      <c r="B211" s="34"/>
     </row>
     <row r="212">
-      <c r="B212" s="33"/>
+      <c r="B212" s="34"/>
     </row>
     <row r="213">
-      <c r="B213" s="33"/>
+      <c r="B213" s="34"/>
     </row>
     <row r="214">
-      <c r="B214" s="33"/>
+      <c r="B214" s="34"/>
     </row>
     <row r="215">
-      <c r="B215" s="33"/>
+      <c r="B215" s="34"/>
     </row>
     <row r="216">
-      <c r="B216" s="33"/>
+      <c r="B216" s="34"/>
     </row>
     <row r="217">
-      <c r="B217" s="33"/>
+      <c r="B217" s="34"/>
     </row>
     <row r="218">
-      <c r="B218" s="33"/>
+      <c r="B218" s="34"/>
     </row>
     <row r="219">
-      <c r="B219" s="33"/>
+      <c r="B219" s="34"/>
     </row>
     <row r="220">
-      <c r="B220" s="33"/>
+      <c r="B220" s="34"/>
     </row>
     <row r="221">
-      <c r="B221" s="33"/>
+      <c r="B221" s="34"/>
     </row>
     <row r="222">
-      <c r="B222" s="33"/>
+      <c r="B222" s="34"/>
     </row>
     <row r="223">
-      <c r="B223" s="33"/>
+      <c r="B223" s="34"/>
     </row>
     <row r="224">
-      <c r="B224" s="33"/>
+      <c r="B224" s="34"/>
     </row>
     <row r="225">
-      <c r="B225" s="33"/>
+      <c r="B225" s="34"/>
     </row>
     <row r="226">
-      <c r="B226" s="33"/>
+      <c r="B226" s="34"/>
     </row>
     <row r="227">
-      <c r="B227" s="33"/>
+      <c r="B227" s="34"/>
     </row>
     <row r="228">
-      <c r="B228" s="33"/>
+      <c r="B228" s="34"/>
     </row>
     <row r="229">
-      <c r="B229" s="33"/>
+      <c r="B229" s="34"/>
     </row>
     <row r="230">
-      <c r="B230" s="33"/>
+      <c r="B230" s="34"/>
     </row>
     <row r="231">
-      <c r="B231" s="33"/>
+      <c r="B231" s="34"/>
     </row>
     <row r="232">
-      <c r="B232" s="33"/>
+      <c r="B232" s="34"/>
     </row>
     <row r="233">
-      <c r="B233" s="33"/>
+      <c r="B233" s="34"/>
     </row>
     <row r="234">
-      <c r="B234" s="33"/>
+      <c r="B234" s="34"/>
     </row>
     <row r="235">
-      <c r="B235" s="33"/>
+      <c r="B235" s="34"/>
     </row>
     <row r="236">
-      <c r="B236" s="33"/>
+      <c r="B236" s="34"/>
     </row>
     <row r="237">
-      <c r="B237" s="33"/>
+      <c r="B237" s="34"/>
     </row>
     <row r="238">
-      <c r="B238" s="33"/>
+      <c r="B238" s="34"/>
     </row>
     <row r="239">
-      <c r="B239" s="33"/>
+      <c r="B239" s="34"/>
     </row>
     <row r="240">
-      <c r="B240" s="33"/>
+      <c r="B240" s="34"/>
     </row>
     <row r="241">
-      <c r="B241" s="33"/>
+      <c r="B241" s="34"/>
     </row>
     <row r="242">
-      <c r="B242" s="33"/>
+      <c r="B242" s="34"/>
     </row>
     <row r="243">
-      <c r="B243" s="33"/>
+      <c r="B243" s="34"/>
     </row>
     <row r="244">
-      <c r="B244" s="33"/>
+      <c r="B244" s="34"/>
     </row>
     <row r="245">
-      <c r="B245" s="33"/>
+      <c r="B245" s="34"/>
     </row>
     <row r="246">
-      <c r="B246" s="33"/>
+      <c r="B246" s="34"/>
     </row>
     <row r="247">
-      <c r="B247" s="33"/>
+      <c r="B247" s="34"/>
     </row>
     <row r="248">
-      <c r="B248" s="33"/>
+      <c r="B248" s="34"/>
     </row>
     <row r="249">
-      <c r="B249" s="33"/>
+      <c r="B249" s="34"/>
     </row>
     <row r="250">
-      <c r="B250" s="33"/>
+      <c r="B250" s="34"/>
     </row>
     <row r="251">
-      <c r="B251" s="33"/>
+      <c r="B251" s="34"/>
     </row>
     <row r="252">
-      <c r="B252" s="33"/>
+      <c r="B252" s="34"/>
     </row>
     <row r="253">
-      <c r="B253" s="33"/>
+      <c r="B253" s="34"/>
     </row>
     <row r="254">
-      <c r="B254" s="33"/>
+      <c r="B254" s="34"/>
     </row>
     <row r="255">
-      <c r="B255" s="33"/>
+      <c r="B255" s="34"/>
     </row>
     <row r="256">
-      <c r="B256" s="33"/>
+      <c r="B256" s="34"/>
     </row>
     <row r="257">
-      <c r="B257" s="33"/>
+      <c r="B257" s="34"/>
     </row>
     <row r="258">
-      <c r="B258" s="33"/>
+      <c r="B258" s="34"/>
     </row>
     <row r="259">
-      <c r="B259" s="33"/>
+      <c r="B259" s="34"/>
     </row>
     <row r="260">
-      <c r="B260" s="33"/>
+      <c r="B260" s="34"/>
     </row>
     <row r="261">
-      <c r="B261" s="33"/>
+      <c r="B261" s="34"/>
     </row>
     <row r="262">
-      <c r="B262" s="33"/>
+      <c r="B262" s="34"/>
     </row>
     <row r="263">
-      <c r="B263" s="33"/>
+      <c r="B263" s="34"/>
     </row>
     <row r="264">
-      <c r="B264" s="33"/>
+      <c r="B264" s="34"/>
     </row>
     <row r="265">
-      <c r="B265" s="33"/>
+      <c r="B265" s="34"/>
     </row>
     <row r="266">
-      <c r="B266" s="33"/>
+      <c r="B266" s="34"/>
     </row>
     <row r="267">
-      <c r="B267" s="33"/>
+      <c r="B267" s="34"/>
     </row>
     <row r="268">
-      <c r="B268" s="33"/>
+      <c r="B268" s="34"/>
     </row>
     <row r="269">
-      <c r="B269" s="33"/>
+      <c r="B269" s="34"/>
     </row>
     <row r="270">
-      <c r="B270" s="33"/>
+      <c r="B270" s="34"/>
     </row>
     <row r="271">
-      <c r="B271" s="33"/>
+      <c r="B271" s="34"/>
     </row>
     <row r="272">
-      <c r="B272" s="33"/>
+      <c r="B272" s="34"/>
     </row>
     <row r="273">
-      <c r="B273" s="33"/>
+      <c r="B273" s="34"/>
     </row>
     <row r="274">
-      <c r="B274" s="33"/>
+      <c r="B274" s="34"/>
     </row>
     <row r="275">
-      <c r="B275" s="33"/>
+      <c r="B275" s="34"/>
     </row>
     <row r="276">
-      <c r="B276" s="33"/>
+      <c r="B276" s="34"/>
     </row>
     <row r="277">
-      <c r="B277" s="33"/>
+      <c r="B277" s="34"/>
     </row>
     <row r="278">
-      <c r="B278" s="33"/>
+      <c r="B278" s="34"/>
     </row>
     <row r="279">
-      <c r="B279" s="33"/>
+      <c r="B279" s="34"/>
     </row>
     <row r="280">
-      <c r="B280" s="33"/>
+      <c r="B280" s="34"/>
     </row>
     <row r="281">
-      <c r="B281" s="33"/>
+      <c r="B281" s="34"/>
     </row>
     <row r="282">
-      <c r="B282" s="33"/>
+      <c r="B282" s="34"/>
     </row>
     <row r="283">
-      <c r="B283" s="33"/>
+      <c r="B283" s="34"/>
     </row>
     <row r="284">
-      <c r="B284" s="33"/>
+      <c r="B284" s="34"/>
     </row>
     <row r="285">
-      <c r="B285" s="33"/>
+      <c r="B285" s="34"/>
     </row>
     <row r="286">
-      <c r="B286" s="33"/>
+      <c r="B286" s="34"/>
     </row>
     <row r="287">
-      <c r="B287" s="33"/>
+      <c r="B287" s="34"/>
     </row>
     <row r="288">
-      <c r="B288" s="33"/>
+      <c r="B288" s="34"/>
     </row>
     <row r="289">
-      <c r="B289" s="33"/>
+      <c r="B289" s="34"/>
     </row>
     <row r="290">
-      <c r="B290" s="33"/>
+      <c r="B290" s="34"/>
     </row>
     <row r="291">
-      <c r="B291" s="33"/>
+      <c r="B291" s="34"/>
     </row>
     <row r="292">
-      <c r="B292" s="33"/>
+      <c r="B292" s="34"/>
     </row>
     <row r="293">
-      <c r="B293" s="33"/>
+      <c r="B293" s="34"/>
     </row>
     <row r="294">
-      <c r="B294" s="33"/>
+      <c r="B294" s="34"/>
     </row>
     <row r="295">
-      <c r="B295" s="33"/>
+      <c r="B295" s="34"/>
     </row>
     <row r="296">
-      <c r="B296" s="33"/>
+      <c r="B296" s="34"/>
     </row>
     <row r="297">
-      <c r="B297" s="33"/>
+      <c r="B297" s="34"/>
     </row>
     <row r="298">
-      <c r="B298" s="33"/>
+      <c r="B298" s="34"/>
     </row>
     <row r="299">
-      <c r="B299" s="33"/>
+      <c r="B299" s="34"/>
     </row>
     <row r="300">
-      <c r="B300" s="33"/>
+      <c r="B300" s="34"/>
     </row>
     <row r="301">
-      <c r="B301" s="33"/>
+      <c r="B301" s="34"/>
     </row>
     <row r="302">
-      <c r="B302" s="33"/>
+      <c r="B302" s="34"/>
     </row>
     <row r="303">
-      <c r="B303" s="33"/>
+      <c r="B303" s="34"/>
     </row>
     <row r="304">
-      <c r="B304" s="33"/>
+      <c r="B304" s="34"/>
     </row>
     <row r="305">
-      <c r="B305" s="33"/>
+      <c r="B305" s="34"/>
     </row>
     <row r="306">
-      <c r="B306" s="33"/>
+      <c r="B306" s="34"/>
     </row>
     <row r="307">
-      <c r="B307" s="33"/>
+      <c r="B307" s="34"/>
     </row>
     <row r="308">
-      <c r="B308" s="33"/>
+      <c r="B308" s="34"/>
     </row>
     <row r="309">
-      <c r="B309" s="33"/>
+      <c r="B309" s="34"/>
     </row>
     <row r="310">
-      <c r="B310" s="33"/>
+      <c r="B310" s="34"/>
     </row>
     <row r="311">
-      <c r="B311" s="33"/>
+      <c r="B311" s="34"/>
     </row>
     <row r="312">
-      <c r="B312" s="33"/>
+      <c r="B312" s="34"/>
     </row>
     <row r="313">
-      <c r="B313" s="33"/>
+      <c r="B313" s="34"/>
     </row>
     <row r="314">
-      <c r="B314" s="33"/>
+      <c r="B314" s="34"/>
     </row>
     <row r="315">
-      <c r="B315" s="33"/>
+      <c r="B315" s="34"/>
     </row>
     <row r="316">
-      <c r="B316" s="33"/>
+      <c r="B316" s="34"/>
     </row>
     <row r="317">
-      <c r="B317" s="33"/>
+      <c r="B317" s="34"/>
     </row>
     <row r="318">
-      <c r="B318" s="33"/>
+      <c r="B318" s="34"/>
     </row>
     <row r="319">
-      <c r="B319" s="33"/>
+      <c r="B319" s="34"/>
     </row>
     <row r="320">
-      <c r="B320" s="33"/>
+      <c r="B320" s="34"/>
     </row>
     <row r="321">
-      <c r="B321" s="33"/>
+      <c r="B321" s="34"/>
     </row>
     <row r="322">
-      <c r="B322" s="33"/>
+      <c r="B322" s="34"/>
     </row>
     <row r="323">
-      <c r="B323" s="33"/>
+      <c r="B323" s="34"/>
     </row>
     <row r="324">
-      <c r="B324" s="33"/>
+      <c r="B324" s="34"/>
     </row>
     <row r="325">
-      <c r="B325" s="33"/>
+      <c r="B325" s="34"/>
     </row>
     <row r="326">
-      <c r="B326" s="33"/>
+      <c r="B326" s="34"/>
     </row>
     <row r="327">
-      <c r="B327" s="33"/>
+      <c r="B327" s="34"/>
     </row>
     <row r="328">
-      <c r="B328" s="33"/>
+      <c r="B328" s="34"/>
     </row>
     <row r="329">
-      <c r="B329" s="33"/>
+      <c r="B329" s="34"/>
     </row>
     <row r="330">
-      <c r="B330" s="33"/>
+      <c r="B330" s="34"/>
     </row>
     <row r="331">
-      <c r="B331" s="33"/>
+      <c r="B331" s="34"/>
     </row>
     <row r="332">
-      <c r="B332" s="33"/>
+      <c r="B332" s="34"/>
     </row>
     <row r="333">
-      <c r="B333" s="33"/>
+      <c r="B333" s="34"/>
     </row>
     <row r="334">
-      <c r="B334" s="33"/>
+      <c r="B334" s="34"/>
     </row>
     <row r="335">
-      <c r="B335" s="33"/>
+      <c r="B335" s="34"/>
     </row>
     <row r="336">
-      <c r="B336" s="33"/>
+      <c r="B336" s="34"/>
     </row>
     <row r="337">
-      <c r="B337" s="33"/>
+      <c r="B337" s="34"/>
     </row>
     <row r="338">
-      <c r="B338" s="33"/>
+      <c r="B338" s="34"/>
     </row>
     <row r="339">
-      <c r="B339" s="33"/>
+      <c r="B339" s="34"/>
     </row>
     <row r="340">
-      <c r="B340" s="33"/>
+      <c r="B340" s="34"/>
     </row>
     <row r="341">
-      <c r="B341" s="33"/>
+      <c r="B341" s="34"/>
     </row>
     <row r="342">
-      <c r="B342" s="33"/>
+      <c r="B342" s="34"/>
     </row>
     <row r="343">
-      <c r="B343" s="33"/>
+      <c r="B343" s="34"/>
     </row>
     <row r="344">
-      <c r="B344" s="33"/>
+      <c r="B344" s="34"/>
     </row>
     <row r="345">
-      <c r="B345" s="33"/>
+      <c r="B345" s="34"/>
     </row>
     <row r="346">
-      <c r="B346" s="33"/>
+      <c r="B346" s="34"/>
     </row>
     <row r="347">
-      <c r="B347" s="33"/>
+      <c r="B347" s="34"/>
     </row>
     <row r="348">
-      <c r="B348" s="33"/>
+      <c r="B348" s="34"/>
     </row>
     <row r="349">
-      <c r="B349" s="33"/>
+      <c r="B349" s="34"/>
     </row>
     <row r="350">
-      <c r="B350" s="33"/>
+      <c r="B350" s="34"/>
     </row>
     <row r="351">
-      <c r="B351" s="33"/>
+      <c r="B351" s="34"/>
     </row>
     <row r="352">
-      <c r="B352" s="33"/>
+      <c r="B352" s="34"/>
     </row>
     <row r="353">
-      <c r="B353" s="33"/>
+      <c r="B353" s="34"/>
     </row>
     <row r="354">
-      <c r="B354" s="33"/>
+      <c r="B354" s="34"/>
     </row>
     <row r="355">
-      <c r="B355" s="33"/>
+      <c r="B355" s="34"/>
     </row>
     <row r="356">
-      <c r="B356" s="33"/>
+      <c r="B356" s="34"/>
     </row>
     <row r="357">
-      <c r="B357" s="33"/>
+      <c r="B357" s="34"/>
     </row>
     <row r="358">
-      <c r="B358" s="33"/>
+      <c r="B358" s="34"/>
     </row>
     <row r="359">
-      <c r="B359" s="33"/>
+      <c r="B359" s="34"/>
     </row>
     <row r="360">
-      <c r="B360" s="33"/>
+      <c r="B360" s="34"/>
     </row>
     <row r="361">
-      <c r="B361" s="33"/>
+      <c r="B361" s="34"/>
     </row>
     <row r="362">
-      <c r="B362" s="33"/>
+      <c r="B362" s="34"/>
     </row>
     <row r="363">
-      <c r="B363" s="33"/>
+      <c r="B363" s="34"/>
     </row>
     <row r="364">
-      <c r="B364" s="33"/>
+      <c r="B364" s="34"/>
     </row>
     <row r="365">
-      <c r="B365" s="33"/>
+      <c r="B365" s="34"/>
     </row>
     <row r="366">
-      <c r="B366" s="33"/>
+      <c r="B366" s="34"/>
     </row>
     <row r="367">
-      <c r="B367" s="33"/>
+      <c r="B367" s="34"/>
     </row>
     <row r="368">
-      <c r="B368" s="33"/>
+      <c r="B368" s="34"/>
     </row>
     <row r="369">
-      <c r="B369" s="33"/>
+      <c r="B369" s="34"/>
     </row>
     <row r="370">
-      <c r="B370" s="33"/>
+      <c r="B370" s="34"/>
     </row>
     <row r="371">
-      <c r="B371" s="33"/>
+      <c r="B371" s="34"/>
     </row>
     <row r="372">
-      <c r="B372" s="33"/>
+      <c r="B372" s="34"/>
     </row>
     <row r="373">
-      <c r="B373" s="33"/>
+      <c r="B373" s="34"/>
     </row>
     <row r="374">
-      <c r="B374" s="33"/>
+      <c r="B374" s="34"/>
     </row>
     <row r="375">
-      <c r="B375" s="33"/>
+      <c r="B375" s="34"/>
     </row>
     <row r="376">
-      <c r="B376" s="33"/>
+      <c r="B376" s="34"/>
     </row>
     <row r="377">
-      <c r="B377" s="33"/>
+      <c r="B377" s="34"/>
     </row>
     <row r="378">
-      <c r="B378" s="33"/>
+      <c r="B378" s="34"/>
     </row>
     <row r="379">
-      <c r="B379" s="33"/>
+      <c r="B379" s="34"/>
     </row>
     <row r="380">
-      <c r="B380" s="33"/>
+      <c r="B380" s="34"/>
     </row>
     <row r="381">
-      <c r="B381" s="33"/>
+      <c r="B381" s="34"/>
     </row>
     <row r="382">
-      <c r="B382" s="33"/>
+      <c r="B382" s="34"/>
     </row>
     <row r="383">
-      <c r="B383" s="33"/>
+      <c r="B383" s="34"/>
     </row>
     <row r="384">
-      <c r="B384" s="33"/>
+      <c r="B384" s="34"/>
     </row>
     <row r="385">
-      <c r="B385" s="33"/>
+      <c r="B385" s="34"/>
     </row>
     <row r="386">
-      <c r="B386" s="33"/>
+      <c r="B386" s="34"/>
     </row>
     <row r="387">
-      <c r="B387" s="33"/>
+      <c r="B387" s="34"/>
     </row>
     <row r="388">
-      <c r="B388" s="33"/>
+      <c r="B388" s="34"/>
     </row>
     <row r="389">
-      <c r="B389" s="33"/>
+      <c r="B389" s="34"/>
     </row>
     <row r="390">
-      <c r="B390" s="33"/>
+      <c r="B390" s="34"/>
     </row>
     <row r="391">
-      <c r="B391" s="33"/>
+      <c r="B391" s="34"/>
     </row>
     <row r="392">
-      <c r="B392" s="33"/>
+      <c r="B392" s="34"/>
     </row>
     <row r="393">
-      <c r="B393" s="33"/>
+      <c r="B393" s="34"/>
     </row>
     <row r="394">
-      <c r="B394" s="33"/>
+      <c r="B394" s="34"/>
     </row>
     <row r="395">
-      <c r="B395" s="33"/>
+      <c r="B395" s="34"/>
     </row>
     <row r="396">
-      <c r="B396" s="33"/>
+      <c r="B396" s="34"/>
     </row>
     <row r="397">
-      <c r="B397" s="33"/>
+      <c r="B397" s="34"/>
     </row>
     <row r="398">
-      <c r="B398" s="33"/>
+      <c r="B398" s="34"/>
     </row>
     <row r="399">
-      <c r="B399" s="33"/>
+      <c r="B399" s="34"/>
     </row>
     <row r="400">
-      <c r="B400" s="33"/>
+      <c r="B400" s="34"/>
     </row>
     <row r="401">
-      <c r="B401" s="33"/>
+      <c r="B401" s="34"/>
     </row>
     <row r="402">
-      <c r="B402" s="33"/>
+      <c r="B402" s="34"/>
     </row>
     <row r="403">
-      <c r="B403" s="33"/>
+      <c r="B403" s="34"/>
     </row>
     <row r="404">
-      <c r="B404" s="33"/>
+      <c r="B404" s="34"/>
     </row>
     <row r="405">
-      <c r="B405" s="33"/>
+      <c r="B405" s="34"/>
     </row>
     <row r="406">
-      <c r="B406" s="33"/>
+      <c r="B406" s="34"/>
     </row>
     <row r="407">
-      <c r="B407" s="33"/>
+      <c r="B407" s="34"/>
     </row>
     <row r="408">
-      <c r="B408" s="33"/>
+      <c r="B408" s="34"/>
     </row>
     <row r="409">
-      <c r="B409" s="33"/>
+      <c r="B409" s="34"/>
     </row>
     <row r="410">
-      <c r="B410" s="33"/>
+      <c r="B410" s="34"/>
     </row>
     <row r="411">
-      <c r="B411" s="33"/>
+      <c r="B411" s="34"/>
     </row>
     <row r="412">
-      <c r="B412" s="33"/>
+      <c r="B412" s="34"/>
     </row>
     <row r="413">
-      <c r="B413" s="33"/>
+      <c r="B413" s="34"/>
     </row>
     <row r="414">
-      <c r="B414" s="33"/>
+      <c r="B414" s="34"/>
     </row>
     <row r="415">
-      <c r="B415" s="33"/>
+      <c r="B415" s="34"/>
     </row>
     <row r="416">
-      <c r="B416" s="33"/>
+      <c r="B416" s="34"/>
     </row>
     <row r="417">
-      <c r="B417" s="33"/>
+      <c r="B417" s="34"/>
     </row>
     <row r="418">
-      <c r="B418" s="33"/>
+      <c r="B418" s="34"/>
     </row>
     <row r="419">
-      <c r="B419" s="33"/>
+      <c r="B419" s="34"/>
     </row>
     <row r="420">
-      <c r="B420" s="33"/>
+      <c r="B420" s="34"/>
     </row>
     <row r="421">
-      <c r="B421" s="33"/>
+      <c r="B421" s="34"/>
     </row>
     <row r="422">
-      <c r="B422" s="33"/>
+      <c r="B422" s="34"/>
     </row>
     <row r="423">
-      <c r="B423" s="33"/>
+      <c r="B423" s="34"/>
     </row>
     <row r="424">
-      <c r="B424" s="33"/>
+      <c r="B424" s="34"/>
     </row>
     <row r="425">
-      <c r="B425" s="33"/>
+      <c r="B425" s="34"/>
     </row>
     <row r="426">
-      <c r="B426" s="33"/>
+      <c r="B426" s="34"/>
     </row>
     <row r="427">
-      <c r="B427" s="33"/>
+      <c r="B427" s="34"/>
     </row>
     <row r="428">
-      <c r="B428" s="33"/>
+      <c r="B428" s="34"/>
     </row>
     <row r="429">
-      <c r="B429" s="33"/>
+      <c r="B429" s="34"/>
     </row>
     <row r="430">
-      <c r="B430" s="33"/>
+      <c r="B430" s="34"/>
     </row>
     <row r="431">
-      <c r="B431" s="33"/>
+      <c r="B431" s="34"/>
     </row>
     <row r="432">
-      <c r="B432" s="33"/>
+      <c r="B432" s="34"/>
     </row>
     <row r="433">
-      <c r="B433" s="33"/>
+      <c r="B433" s="34"/>
     </row>
     <row r="434">
-      <c r="B434" s="33"/>
+      <c r="B434" s="34"/>
     </row>
     <row r="435">
-      <c r="B435" s="33"/>
+      <c r="B435" s="34"/>
     </row>
     <row r="436">
-      <c r="B436" s="33"/>
+      <c r="B436" s="34"/>
     </row>
     <row r="437">
-      <c r="B437" s="33"/>
+      <c r="B437" s="34"/>
     </row>
     <row r="438">
-      <c r="B438" s="33"/>
+      <c r="B438" s="34"/>
     </row>
     <row r="439">
-      <c r="B439" s="33"/>
+      <c r="B439" s="34"/>
     </row>
     <row r="440">
-      <c r="B440" s="33"/>
+      <c r="B440" s="34"/>
     </row>
     <row r="441">
-      <c r="B441" s="33"/>
+      <c r="B441" s="34"/>
     </row>
     <row r="442">
-      <c r="B442" s="33"/>
+      <c r="B442" s="34"/>
     </row>
     <row r="443">
-      <c r="B443" s="33"/>
+      <c r="B443" s="34"/>
     </row>
     <row r="444">
-      <c r="B444" s="33"/>
+      <c r="B444" s="34"/>
     </row>
     <row r="445">
-      <c r="B445" s="33"/>
+      <c r="B445" s="34"/>
     </row>
     <row r="446">
-      <c r="B446" s="33"/>
+      <c r="B446" s="34"/>
     </row>
     <row r="447">
-      <c r="B447" s="33"/>
+      <c r="B447" s="34"/>
     </row>
     <row r="448">
-      <c r="B448" s="33"/>
+      <c r="B448" s="34"/>
     </row>
     <row r="449">
-      <c r="B449" s="33"/>
+      <c r="B449" s="34"/>
     </row>
     <row r="450">
-      <c r="B450" s="33"/>
+      <c r="B450" s="34"/>
     </row>
     <row r="451">
-      <c r="B451" s="33"/>
+      <c r="B451" s="34"/>
     </row>
     <row r="452">
-      <c r="B452" s="33"/>
+      <c r="B452" s="34"/>
     </row>
     <row r="453">
-      <c r="B453" s="33"/>
+      <c r="B453" s="34"/>
     </row>
     <row r="454">
-      <c r="B454" s="33"/>
+      <c r="B454" s="34"/>
     </row>
     <row r="455">
-      <c r="B455" s="33"/>
+      <c r="B455" s="34"/>
     </row>
     <row r="456">
-      <c r="B456" s="33"/>
+      <c r="B456" s="34"/>
     </row>
     <row r="457">
-      <c r="B457" s="33"/>
+      <c r="B457" s="34"/>
     </row>
     <row r="458">
-      <c r="B458" s="33"/>
+      <c r="B458" s="34"/>
     </row>
     <row r="459">
-      <c r="B459" s="33"/>
+      <c r="B459" s="34"/>
     </row>
     <row r="460">
-      <c r="B460" s="33"/>
+      <c r="B460" s="34"/>
     </row>
     <row r="461">
-      <c r="B461" s="33"/>
+      <c r="B461" s="34"/>
     </row>
     <row r="462">
-      <c r="B462" s="33"/>
+      <c r="B462" s="34"/>
     </row>
     <row r="463">
-      <c r="B463" s="33"/>
+      <c r="B463" s="34"/>
     </row>
     <row r="464">
-      <c r="B464" s="33"/>
+      <c r="B464" s="34"/>
     </row>
     <row r="465">
-      <c r="B465" s="33"/>
+      <c r="B465" s="34"/>
     </row>
     <row r="466">
-      <c r="B466" s="33"/>
+      <c r="B466" s="34"/>
     </row>
     <row r="467">
-      <c r="B467" s="33"/>
+      <c r="B467" s="34"/>
     </row>
     <row r="468">
-      <c r="B468" s="33"/>
+      <c r="B468" s="34"/>
     </row>
     <row r="469">
-      <c r="B469" s="33"/>
+      <c r="B469" s="34"/>
     </row>
     <row r="470">
-      <c r="B470" s="33"/>
+      <c r="B470" s="34"/>
     </row>
     <row r="471">
-      <c r="B471" s="33"/>
+      <c r="B471" s="34"/>
     </row>
     <row r="472">
-      <c r="B472" s="33"/>
+      <c r="B472" s="34"/>
     </row>
     <row r="473">
-      <c r="B473" s="33"/>
+      <c r="B473" s="34"/>
     </row>
     <row r="474">
-      <c r="B474" s="33"/>
+      <c r="B474" s="34"/>
     </row>
     <row r="475">
-      <c r="B475" s="33"/>
+      <c r="B475" s="34"/>
     </row>
     <row r="476">
-      <c r="B476" s="33"/>
+      <c r="B476" s="34"/>
     </row>
     <row r="477">
-      <c r="B477" s="33"/>
+      <c r="B477" s="34"/>
     </row>
     <row r="478">
-      <c r="B478" s="33"/>
+      <c r="B478" s="34"/>
     </row>
     <row r="479">
-      <c r="B479" s="33"/>
+      <c r="B479" s="34"/>
     </row>
     <row r="480">
-      <c r="B480" s="33"/>
+      <c r="B480" s="34"/>
     </row>
     <row r="481">
-      <c r="B481" s="33"/>
+      <c r="B481" s="34"/>
     </row>
     <row r="482">
-      <c r="B482" s="33"/>
+      <c r="B482" s="34"/>
     </row>
     <row r="483">
-      <c r="B483" s="33"/>
+      <c r="B483" s="34"/>
     </row>
     <row r="484">
-      <c r="B484" s="33"/>
+      <c r="B484" s="34"/>
     </row>
     <row r="485">
-      <c r="B485" s="33"/>
+      <c r="B485" s="34"/>
     </row>
     <row r="486">
-      <c r="B486" s="33"/>
+      <c r="B486" s="34"/>
     </row>
     <row r="487">
-      <c r="B487" s="33"/>
+      <c r="B487" s="34"/>
     </row>
     <row r="488">
-      <c r="B488" s="33"/>
+      <c r="B488" s="34"/>
     </row>
     <row r="489">
-      <c r="B489" s="33"/>
+      <c r="B489" s="34"/>
     </row>
     <row r="490">
-      <c r="B490" s="33"/>
+      <c r="B490" s="34"/>
     </row>
     <row r="491">
-      <c r="B491" s="33"/>
+      <c r="B491" s="34"/>
     </row>
     <row r="492">
-      <c r="B492" s="33"/>
+      <c r="B492" s="34"/>
     </row>
     <row r="493">
-      <c r="B493" s="33"/>
+      <c r="B493" s="34"/>
     </row>
     <row r="494">
-      <c r="B494" s="33"/>
+      <c r="B494" s="34"/>
     </row>
     <row r="495">
-      <c r="B495" s="33"/>
+      <c r="B495" s="34"/>
     </row>
     <row r="496">
-      <c r="B496" s="33"/>
+      <c r="B496" s="34"/>
     </row>
     <row r="497">
-      <c r="B497" s="33"/>
+      <c r="B497" s="34"/>
     </row>
     <row r="498">
-      <c r="B498" s="33"/>
+      <c r="B498" s="34"/>
     </row>
     <row r="499">
-      <c r="B499" s="33"/>
+      <c r="B499" s="34"/>
     </row>
     <row r="500">
-      <c r="B500" s="33"/>
+      <c r="B500" s="34"/>
     </row>
     <row r="501">
-      <c r="B501" s="33"/>
+      <c r="B501" s="34"/>
     </row>
     <row r="502">
-      <c r="B502" s="33"/>
+      <c r="B502" s="34"/>
     </row>
     <row r="503">
-      <c r="B503" s="33"/>
+      <c r="B503" s="34"/>
     </row>
     <row r="504">
-      <c r="B504" s="33"/>
+      <c r="B504" s="34"/>
     </row>
     <row r="505">
-      <c r="B505" s="33"/>
+      <c r="B505" s="34"/>
     </row>
     <row r="506">
-      <c r="B506" s="33"/>
+      <c r="B506" s="34"/>
     </row>
     <row r="507">
-      <c r="B507" s="33"/>
+      <c r="B507" s="34"/>
     </row>
     <row r="508">
-      <c r="B508" s="33"/>
+      <c r="B508" s="34"/>
     </row>
     <row r="509">
-      <c r="B509" s="33"/>
+      <c r="B509" s="34"/>
     </row>
     <row r="510">
-      <c r="B510" s="33"/>
+      <c r="B510" s="34"/>
     </row>
     <row r="511">
-      <c r="B511" s="33"/>
+      <c r="B511" s="34"/>
     </row>
     <row r="512">
-      <c r="B512" s="33"/>
+      <c r="B512" s="34"/>
     </row>
     <row r="513">
-      <c r="B513" s="33"/>
+      <c r="B513" s="34"/>
     </row>
     <row r="514">
-      <c r="B514" s="33"/>
+      <c r="B514" s="34"/>
     </row>
     <row r="515">
-      <c r="B515" s="33"/>
+      <c r="B515" s="34"/>
     </row>
     <row r="516">
-      <c r="B516" s="33"/>
+      <c r="B516" s="34"/>
     </row>
     <row r="517">
-      <c r="B517" s="33"/>
+      <c r="B517" s="34"/>
     </row>
     <row r="518">
-      <c r="B518" s="33"/>
+      <c r="B518" s="34"/>
     </row>
     <row r="519">
-      <c r="B519" s="33"/>
+      <c r="B519" s="34"/>
     </row>
     <row r="520">
-      <c r="B520" s="33"/>
+      <c r="B520" s="34"/>
     </row>
     <row r="521">
-      <c r="B521" s="33"/>
+      <c r="B521" s="34"/>
     </row>
     <row r="522">
-      <c r="B522" s="33"/>
+      <c r="B522" s="34"/>
     </row>
     <row r="523">
-      <c r="B523" s="33"/>
+      <c r="B523" s="34"/>
     </row>
     <row r="524">
-      <c r="B524" s="33"/>
+      <c r="B524" s="34"/>
     </row>
     <row r="525">
-      <c r="B525" s="33"/>
+      <c r="B525" s="34"/>
     </row>
     <row r="526">
-      <c r="B526" s="33"/>
+      <c r="B526" s="34"/>
     </row>
     <row r="527">
-      <c r="B527" s="33"/>
+      <c r="B527" s="34"/>
     </row>
     <row r="528">
-      <c r="B528" s="33"/>
+      <c r="B528" s="34"/>
     </row>
     <row r="529">
-      <c r="B529" s="33"/>
+      <c r="B529" s="34"/>
     </row>
     <row r="530">
-      <c r="B530" s="33"/>
+      <c r="B530" s="34"/>
     </row>
     <row r="531">
-      <c r="B531" s="33"/>
+      <c r="B531" s="34"/>
     </row>
     <row r="532">
-      <c r="B532" s="33"/>
+      <c r="B532" s="34"/>
     </row>
     <row r="533">
-      <c r="B533" s="33"/>
+      <c r="B533" s="34"/>
     </row>
     <row r="534">
-      <c r="B534" s="33"/>
+      <c r="B534" s="34"/>
     </row>
     <row r="535">
-      <c r="B535" s="33"/>
+      <c r="B535" s="34"/>
     </row>
     <row r="536">
-      <c r="B536" s="33"/>
+      <c r="B536" s="34"/>
     </row>
     <row r="537">
-      <c r="B537" s="33"/>
+      <c r="B537" s="34"/>
     </row>
     <row r="538">
-      <c r="B538" s="33"/>
+      <c r="B538" s="34"/>
     </row>
     <row r="539">
-      <c r="B539" s="33"/>
+      <c r="B539" s="34"/>
     </row>
     <row r="540">
-      <c r="B540" s="33"/>
+      <c r="B540" s="34"/>
     </row>
     <row r="541">
-      <c r="B541" s="33"/>
+      <c r="B541" s="34"/>
     </row>
     <row r="542">
-      <c r="B542" s="33"/>
+      <c r="B542" s="34"/>
     </row>
     <row r="543">
-      <c r="B543" s="33"/>
+      <c r="B543" s="34"/>
     </row>
     <row r="544">
-      <c r="B544" s="33"/>
+      <c r="B544" s="34"/>
     </row>
     <row r="545">
-      <c r="B545" s="33"/>
+      <c r="B545" s="34"/>
     </row>
     <row r="546">
-      <c r="B546" s="33"/>
+      <c r="B546" s="34"/>
     </row>
     <row r="547">
-      <c r="B547" s="33"/>
+      <c r="B547" s="34"/>
     </row>
     <row r="548">
-      <c r="B548" s="33"/>
+      <c r="B548" s="34"/>
     </row>
     <row r="549">
-      <c r="B549" s="33"/>
+      <c r="B549" s="34"/>
     </row>
     <row r="550">
-      <c r="B550" s="33"/>
+      <c r="B550" s="34"/>
     </row>
     <row r="551">
-      <c r="B551" s="33"/>
+      <c r="B551" s="34"/>
     </row>
     <row r="552">
-      <c r="B552" s="33"/>
+      <c r="B552" s="34"/>
     </row>
     <row r="553">
-      <c r="B553" s="33"/>
+      <c r="B553" s="34"/>
     </row>
     <row r="554">
-      <c r="B554" s="33"/>
+      <c r="B554" s="34"/>
     </row>
     <row r="555">
-      <c r="B555" s="33"/>
+      <c r="B555" s="34"/>
     </row>
     <row r="556">
-      <c r="B556" s="33"/>
+      <c r="B556" s="34"/>
     </row>
     <row r="557">
-      <c r="B557" s="33"/>
+      <c r="B557" s="34"/>
     </row>
     <row r="558">
-      <c r="B558" s="33"/>
+      <c r="B558" s="34"/>
     </row>
     <row r="559">
-      <c r="B559" s="33"/>
+      <c r="B559" s="34"/>
     </row>
     <row r="560">
-      <c r="B560" s="33"/>
+      <c r="B560" s="34"/>
     </row>
     <row r="561">
-      <c r="B561" s="33"/>
+      <c r="B561" s="34"/>
     </row>
     <row r="562">
-      <c r="B562" s="33"/>
+      <c r="B562" s="34"/>
     </row>
     <row r="563">
-      <c r="B563" s="33"/>
+      <c r="B563" s="34"/>
     </row>
     <row r="564">
-      <c r="B564" s="33"/>
+      <c r="B564" s="34"/>
     </row>
     <row r="565">
-      <c r="B565" s="33"/>
+      <c r="B565" s="34"/>
     </row>
     <row r="566">
-      <c r="B566" s="33"/>
+      <c r="B566" s="34"/>
     </row>
     <row r="567">
-      <c r="B567" s="33"/>
+      <c r="B567" s="34"/>
     </row>
     <row r="568">
-      <c r="B568" s="33"/>
+      <c r="B568" s="34"/>
     </row>
     <row r="569">
-      <c r="B569" s="33"/>
+      <c r="B569" s="34"/>
     </row>
     <row r="570">
-      <c r="B570" s="33"/>
+      <c r="B570" s="34"/>
     </row>
     <row r="571">
-      <c r="B571" s="33"/>
+      <c r="B571" s="34"/>
     </row>
     <row r="572">
-      <c r="B572" s="33"/>
+      <c r="B572" s="34"/>
     </row>
     <row r="573">
-      <c r="B573" s="33"/>
+      <c r="B573" s="34"/>
     </row>
     <row r="574">
-      <c r="B574" s="33"/>
+      <c r="B574" s="34"/>
     </row>
     <row r="575">
-      <c r="B575" s="33"/>
+      <c r="B575" s="34"/>
     </row>
     <row r="576">
-      <c r="B576" s="33"/>
+      <c r="B576" s="34"/>
     </row>
     <row r="577">
-      <c r="B577" s="33"/>
+      <c r="B577" s="34"/>
     </row>
     <row r="578">
-      <c r="B578" s="33"/>
+      <c r="B578" s="34"/>
     </row>
     <row r="579">
-      <c r="B579" s="33"/>
+      <c r="B579" s="34"/>
     </row>
     <row r="580">
-      <c r="B580" s="33"/>
+      <c r="B580" s="34"/>
     </row>
     <row r="581">
-      <c r="B581" s="33"/>
+      <c r="B581" s="34"/>
     </row>
     <row r="582">
-      <c r="B582" s="33"/>
+      <c r="B582" s="34"/>
     </row>
     <row r="583">
-      <c r="B583" s="33"/>
+      <c r="B583" s="34"/>
     </row>
     <row r="584">
-      <c r="B584" s="33"/>
+      <c r="B584" s="34"/>
     </row>
     <row r="585">
-      <c r="B585" s="33"/>
+      <c r="B585" s="34"/>
     </row>
     <row r="586">
-      <c r="B586" s="33"/>
+      <c r="B586" s="34"/>
     </row>
     <row r="587">
-      <c r="B587" s="33"/>
+      <c r="B587" s="34"/>
     </row>
     <row r="588">
-      <c r="B588" s="33"/>
+      <c r="B588" s="34"/>
     </row>
     <row r="589">
-      <c r="B589" s="33"/>
+      <c r="B589" s="34"/>
     </row>
     <row r="590">
-      <c r="B590" s="33"/>
+      <c r="B590" s="34"/>
     </row>
     <row r="591">
-      <c r="B591" s="33"/>
+      <c r="B591" s="34"/>
     </row>
     <row r="592">
-      <c r="B592" s="33"/>
+      <c r="B592" s="34"/>
     </row>
     <row r="593">
-      <c r="B593" s="33"/>
+      <c r="B593" s="34"/>
     </row>
     <row r="594">
-      <c r="B594" s="33"/>
+      <c r="B594" s="34"/>
     </row>
     <row r="595">
-      <c r="B595" s="33"/>
+      <c r="B595" s="34"/>
     </row>
     <row r="596">
-      <c r="B596" s="33"/>
+      <c r="B596" s="34"/>
     </row>
     <row r="597">
-      <c r="B597" s="33"/>
+      <c r="B597" s="34"/>
     </row>
     <row r="598">
-      <c r="B598" s="33"/>
+      <c r="B598" s="34"/>
     </row>
     <row r="599">
-      <c r="B599" s="33"/>
+      <c r="B599" s="34"/>
     </row>
     <row r="600">
-      <c r="B600" s="33"/>
+      <c r="B600" s="34"/>
     </row>
     <row r="601">
-      <c r="B601" s="33"/>
+      <c r="B601" s="34"/>
     </row>
     <row r="602">
-      <c r="B602" s="33"/>
+      <c r="B602" s="34"/>
     </row>
     <row r="603">
-      <c r="B603" s="33"/>
+      <c r="B603" s="34"/>
     </row>
     <row r="604">
-      <c r="B604" s="33"/>
+      <c r="B604" s="34"/>
     </row>
     <row r="605">
-      <c r="B605" s="33"/>
+      <c r="B605" s="34"/>
     </row>
     <row r="606">
-      <c r="B606" s="33"/>
+      <c r="B606" s="34"/>
     </row>
     <row r="607">
-      <c r="B607" s="33"/>
+      <c r="B607" s="34"/>
     </row>
     <row r="608">
-      <c r="B608" s="33"/>
+      <c r="B608" s="34"/>
     </row>
     <row r="609">
-      <c r="B609" s="33"/>
+      <c r="B609" s="34"/>
     </row>
     <row r="610">
-      <c r="B610" s="33"/>
+      <c r="B610" s="34"/>
     </row>
     <row r="611">
-      <c r="B611" s="33"/>
+      <c r="B611" s="34"/>
     </row>
     <row r="612">
-      <c r="B612" s="33"/>
+      <c r="B612" s="34"/>
     </row>
     <row r="613">
-      <c r="B613" s="33"/>
+      <c r="B613" s="34"/>
     </row>
     <row r="614">
-      <c r="B614" s="33"/>
+      <c r="B614" s="34"/>
     </row>
     <row r="615">
-      <c r="B615" s="33"/>
+      <c r="B615" s="34"/>
     </row>
     <row r="616">
-      <c r="B616" s="33"/>
+      <c r="B616" s="34"/>
     </row>
     <row r="617">
-      <c r="B617" s="33"/>
+      <c r="B617" s="34"/>
     </row>
     <row r="618">
-      <c r="B618" s="33"/>
+      <c r="B618" s="34"/>
     </row>
     <row r="619">
-      <c r="B619" s="33"/>
+      <c r="B619" s="34"/>
     </row>
     <row r="620">
-      <c r="B620" s="33"/>
+      <c r="B620" s="34"/>
     </row>
     <row r="621">
-      <c r="B621" s="33"/>
+      <c r="B621" s="34"/>
     </row>
     <row r="622">
-      <c r="B622" s="33"/>
+      <c r="B622" s="34"/>
     </row>
     <row r="623">
-      <c r="B623" s="33"/>
+      <c r="B623" s="34"/>
     </row>
     <row r="624">
-      <c r="B624" s="33"/>
+      <c r="B624" s="34"/>
     </row>
     <row r="625">
-      <c r="B625" s="33"/>
+      <c r="B625" s="34"/>
     </row>
     <row r="626">
-      <c r="B626" s="33"/>
+      <c r="B626" s="34"/>
     </row>
     <row r="627">
-      <c r="B627" s="33"/>
+      <c r="B627" s="34"/>
     </row>
     <row r="628">
-      <c r="B628" s="33"/>
+      <c r="B628" s="34"/>
     </row>
     <row r="629">
-      <c r="B629" s="33"/>
+      <c r="B629" s="34"/>
     </row>
     <row r="630">
-      <c r="B630" s="33"/>
+      <c r="B630" s="34"/>
     </row>
     <row r="631">
-      <c r="B631" s="33"/>
+      <c r="B631" s="34"/>
     </row>
     <row r="632">
-      <c r="B632" s="33"/>
+      <c r="B632" s="34"/>
     </row>
     <row r="633">
-      <c r="B633" s="33"/>
+      <c r="B633" s="34"/>
     </row>
     <row r="634">
-      <c r="B634" s="33"/>
+      <c r="B634" s="34"/>
     </row>
     <row r="635">
-      <c r="B635" s="33"/>
+      <c r="B635" s="34"/>
     </row>
     <row r="636">
-      <c r="B636" s="33"/>
+      <c r="B636" s="34"/>
     </row>
     <row r="637">
-      <c r="B637" s="33"/>
+      <c r="B637" s="34"/>
     </row>
     <row r="638">
-      <c r="B638" s="33"/>
+      <c r="B638" s="34"/>
     </row>
     <row r="639">
-      <c r="B639" s="33"/>
+      <c r="B639" s="34"/>
     </row>
     <row r="640">
-      <c r="B640" s="33"/>
+      <c r="B640" s="34"/>
     </row>
     <row r="641">
-      <c r="B641" s="33"/>
+      <c r="B641" s="34"/>
     </row>
     <row r="642">
-      <c r="B642" s="33"/>
+      <c r="B642" s="34"/>
     </row>
     <row r="643">
-      <c r="B643" s="33"/>
+      <c r="B643" s="34"/>
     </row>
     <row r="644">
-      <c r="B644" s="33"/>
+      <c r="B644" s="34"/>
     </row>
     <row r="645">
-      <c r="B645" s="33"/>
+      <c r="B645" s="34"/>
     </row>
     <row r="646">
-      <c r="B646" s="33"/>
+      <c r="B646" s="34"/>
     </row>
     <row r="647">
-      <c r="B647" s="33"/>
+      <c r="B647" s="34"/>
     </row>
     <row r="648">
-      <c r="B648" s="33"/>
+      <c r="B648" s="34"/>
     </row>
     <row r="649">
-      <c r="B649" s="33"/>
+      <c r="B649" s="34"/>
     </row>
     <row r="650">
-      <c r="B650" s="33"/>
+      <c r="B650" s="34"/>
     </row>
     <row r="651">
-      <c r="B651" s="33"/>
+      <c r="B651" s="34"/>
     </row>
     <row r="652">
-      <c r="B652" s="33"/>
+      <c r="B652" s="34"/>
     </row>
     <row r="653">
-      <c r="B653" s="33"/>
+      <c r="B653" s="34"/>
     </row>
     <row r="654">
-      <c r="B654" s="33"/>
+      <c r="B654" s="34"/>
     </row>
     <row r="655">
-      <c r="B655" s="33"/>
+      <c r="B655" s="34"/>
     </row>
     <row r="656">
-      <c r="B656" s="33"/>
+      <c r="B656" s="34"/>
     </row>
     <row r="657">
-      <c r="B657" s="33"/>
+      <c r="B657" s="34"/>
     </row>
     <row r="658">
-      <c r="B658" s="33"/>
+      <c r="B658" s="34"/>
     </row>
     <row r="659">
-      <c r="B659" s="33"/>
+      <c r="B659" s="34"/>
     </row>
     <row r="660">
-      <c r="B660" s="33"/>
+      <c r="B660" s="34"/>
     </row>
     <row r="661">
-      <c r="B661" s="33"/>
+      <c r="B661" s="34"/>
     </row>
     <row r="662">
-      <c r="B662" s="33"/>
+      <c r="B662" s="34"/>
     </row>
     <row r="663">
-      <c r="B663" s="33"/>
+      <c r="B663" s="34"/>
     </row>
     <row r="664">
-      <c r="B664" s="33"/>
+      <c r="B664" s="34"/>
     </row>
     <row r="665">
-      <c r="B665" s="33"/>
+      <c r="B665" s="34"/>
     </row>
     <row r="666">
-      <c r="B666" s="33"/>
+      <c r="B666" s="34"/>
     </row>
     <row r="667">
-      <c r="B667" s="33"/>
+      <c r="B667" s="34"/>
     </row>
     <row r="668">
-      <c r="B668" s="33"/>
+      <c r="B668" s="34"/>
     </row>
     <row r="669">
-      <c r="B669" s="33"/>
+      <c r="B669" s="34"/>
     </row>
     <row r="670">
-      <c r="B670" s="33"/>
+      <c r="B670" s="34"/>
     </row>
     <row r="671">
-      <c r="B671" s="33"/>
+      <c r="B671" s="34"/>
     </row>
     <row r="672">
-      <c r="B672" s="33"/>
+      <c r="B672" s="34"/>
     </row>
     <row r="673">
-      <c r="B673" s="33"/>
+      <c r="B673" s="34"/>
     </row>
     <row r="674">
-      <c r="B674" s="33"/>
+      <c r="B674" s="34"/>
     </row>
     <row r="675">
-      <c r="B675" s="33"/>
+      <c r="B675" s="34"/>
     </row>
     <row r="676">
-      <c r="B676" s="33"/>
+      <c r="B676" s="34"/>
     </row>
     <row r="677">
-      <c r="B677" s="33"/>
+      <c r="B677" s="34"/>
     </row>
     <row r="678">
-      <c r="B678" s="33"/>
+      <c r="B678" s="34"/>
     </row>
     <row r="679">
-      <c r="B679" s="33"/>
+      <c r="B679" s="34"/>
     </row>
     <row r="680">
-      <c r="B680" s="33"/>
+      <c r="B680" s="34"/>
     </row>
     <row r="681">
-      <c r="B681" s="33"/>
+      <c r="B681" s="34"/>
     </row>
     <row r="682">
-      <c r="B682" s="33"/>
+      <c r="B682" s="34"/>
     </row>
     <row r="683">
-      <c r="B683" s="33"/>
+      <c r="B683" s="34"/>
     </row>
     <row r="684">
-      <c r="B684" s="33"/>
+      <c r="B684" s="34"/>
     </row>
     <row r="685">
-      <c r="B685" s="33"/>
+      <c r="B685" s="34"/>
     </row>
     <row r="686">
-      <c r="B686" s="33"/>
+      <c r="B686" s="34"/>
     </row>
     <row r="687">
-      <c r="B687" s="33"/>
+      <c r="B687" s="34"/>
     </row>
     <row r="688">
-      <c r="B688" s="33"/>
+      <c r="B688" s="34"/>
     </row>
     <row r="689">
-      <c r="B689" s="33"/>
+      <c r="B689" s="34"/>
     </row>
     <row r="690">
-      <c r="B690" s="33"/>
+      <c r="B690" s="34"/>
     </row>
     <row r="691">
-      <c r="B691" s="33"/>
+      <c r="B691" s="34"/>
     </row>
     <row r="692">
-      <c r="B692" s="33"/>
+      <c r="B692" s="34"/>
     </row>
     <row r="693">
-      <c r="B693" s="33"/>
+      <c r="B693" s="34"/>
     </row>
     <row r="694">
-      <c r="B694" s="33"/>
+      <c r="B694" s="34"/>
     </row>
     <row r="695">
-      <c r="B695" s="33"/>
+      <c r="B695" s="34"/>
     </row>
     <row r="696">
-      <c r="B696" s="33"/>
+      <c r="B696" s="34"/>
     </row>
     <row r="697">
-      <c r="B697" s="33"/>
+      <c r="B697" s="34"/>
     </row>
     <row r="698">
-      <c r="B698" s="33"/>
+      <c r="B698" s="34"/>
     </row>
     <row r="699">
-      <c r="B699" s="33"/>
+      <c r="B699" s="34"/>
     </row>
     <row r="700">
-      <c r="B700" s="33"/>
+      <c r="B700" s="34"/>
     </row>
     <row r="701">
-      <c r="B701" s="33"/>
+      <c r="B701" s="34"/>
     </row>
     <row r="702">
-      <c r="B702" s="33"/>
+      <c r="B702" s="34"/>
     </row>
     <row r="703">
-      <c r="B703" s="33"/>
+      <c r="B703" s="34"/>
     </row>
     <row r="704">
-      <c r="B704" s="33"/>
+      <c r="B704" s="34"/>
     </row>
     <row r="705">
-      <c r="B705" s="33"/>
+      <c r="B705" s="34"/>
     </row>
     <row r="706">
-      <c r="B706" s="33"/>
+      <c r="B706" s="34"/>
     </row>
     <row r="707">
-      <c r="B707" s="33"/>
+      <c r="B707" s="34"/>
     </row>
     <row r="708">
-      <c r="B708" s="33"/>
+      <c r="B708" s="34"/>
     </row>
     <row r="709">
-      <c r="B709" s="33"/>
+      <c r="B709" s="34"/>
     </row>
     <row r="710">
-      <c r="B710" s="33"/>
+      <c r="B710" s="34"/>
     </row>
     <row r="711">
-      <c r="B711" s="33"/>
+      <c r="B711" s="34"/>
     </row>
     <row r="712">
-      <c r="B712" s="33"/>
+      <c r="B712" s="34"/>
     </row>
     <row r="713">
-      <c r="B713" s="33"/>
+      <c r="B713" s="34"/>
     </row>
     <row r="714">
-      <c r="B714" s="33"/>
+      <c r="B714" s="34"/>
     </row>
     <row r="715">
-      <c r="B715" s="33"/>
+      <c r="B715" s="34"/>
     </row>
     <row r="716">
-      <c r="B716" s="33"/>
+      <c r="B716" s="34"/>
     </row>
     <row r="717">
-      <c r="B717" s="33"/>
+      <c r="B717" s="34"/>
     </row>
     <row r="718">
-      <c r="B718" s="33"/>
+      <c r="B718" s="34"/>
     </row>
     <row r="719">
-      <c r="B719" s="33"/>
+      <c r="B719" s="34"/>
     </row>
     <row r="720">
-      <c r="B720" s="33"/>
+      <c r="B720" s="34"/>
     </row>
     <row r="721">
-      <c r="B721" s="33"/>
+      <c r="B721" s="34"/>
     </row>
     <row r="722">
-      <c r="B722" s="33"/>
+      <c r="B722" s="34"/>
     </row>
     <row r="723">
-      <c r="B723" s="33"/>
+      <c r="B723" s="34"/>
     </row>
     <row r="724">
-      <c r="B724" s="33"/>
+      <c r="B724" s="34"/>
     </row>
     <row r="725">
-      <c r="B725" s="33"/>
+      <c r="B725" s="34"/>
     </row>
     <row r="726">
-      <c r="B726" s="33"/>
+      <c r="B726" s="34"/>
     </row>
     <row r="727">
-      <c r="B727" s="33"/>
+      <c r="B727" s="34"/>
     </row>
     <row r="728">
-      <c r="B728" s="33"/>
+      <c r="B728" s="34"/>
     </row>
     <row r="729">
-      <c r="B729" s="33"/>
+      <c r="B729" s="34"/>
     </row>
     <row r="730">
-      <c r="B730" s="33"/>
+      <c r="B730" s="34"/>
     </row>
     <row r="731">
-      <c r="B731" s="33"/>
+      <c r="B731" s="34"/>
     </row>
     <row r="732">
-      <c r="B732" s="33"/>
+      <c r="B732" s="34"/>
     </row>
     <row r="733">
-      <c r="B733" s="33"/>
+      <c r="B733" s="34"/>
     </row>
     <row r="734">
-      <c r="B734" s="33"/>
+      <c r="B734" s="34"/>
     </row>
     <row r="735">
-      <c r="B735" s="33"/>
+      <c r="B735" s="34"/>
     </row>
     <row r="736">
-      <c r="B736" s="33"/>
+      <c r="B736" s="34"/>
     </row>
     <row r="737">
-      <c r="B737" s="33"/>
+      <c r="B737" s="34"/>
     </row>
     <row r="738">
-      <c r="B738" s="33"/>
+      <c r="B738" s="34"/>
     </row>
     <row r="739">
-      <c r="B739" s="33"/>
+      <c r="B739" s="34"/>
     </row>
     <row r="740">
-      <c r="B740" s="33"/>
+      <c r="B740" s="34"/>
     </row>
     <row r="741">
-      <c r="B741" s="33"/>
+      <c r="B741" s="34"/>
     </row>
     <row r="742">
-      <c r="B742" s="33"/>
+      <c r="B742" s="34"/>
     </row>
     <row r="743">
-      <c r="B743" s="33"/>
+      <c r="B743" s="34"/>
     </row>
     <row r="744">
-      <c r="B744" s="33"/>
+      <c r="B744" s="34"/>
     </row>
     <row r="745">
-      <c r="B745" s="33"/>
+      <c r="B745" s="34"/>
     </row>
     <row r="746">
-      <c r="B746" s="33"/>
+      <c r="B746" s="34"/>
     </row>
     <row r="747">
-      <c r="B747" s="33"/>
+      <c r="B747" s="34"/>
     </row>
     <row r="748">
-      <c r="B748" s="33"/>
+      <c r="B748" s="34"/>
     </row>
     <row r="749">
-      <c r="B749" s="33"/>
+      <c r="B749" s="34"/>
     </row>
     <row r="750">
-      <c r="B750" s="33"/>
+      <c r="B750" s="34"/>
     </row>
     <row r="751">
-      <c r="B751" s="33"/>
+      <c r="B751" s="34"/>
     </row>
     <row r="752">
-      <c r="B752" s="33"/>
+      <c r="B752" s="34"/>
     </row>
     <row r="753">
-      <c r="B753" s="33"/>
+      <c r="B753" s="34"/>
     </row>
     <row r="754">
-      <c r="B754" s="33"/>
+      <c r="B754" s="34"/>
     </row>
     <row r="755">
-      <c r="B755" s="33"/>
+      <c r="B755" s="34"/>
     </row>
     <row r="756">
-      <c r="B756" s="33"/>
+      <c r="B756" s="34"/>
     </row>
     <row r="757">
-      <c r="B757" s="33"/>
+      <c r="B757" s="34"/>
     </row>
     <row r="758">
-      <c r="B758" s="33"/>
+      <c r="B758" s="34"/>
     </row>
     <row r="759">
-      <c r="B759" s="33"/>
+      <c r="B759" s="34"/>
     </row>
     <row r="760">
-      <c r="B760" s="33"/>
+      <c r="B760" s="34"/>
     </row>
     <row r="761">
-      <c r="B761" s="33"/>
+      <c r="B761" s="34"/>
     </row>
     <row r="762">
-      <c r="B762" s="33"/>
+      <c r="B762" s="34"/>
     </row>
     <row r="763">
-      <c r="B763" s="33"/>
+      <c r="B763" s="34"/>
     </row>
     <row r="764">
-      <c r="B764" s="33"/>
+      <c r="B764" s="34"/>
     </row>
     <row r="765">
-      <c r="B765" s="33"/>
+      <c r="B765" s="34"/>
     </row>
     <row r="766">
-      <c r="B766" s="33"/>
+      <c r="B766" s="34"/>
     </row>
     <row r="767">
-      <c r="B767" s="33"/>
+      <c r="B767" s="34"/>
     </row>
     <row r="768">
-      <c r="B768" s="33"/>
+      <c r="B768" s="34"/>
     </row>
     <row r="769">
-      <c r="B769" s="33"/>
+      <c r="B769" s="34"/>
     </row>
     <row r="770">
-      <c r="B770" s="33"/>
+      <c r="B770" s="34"/>
     </row>
     <row r="771">
-      <c r="B771" s="33"/>
+      <c r="B771" s="34"/>
     </row>
     <row r="772">
-      <c r="B772" s="33"/>
+      <c r="B772" s="34"/>
     </row>
     <row r="773">
-      <c r="B773" s="33"/>
+      <c r="B773" s="34"/>
     </row>
     <row r="774">
-      <c r="B774" s="33"/>
+      <c r="B774" s="34"/>
     </row>
     <row r="775">
-      <c r="B775" s="33"/>
+      <c r="B775" s="34"/>
     </row>
     <row r="776">
-      <c r="B776" s="33"/>
+      <c r="B776" s="34"/>
     </row>
     <row r="777">
-      <c r="B777" s="33"/>
+      <c r="B777" s="34"/>
     </row>
     <row r="778">
-      <c r="B778" s="33"/>
+      <c r="B778" s="34"/>
     </row>
     <row r="779">
-      <c r="B779" s="33"/>
+      <c r="B779" s="34"/>
     </row>
     <row r="780">
-      <c r="B780" s="33"/>
+      <c r="B780" s="34"/>
     </row>
     <row r="781">
-      <c r="B781" s="33"/>
+      <c r="B781" s="34"/>
     </row>
     <row r="782">
-      <c r="B782" s="33"/>
+      <c r="B782" s="34"/>
     </row>
     <row r="783">
-      <c r="B783" s="33"/>
+      <c r="B783" s="34"/>
     </row>
     <row r="784">
-      <c r="B784" s="33"/>
+      <c r="B784" s="34"/>
     </row>
     <row r="785">
-      <c r="B785" s="33"/>
+      <c r="B785" s="34"/>
     </row>
     <row r="786">
-      <c r="B786" s="33"/>
+      <c r="B786" s="34"/>
     </row>
     <row r="787">
-      <c r="B787" s="33"/>
+      <c r="B787" s="34"/>
     </row>
     <row r="788">
-      <c r="B788" s="33"/>
+      <c r="B788" s="34"/>
     </row>
     <row r="789">
-      <c r="B789" s="33"/>
+      <c r="B789" s="34"/>
     </row>
     <row r="790">
-      <c r="B790" s="33"/>
+      <c r="B790" s="34"/>
     </row>
     <row r="791">
-      <c r="B791" s="33"/>
+      <c r="B791" s="34"/>
     </row>
     <row r="792">
-      <c r="B792" s="33"/>
+      <c r="B792" s="34"/>
     </row>
     <row r="793">
-      <c r="B793" s="33"/>
+      <c r="B793" s="34"/>
     </row>
     <row r="794">
-      <c r="B794" s="33"/>
+      <c r="B794" s="34"/>
     </row>
     <row r="795">
-      <c r="B795" s="33"/>
+      <c r="B795" s="34"/>
     </row>
     <row r="796">
-      <c r="B796" s="33"/>
+      <c r="B796" s="34"/>
     </row>
     <row r="797">
-      <c r="B797" s="33"/>
+      <c r="B797" s="34"/>
     </row>
     <row r="798">
-      <c r="B798" s="33"/>
+      <c r="B798" s="34"/>
     </row>
     <row r="799">
-      <c r="B799" s="33"/>
+      <c r="B799" s="34"/>
     </row>
     <row r="800">
-      <c r="B800" s="33"/>
+      <c r="B800" s="34"/>
     </row>
     <row r="801">
-      <c r="B801" s="33"/>
+      <c r="B801" s="34"/>
     </row>
     <row r="802">
-      <c r="B802" s="33"/>
+      <c r="B802" s="34"/>
     </row>
     <row r="803">
-      <c r="B803" s="33"/>
+      <c r="B803" s="34"/>
     </row>
     <row r="804">
-      <c r="B804" s="33"/>
+      <c r="B804" s="34"/>
     </row>
     <row r="805">
-      <c r="B805" s="33"/>
+      <c r="B805" s="34"/>
     </row>
     <row r="806">
-      <c r="B806" s="33"/>
+      <c r="B806" s="34"/>
     </row>
     <row r="807">
-      <c r="B807" s="33"/>
+      <c r="B807" s="34"/>
     </row>
     <row r="808">
-      <c r="B808" s="33"/>
+      <c r="B808" s="34"/>
     </row>
     <row r="809">
-      <c r="B809" s="33"/>
+      <c r="B809" s="34"/>
     </row>
     <row r="810">
-      <c r="B810" s="33"/>
+      <c r="B810" s="34"/>
     </row>
     <row r="811">
-      <c r="B811" s="33"/>
+      <c r="B811" s="34"/>
     </row>
     <row r="812">
-      <c r="B812" s="33"/>
+      <c r="B812" s="34"/>
     </row>
     <row r="813">
-      <c r="B813" s="33"/>
+      <c r="B813" s="34"/>
     </row>
     <row r="814">
-      <c r="B814" s="33"/>
+      <c r="B814" s="34"/>
     </row>
     <row r="815">
-      <c r="B815" s="33"/>
+      <c r="B815" s="34"/>
     </row>
     <row r="816">
-      <c r="B816" s="33"/>
+      <c r="B816" s="34"/>
     </row>
     <row r="817">
-      <c r="B817" s="33"/>
+      <c r="B817" s="34"/>
     </row>
     <row r="818">
-      <c r="B818" s="33"/>
+      <c r="B818" s="34"/>
     </row>
     <row r="819">
-      <c r="B819" s="33"/>
+      <c r="B819" s="34"/>
     </row>
     <row r="820">
-      <c r="B820" s="33"/>
+      <c r="B820" s="34"/>
     </row>
     <row r="821">
-      <c r="B821" s="33"/>
+      <c r="B821" s="34"/>
     </row>
     <row r="822">
-      <c r="B822" s="33"/>
+      <c r="B822" s="34"/>
     </row>
     <row r="823">
-      <c r="B823" s="33"/>
+      <c r="B823" s="34"/>
     </row>
     <row r="824">
-      <c r="B824" s="33"/>
+      <c r="B824" s="34"/>
     </row>
     <row r="825">
-      <c r="B825" s="33"/>
+      <c r="B825" s="34"/>
     </row>
     <row r="826">
-      <c r="B826" s="33"/>
+      <c r="B826" s="34"/>
     </row>
     <row r="827">
-      <c r="B827" s="33"/>
+      <c r="B827" s="34"/>
     </row>
     <row r="828">
-      <c r="B828" s="33"/>
+      <c r="B828" s="34"/>
     </row>
     <row r="829">
-      <c r="B829" s="33"/>
+      <c r="B829" s="34"/>
     </row>
     <row r="830">
-      <c r="B830" s="33"/>
+      <c r="B830" s="34"/>
     </row>
     <row r="831">
-      <c r="B831" s="33"/>
+      <c r="B831" s="34"/>
     </row>
     <row r="832">
-      <c r="B832" s="33"/>
+      <c r="B832" s="34"/>
     </row>
     <row r="833">
-      <c r="B833" s="33"/>
+      <c r="B833" s="34"/>
     </row>
     <row r="834">
-      <c r="B834" s="33"/>
+      <c r="B834" s="34"/>
     </row>
     <row r="835">
-      <c r="B835" s="33"/>
+      <c r="B835" s="34"/>
     </row>
     <row r="836">
-      <c r="B836" s="33"/>
+      <c r="B836" s="34"/>
     </row>
     <row r="837">
-      <c r="B837" s="33"/>
+      <c r="B837" s="34"/>
     </row>
     <row r="838">
-      <c r="B838" s="33"/>
+      <c r="B838" s="34"/>
     </row>
     <row r="839">
-      <c r="B839" s="33"/>
+      <c r="B839" s="34"/>
     </row>
     <row r="840">
-      <c r="B840" s="33"/>
+      <c r="B840" s="34"/>
     </row>
     <row r="841">
-      <c r="B841" s="33"/>
+      <c r="B841" s="34"/>
     </row>
     <row r="842">
-      <c r="B842" s="33"/>
+      <c r="B842" s="34"/>
     </row>
     <row r="843">
-      <c r="B843" s="33"/>
+      <c r="B843" s="34"/>
     </row>
     <row r="844">
-      <c r="B844" s="33"/>
+      <c r="B844" s="34"/>
     </row>
     <row r="845">
-      <c r="B845" s="33"/>
+      <c r="B845" s="34"/>
     </row>
     <row r="846">
-      <c r="B846" s="33"/>
+      <c r="B846" s="34"/>
     </row>
     <row r="847">
-      <c r="B847" s="33"/>
+      <c r="B847" s="34"/>
     </row>
     <row r="848">
-      <c r="B848" s="33"/>
+      <c r="B848" s="34"/>
     </row>
     <row r="849">
-      <c r="B849" s="33"/>
+      <c r="B849" s="34"/>
     </row>
     <row r="850">
-      <c r="B850" s="33"/>
+      <c r="B850" s="34"/>
     </row>
     <row r="851">
-      <c r="B851" s="33"/>
+      <c r="B851" s="34"/>
     </row>
     <row r="852">
-      <c r="B852" s="33"/>
+      <c r="B852" s="34"/>
     </row>
     <row r="853">
-      <c r="B853" s="33"/>
+      <c r="B853" s="34"/>
     </row>
     <row r="854">
-      <c r="B854" s="33"/>
+      <c r="B854" s="34"/>
     </row>
     <row r="855">
-      <c r="B855" s="33"/>
+      <c r="B855" s="34"/>
     </row>
     <row r="856">
-      <c r="B856" s="33"/>
+      <c r="B856" s="34"/>
     </row>
     <row r="857">
-      <c r="B857" s="33"/>
+      <c r="B857" s="34"/>
     </row>
     <row r="858">
-      <c r="B858" s="33"/>
+      <c r="B858" s="34"/>
     </row>
     <row r="859">
-      <c r="B859" s="33"/>
+      <c r="B859" s="34"/>
     </row>
     <row r="860">
-      <c r="B860" s="33"/>
+      <c r="B860" s="34"/>
     </row>
     <row r="861">
-      <c r="B861" s="33"/>
+      <c r="B861" s="34"/>
     </row>
     <row r="862">
-      <c r="B862" s="33"/>
+      <c r="B862" s="34"/>
     </row>
     <row r="863">
-      <c r="B863" s="33"/>
+      <c r="B863" s="34"/>
     </row>
     <row r="864">
-      <c r="B864" s="33"/>
+      <c r="B864" s="34"/>
     </row>
     <row r="865">
-      <c r="B865" s="33"/>
+      <c r="B865" s="34"/>
     </row>
     <row r="866">
-      <c r="B866" s="33"/>
+      <c r="B866" s="34"/>
     </row>
     <row r="867">
-      <c r="B867" s="33"/>
+      <c r="B867" s="34"/>
     </row>
     <row r="868">
-      <c r="B868" s="33"/>
+      <c r="B868" s="34"/>
     </row>
     <row r="869">
-      <c r="B869" s="33"/>
+      <c r="B869" s="34"/>
     </row>
     <row r="870">
-      <c r="B870" s="33"/>
+      <c r="B870" s="34"/>
     </row>
     <row r="871">
-      <c r="B871" s="33"/>
+      <c r="B871" s="34"/>
     </row>
     <row r="872">
-      <c r="B872" s="33"/>
+      <c r="B872" s="34"/>
     </row>
     <row r="873">
-      <c r="B873" s="33"/>
+      <c r="B873" s="34"/>
     </row>
     <row r="874">
-      <c r="B874" s="33"/>
+      <c r="B874" s="34"/>
     </row>
     <row r="875">
-      <c r="B875" s="33"/>
+      <c r="B875" s="34"/>
     </row>
     <row r="876">
-      <c r="B876" s="33"/>
+      <c r="B876" s="34"/>
     </row>
     <row r="877">
-      <c r="B877" s="33"/>
+      <c r="B877" s="34"/>
     </row>
     <row r="878">
-      <c r="B878" s="33"/>
+      <c r="B878" s="34"/>
     </row>
     <row r="879">
-      <c r="B879" s="33"/>
+      <c r="B879" s="34"/>
     </row>
     <row r="880">
-      <c r="B880" s="33"/>
+      <c r="B880" s="34"/>
     </row>
     <row r="881">
-      <c r="B881" s="33"/>
+      <c r="B881" s="34"/>
     </row>
     <row r="882">
-      <c r="B882" s="33"/>
+      <c r="B882" s="34"/>
     </row>
     <row r="883">
-      <c r="B883" s="33"/>
+      <c r="B883" s="34"/>
     </row>
     <row r="884">
-      <c r="B884" s="33"/>
+      <c r="B884" s="34"/>
     </row>
     <row r="885">
-      <c r="B885" s="33"/>
+      <c r="B885" s="34"/>
     </row>
     <row r="886">
-      <c r="B886" s="33"/>
+      <c r="B886" s="34"/>
     </row>
     <row r="887">
-      <c r="B887" s="33"/>
+      <c r="B887" s="34"/>
     </row>
     <row r="888">
-      <c r="B888" s="33"/>
+      <c r="B888" s="34"/>
     </row>
     <row r="889">
-      <c r="B889" s="33"/>
+      <c r="B889" s="34"/>
     </row>
     <row r="890">
-      <c r="B890" s="33"/>
+      <c r="B890" s="34"/>
     </row>
     <row r="891">
-      <c r="B891" s="33"/>
+      <c r="B891" s="34"/>
     </row>
     <row r="892">
-      <c r="B892" s="33"/>
+      <c r="B892" s="34"/>
     </row>
     <row r="893">
-      <c r="B893" s="33"/>
+      <c r="B893" s="34"/>
     </row>
     <row r="894">
-      <c r="B894" s="33"/>
+      <c r="B894" s="34"/>
     </row>
     <row r="895">
-      <c r="B895" s="33"/>
+      <c r="B895" s="34"/>
     </row>
     <row r="896">
-      <c r="B896" s="33"/>
+      <c r="B896" s="34"/>
     </row>
     <row r="897">
-      <c r="B897" s="33"/>
+      <c r="B897" s="34"/>
     </row>
     <row r="898">
-      <c r="B898" s="33"/>
+      <c r="B898" s="34"/>
     </row>
     <row r="899">
-      <c r="B899" s="33"/>
+      <c r="B899" s="34"/>
     </row>
     <row r="900">
-      <c r="B900" s="33"/>
+      <c r="B900" s="34"/>
     </row>
     <row r="901">
-      <c r="B901" s="33"/>
+      <c r="B901" s="34"/>
     </row>
     <row r="902">
-      <c r="B902" s="33"/>
+      <c r="B902" s="34"/>
     </row>
     <row r="903">
-      <c r="B903" s="33"/>
+      <c r="B903" s="34"/>
     </row>
     <row r="904">
-      <c r="B904" s="33"/>
+      <c r="B904" s="34"/>
     </row>
     <row r="905">
-      <c r="B905" s="33"/>
+      <c r="B905" s="34"/>
     </row>
     <row r="906">
-      <c r="B906" s="33"/>
+      <c r="B906" s="34"/>
     </row>
     <row r="907">
-      <c r="B907" s="33"/>
+      <c r="B907" s="34"/>
     </row>
     <row r="908">
-      <c r="B908" s="33"/>
+      <c r="B908" s="34"/>
     </row>
     <row r="909">
-      <c r="B909" s="33"/>
+      <c r="B909" s="34"/>
     </row>
     <row r="910">
-      <c r="B910" s="33"/>
+      <c r="B910" s="34"/>
     </row>
     <row r="911">
-      <c r="B911" s="33"/>
+      <c r="B911" s="34"/>
     </row>
     <row r="912">
-      <c r="B912" s="33"/>
+      <c r="B912" s="34"/>
     </row>
     <row r="913">
-      <c r="B913" s="33"/>
+      <c r="B913" s="34"/>
     </row>
     <row r="914">
-      <c r="B914" s="33"/>
+      <c r="B914" s="34"/>
     </row>
     <row r="915">
-      <c r="B915" s="33"/>
+      <c r="B915" s="34"/>
     </row>
     <row r="916">
-      <c r="B916" s="33"/>
+      <c r="B916" s="34"/>
     </row>
     <row r="917">
-      <c r="B917" s="33"/>
+      <c r="B917" s="34"/>
     </row>
     <row r="918">
-      <c r="B918" s="33"/>
+      <c r="B918" s="34"/>
     </row>
     <row r="919">
-      <c r="B919" s="33"/>
+      <c r="B919" s="34"/>
     </row>
     <row r="920">
-      <c r="B920" s="33"/>
+      <c r="B920" s="34"/>
     </row>
     <row r="921">
-      <c r="B921" s="33"/>
+      <c r="B921" s="34"/>
     </row>
     <row r="922">
-      <c r="B922" s="33"/>
+      <c r="B922" s="34"/>
     </row>
     <row r="923">
-      <c r="B923" s="33"/>
+      <c r="B923" s="34"/>
     </row>
     <row r="924">
-      <c r="B924" s="33"/>
+      <c r="B924" s="34"/>
     </row>
     <row r="925">
-      <c r="B925" s="33"/>
+      <c r="B925" s="34"/>
     </row>
     <row r="926">
-      <c r="B926" s="33"/>
+      <c r="B926" s="34"/>
     </row>
     <row r="927">
-      <c r="B927" s="33"/>
+      <c r="B927" s="34"/>
     </row>
     <row r="928">
-      <c r="B928" s="33"/>
+      <c r="B928" s="34"/>
     </row>
     <row r="929">
-      <c r="B929" s="33"/>
+      <c r="B929" s="34"/>
     </row>
     <row r="930">
-      <c r="B930" s="33"/>
+      <c r="B930" s="34"/>
     </row>
     <row r="931">
-      <c r="B931" s="33"/>
+      <c r="B931" s="34"/>
     </row>
     <row r="932">
-      <c r="B932" s="33"/>
+      <c r="B932" s="34"/>
     </row>
     <row r="933">
-      <c r="B933" s="33"/>
+      <c r="B933" s="34"/>
     </row>
     <row r="934">
-      <c r="B934" s="33"/>
+      <c r="B934" s="34"/>
     </row>
     <row r="935">
-      <c r="B935" s="33"/>
+      <c r="B935" s="34"/>
     </row>
     <row r="936">
-      <c r="B936" s="33"/>
+      <c r="B936" s="34"/>
     </row>
     <row r="937">
-      <c r="B937" s="33"/>
+      <c r="B937" s="34"/>
     </row>
     <row r="938">
-      <c r="B938" s="33"/>
+      <c r="B938" s="34"/>
     </row>
     <row r="939">
-      <c r="B939" s="33"/>
+      <c r="B939" s="34"/>
     </row>
     <row r="940">
-      <c r="B940" s="33"/>
+      <c r="B940" s="34"/>
     </row>
     <row r="941">
-      <c r="B941" s="33"/>
+      <c r="B941" s="34"/>
     </row>
     <row r="942">
-      <c r="B942" s="33"/>
+      <c r="B942" s="34"/>
     </row>
     <row r="943">
-      <c r="B943" s="33"/>
+      <c r="B943" s="34"/>
     </row>
     <row r="944">
-      <c r="B944" s="33"/>
+      <c r="B944" s="34"/>
     </row>
     <row r="945">
-      <c r="B945" s="33"/>
+      <c r="B945" s="34"/>
     </row>
     <row r="946">
-      <c r="B946" s="33"/>
+      <c r="B946" s="34"/>
     </row>
     <row r="947">
-      <c r="B947" s="33"/>
+      <c r="B947" s="34"/>
     </row>
     <row r="948">
-      <c r="B948" s="33"/>
+      <c r="B948" s="34"/>
     </row>
     <row r="949">
-      <c r="B949" s="33"/>
+      <c r="B949" s="34"/>
     </row>
     <row r="950">
-      <c r="B950" s="33"/>
+      <c r="B950" s="34"/>
     </row>
     <row r="951">
-      <c r="B951" s="33"/>
+      <c r="B951" s="34"/>
     </row>
     <row r="952">
-      <c r="B952" s="33"/>
+      <c r="B952" s="34"/>
     </row>
     <row r="953">
-      <c r="B953" s="33"/>
+      <c r="B953" s="34"/>
     </row>
     <row r="954">
-      <c r="B954" s="33"/>
+      <c r="B954" s="34"/>
     </row>
     <row r="955">
-      <c r="B955" s="33"/>
+      <c r="B955" s="34"/>
     </row>
     <row r="956">
-      <c r="B956" s="33"/>
+      <c r="B956" s="34"/>
     </row>
     <row r="957">
-      <c r="B957" s="33"/>
+      <c r="B957" s="34"/>
     </row>
     <row r="958">
-      <c r="B958" s="33"/>
+      <c r="B958" s="34"/>
     </row>
     <row r="959">
-      <c r="B959" s="33"/>
+      <c r="B959" s="34"/>
     </row>
     <row r="960">
-      <c r="B960" s="33"/>
+      <c r="B960" s="34"/>
     </row>
     <row r="961">
-      <c r="B961" s="33"/>
+      <c r="B961" s="34"/>
     </row>
     <row r="962">
-      <c r="B962" s="33"/>
+      <c r="B962" s="34"/>
     </row>
     <row r="963">
-      <c r="B963" s="33"/>
+      <c r="B963" s="34"/>
     </row>
     <row r="964">
-      <c r="B964" s="33"/>
+      <c r="B964" s="34"/>
     </row>
     <row r="965">
-      <c r="B965" s="33"/>
+      <c r="B965" s="34"/>
     </row>
     <row r="966">
-      <c r="B966" s="33"/>
+      <c r="B966" s="34"/>
     </row>
     <row r="967">
-      <c r="B967" s="33"/>
+      <c r="B967" s="34"/>
     </row>
     <row r="968">
-      <c r="B968" s="33"/>
+      <c r="B968" s="34"/>
     </row>
     <row r="969">
-      <c r="B969" s="33"/>
+      <c r="B969" s="34"/>
     </row>
     <row r="970">
-      <c r="B970" s="33"/>
+      <c r="B970" s="34"/>
     </row>
     <row r="971">
-      <c r="B971" s="33"/>
+      <c r="B971" s="34"/>
     </row>
     <row r="972">
-      <c r="B972" s="33"/>
+      <c r="B972" s="34"/>
     </row>
     <row r="973">
-      <c r="B973" s="33"/>
+      <c r="B973" s="34"/>
     </row>
     <row r="974">
-      <c r="B974" s="33"/>
+      <c r="B974" s="34"/>
     </row>
     <row r="975">
-      <c r="B975" s="33"/>
+      <c r="B975" s="34"/>
     </row>
     <row r="976">
-      <c r="B976" s="33"/>
+      <c r="B976" s="34"/>
     </row>
     <row r="977">
-      <c r="B977" s="33"/>
+      <c r="B977" s="34"/>
     </row>
     <row r="978">
-      <c r="B978" s="33"/>
+      <c r="B978" s="34"/>
     </row>
     <row r="979">
-      <c r="B979" s="33"/>
+      <c r="B979" s="34"/>
     </row>
     <row r="980">
-      <c r="B980" s="33"/>
+      <c r="B980" s="34"/>
     </row>
     <row r="981">
-      <c r="B981" s="33"/>
+      <c r="B981" s="34"/>
     </row>
     <row r="982">
-      <c r="B982" s="33"/>
+      <c r="B982" s="34"/>
     </row>
     <row r="983">
-      <c r="B983" s="33"/>
+      <c r="B983" s="34"/>
     </row>
     <row r="984">
-      <c r="B984" s="33"/>
+      <c r="B984" s="34"/>
     </row>
     <row r="985">
-      <c r="B985" s="33"/>
+      <c r="B985" s="34"/>
     </row>
     <row r="986">
-      <c r="B986" s="33"/>
+      <c r="B986" s="34"/>
     </row>
     <row r="987">
-      <c r="B987" s="33"/>
+      <c r="B987" s="34"/>
     </row>
     <row r="988">
-      <c r="B988" s="33"/>
+      <c r="B988" s="34"/>
     </row>
     <row r="989">
-      <c r="B989" s="33"/>
+      <c r="B989" s="34"/>
     </row>
     <row r="990">
-      <c r="B990" s="33"/>
+      <c r="B990" s="34"/>
     </row>
     <row r="991">
-      <c r="B991" s="33"/>
+      <c r="B991" s="34"/>
     </row>
     <row r="992">
-      <c r="B992" s="33"/>
+      <c r="B992" s="34"/>
     </row>
     <row r="993">
-      <c r="B993" s="33"/>
+      <c r="B993" s="34"/>
     </row>
     <row r="994">
-      <c r="B994" s="33"/>
+      <c r="B994" s="34"/>
     </row>
     <row r="995">
-      <c r="B995" s="33"/>
+      <c r="B995" s="34"/>
     </row>
     <row r="996">
-      <c r="B996" s="33"/>
+      <c r="B996" s="34"/>
     </row>
     <row r="997">
-      <c r="B997" s="33"/>
+      <c r="B997" s="34"/>
     </row>
     <row r="998">
-      <c r="B998" s="33"/>
+      <c r="B998" s="34"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
